--- a/tests/Feature/config/company-private-transfer_realistic.xlsx
+++ b/tests/Feature/config/company-private-transfer_realistic.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="101">
   <si>
     <t>Sum total</t>
   </si>
@@ -181,33 +181,6 @@
     <t xml:space="preserve"> Company dividend tax on originalAmount: 1508038, originalTaxAmount: 143293, dividendTaxAmount:570038, newTaxAmount: 713331, realizationamount: 938000</t>
   </si>
   <si>
-    <t xml:space="preserve"> Company dividend tax on originalAmount: 11177.2, originalTaxAmount: 146445, dividendTaxAmount:4225, newTaxAmount: 150670, realizationamount: 6952.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Company dividend tax on originalAmount: 1893.85, originalTaxAmount: 35211, dividendTaxAmount:716, newTaxAmount: 35927, realizationamount: 1177.85</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Company dividend tax on originalAmount: 445.06, originalTaxAmount: 8289, dividendTaxAmount:168, newTaxAmount: 8457, realizationamount: 277.06</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Company dividend tax on originalAmount: 104.09, originalTaxAmount: 1951, dividendTaxAmount:39, newTaxAmount: 1990, realizationamount: 65.089999999999</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Company dividend tax on originalAmount: 24.79, originalTaxAmount: 459, dividendTaxAmount:9, newTaxAmount: 468, realizationamount: 15.79</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Company dividend tax on originalAmount: 5.54, originalTaxAmount: 108, dividendTaxAmount:2, newTaxAmount: 110, realizationamount: 3.54</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Company dividend tax on originalAmount: 1.77, originalTaxAmount: 25, dividendTaxAmount:1, newTaxAmount: 26, realizationamount: 0.77</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Company dividend tax on originalAmount: 0.53, originalTaxAmount: 6, dividendTaxAmount:0, newTaxAmount: 6, realizationamount: 0.53</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Company dividend tax on originalAmount: 0.65, originalTaxAmount: 1, dividendTaxAmount:0, newTaxAmount: 1, realizationamount: 0.65</t>
-  </si>
-  <si>
     <t>Fond - Firma</t>
   </si>
   <si>
@@ -227,33 +200,6 @@
   </si>
   <si>
     <t xml:space="preserve"> Asset rule: Using current amount: 1501210 * 1 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Asset rule:100% 100% of 1651331=1651331</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Asset rule:100% 100% of 157622=157622</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Asset rule:100% 100% of 37105=37105</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Asset rule:100% 100% of 8734=8734</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Asset rule:100% 100% of 2055=2055</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Asset rule:100% 100% of 484=484</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Asset rule:100% 100% of 114=114</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Asset rule:100% 100% of 27=27</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Asset rule:100% 100% of 7=7</t>
   </si>
   <si>
     <t>Fond - Privat</t>
@@ -280,100 +226,100 @@
     <t xml:space="preserve">transfered 1508038 - 713331.364 (tax) = 794706.636 from fondcompany.2025.asset.marketAmount  Asset rule: Using current amount: 142417 * 1 </t>
   </si>
   <si>
-    <t xml:space="preserve">transfered 122945 - 81150.21 (tax) = 41794.79 from fondcompany.2026.asset.marketAmount  Asset rule: Using current amount: 1030836 * 1 </t>
+    <t xml:space="preserve"> Asset rule: Using current amount: 1030836 * 1 </t>
   </si>
   <si>
-    <t xml:space="preserve">transfered 28942 - 19103.076 (tax) = 9838.924 from fondcompany.2027.asset.marketAmount  Asset rule: Using current amount: 1147715 * 1 </t>
+    <t xml:space="preserve"> Asset rule: Using current amount: 1102995 * 1 </t>
   </si>
   <si>
-    <t xml:space="preserve">transfered 6813 - 4496.314 (tax) = 2316.686 from fondcompany.2028.asset.marketAmount  Asset rule: Using current amount: 1238583 * 1 </t>
+    <t xml:space="preserve"> Asset rule: Using current amount: 1180205 * 1 </t>
   </si>
   <si>
-    <t xml:space="preserve">transfered 1603 - 1057.934 (tax) = 545.066 from fondcompany.2029.asset.marketAmount  Asset rule: Using current amount: 1327763 * 1 </t>
+    <t xml:space="preserve"> Asset rule: Using current amount: 1262819 * 1 </t>
   </si>
   <si>
-    <t xml:space="preserve">transfered 378 - 248.884 (tax) = 129.116 from fondcompany.2030.asset.marketAmount  Asset rule: Using current amount: 1421289 * 1 </t>
+    <t xml:space="preserve"> Asset rule: Using current amount: 1351216 * 1 </t>
   </si>
   <si>
-    <t xml:space="preserve">transfered 89 - 58.642 (tax) = 30.358 from fondcompany.2031.asset.marketAmount  Asset rule: Using current amount: 1520917 * 1 </t>
+    <t xml:space="preserve"> Asset rule: Using current amount: 1445801 * 1 </t>
   </si>
   <si>
-    <t xml:space="preserve">transfered 21 - 13.938 (tax) = 7.062 from fondcompany.2032.asset.marketAmount  Asset rule: Using current amount: 1627413 * 1 </t>
+    <t xml:space="preserve"> Asset rule: Using current amount: 1547007 * 1 </t>
   </si>
   <si>
-    <t xml:space="preserve">transfered 5 - 3.89 (tax) = 1.11 from fondcompany.2033.asset.marketAmount  Asset rule: Using current amount: 1741340 * 1 </t>
+    <t xml:space="preserve"> Asset rule: Using current amount: 1655297 * 1 </t>
   </si>
   <si>
-    <t xml:space="preserve">transfered 2 - 0.756 (tax) = 1.244 from fondcompany.2034.asset.marketAmount  Asset rule: Using current amount: 1863235 * 1 </t>
+    <t xml:space="preserve"> Asset rule: Using current amount: 1771168 * 1 </t>
   </si>
   <si>
-    <t xml:space="preserve"> Asset rule: Using current amount: 1993662 * 1 </t>
+    <t xml:space="preserve"> Asset rule: Using current amount: 1895150 * 1 </t>
   </si>
   <si>
-    <t xml:space="preserve"> Asset rule: Using current amount: 2133218 * 1 </t>
+    <t xml:space="preserve"> Asset rule: Using current amount: 2027811 * 1 </t>
   </si>
   <si>
-    <t xml:space="preserve"> Asset rule: Using current amount: 2282543 * 1 </t>
+    <t xml:space="preserve"> Asset rule: Using current amount: 2169758 * 1 </t>
   </si>
   <si>
-    <t xml:space="preserve"> Asset rule: Using current amount: 2442321 * 1 </t>
+    <t xml:space="preserve"> Asset rule: Using current amount: 2321641 * 1 </t>
   </si>
   <si>
-    <t xml:space="preserve"> Asset rule: Using current amount: 2613283 * 1 </t>
+    <t xml:space="preserve"> Asset rule: Using current amount: 2484156 * 1 </t>
   </si>
   <si>
-    <t xml:space="preserve"> Asset rule: Using current amount: 2796213 * 1 </t>
+    <t xml:space="preserve"> Asset rule: Using current amount: 2658047 * 1 </t>
   </si>
   <si>
-    <t xml:space="preserve"> Asset rule: Using current amount: 2991948 * 1 </t>
+    <t xml:space="preserve"> Asset rule: Using current amount: 2844110 * 1 </t>
   </si>
   <si>
-    <t xml:space="preserve"> Asset rule: Using current amount: 3201384 * 1 </t>
+    <t xml:space="preserve"> Asset rule: Using current amount: 3043198 * 1 </t>
   </si>
   <si>
-    <t xml:space="preserve"> Asset rule: Using current amount: 3425481 * 1 </t>
+    <t xml:space="preserve"> Asset rule: Using current amount: 3256222 * 1 </t>
   </si>
   <si>
-    <t xml:space="preserve"> Asset rule: Using current amount: 3665265 * 1 </t>
+    <t xml:space="preserve"> Asset rule: Using current amount: 3484158 * 1 </t>
   </si>
   <si>
-    <t xml:space="preserve"> Asset rule: Using current amount: 3921834 * 1 </t>
+    <t xml:space="preserve"> Asset rule: Using current amount: 3728049 * 1 </t>
   </si>
   <si>
-    <t xml:space="preserve"> Asset rule: Using current amount: 4196362 * 1 </t>
+    <t xml:space="preserve"> Asset rule: Using current amount: 3989012 * 1 </t>
   </si>
   <si>
-    <t xml:space="preserve"> Asset rule: Using current amount: 4490107 * 1 </t>
+    <t xml:space="preserve"> Asset rule: Using current amount: 4268243 * 1 </t>
   </si>
   <si>
-    <t xml:space="preserve"> Asset rule: Using current amount: 4804414 * 1 </t>
+    <t xml:space="preserve"> Asset rule: Using current amount: 4567020 * 1 </t>
   </si>
   <si>
-    <t xml:space="preserve"> Asset rule: Using current amount: 5140723 * 1 </t>
+    <t xml:space="preserve"> Asset rule: Using current amount: 4886711 * 1 </t>
   </si>
   <si>
-    <t xml:space="preserve"> Asset rule: Using current amount: 5500574 * 1 </t>
+    <t xml:space="preserve"> Asset rule: Using current amount: 5228781 * 1 </t>
   </si>
   <si>
-    <t xml:space="preserve"> Asset rule: Using current amount: 5885614 * 1 </t>
+    <t xml:space="preserve"> Asset rule: Using current amount: 5594796 * 1 </t>
   </si>
   <si>
-    <t xml:space="preserve"> Asset rule: Using current amount: 6297607 * 1 </t>
+    <t xml:space="preserve"> Asset rule: Using current amount: 5986432 * 1 </t>
   </si>
   <si>
-    <t xml:space="preserve"> Asset rule: Using current amount: 6738439 * 1 </t>
+    <t xml:space="preserve"> Asset rule: Using current amount: 6405482 * 1 </t>
   </si>
   <si>
-    <t xml:space="preserve"> Asset rule: Using current amount: 7210130 * 1 </t>
+    <t xml:space="preserve"> Asset rule: Using current amount: 6853866 * 1 </t>
   </si>
   <si>
-    <t xml:space="preserve"> Asset rule: Using current amount: 7714839 * 1 </t>
+    <t xml:space="preserve"> Asset rule: Using current amount: 7333637 * 1 </t>
   </si>
   <si>
-    <t xml:space="preserve"> Asset rule: Using current amount: 8254878 * 1 </t>
+    <t xml:space="preserve"> Asset rule: Using current amount: 7846992 * 1 </t>
   </si>
   <si>
-    <t xml:space="preserve"> Asset rule: Using current amount: 8832719 * 1 </t>
+    <t xml:space="preserve"> Asset rule: Using current amount: 8396281 * 1 </t>
   </si>
   <si>
     <t>total</t>
@@ -2390,13 +2336,13 @@
       </c>
       <c r="O20" s="2"/>
       <c r="P20" s="6">
-        <v>1188458.4996</v>
+        <v>1030836.0</v>
       </c>
       <c r="Q20" s="2">
-        <v>0.33</v>
+        <v>0.42</v>
       </c>
       <c r="R20" s="1">
-        <v>1188458.4996</v>
+        <v>1030836.0</v>
       </c>
       <c r="S20" s="1">
         <v>894706.636</v>
@@ -2405,11 +2351,11 @@
         <v>894706.636</v>
       </c>
       <c r="U20" s="1">
-        <v>1941791.2</v>
+        <v>125327.2</v>
       </c>
       <c r="V20" s="2"/>
       <c r="W20" s="5">
-        <v>2417.912</v>
+        <v>0.0</v>
       </c>
       <c r="X20" s="2"/>
       <c r="Y20" s="5">
@@ -2417,13 +2363,13 @@
       </c>
       <c r="Z20" s="2"/>
       <c r="AA20" s="1">
-        <v>990502.4996</v>
+        <v>979325.0</v>
       </c>
       <c r="AB20" s="1">
-        <v>801789.8636</v>
+        <v>136129.364</v>
       </c>
       <c r="AC20" s="5">
-        <v>197956.0</v>
+        <v>51511.0</v>
       </c>
       <c r="AD20" s="2"/>
       <c r="AE20" s="1">
@@ -2487,22 +2433,22 @@
       </c>
       <c r="O21" s="2"/>
       <c r="P21" s="6">
-        <v>1184820.2753</v>
+        <v>1102995.0</v>
       </c>
       <c r="Q21" s="2">
-        <v>0</v>
+        <v>0.07</v>
       </c>
       <c r="R21" s="1">
-        <v>1184820.2753</v>
+        <v>1102995.0</v>
       </c>
       <c r="S21" s="1">
-        <v>936501.426</v>
+        <v>894706.636</v>
       </c>
       <c r="T21" s="1">
-        <v>936501.426</v>
+        <v>894706.636</v>
       </c>
       <c r="U21" s="1">
-        <v>1051052.0</v>
+        <v>882396.0</v>
       </c>
       <c r="V21" s="2"/>
       <c r="W21" s="5">
@@ -2514,13 +2460,13 @@
       </c>
       <c r="Z21" s="2"/>
       <c r="AA21" s="1">
-        <v>1069686.2753</v>
+        <v>1024179.0</v>
       </c>
       <c r="AB21" s="1">
-        <v>371263.8493</v>
+        <v>208288.364</v>
       </c>
       <c r="AC21" s="5">
-        <v>115134.0</v>
+        <v>78816.0</v>
       </c>
       <c r="AD21" s="2"/>
       <c r="AE21" s="1">
@@ -2541,7 +2487,7 @@
         <v>0</v>
       </c>
       <c r="AL21" s="1">
-        <v>41794.79</v>
+        <v>0.0</v>
       </c>
       <c r="AM21" s="1"/>
       <c r="AN21" s="2"/>
@@ -2584,22 +2530,22 @@
       </c>
       <c r="O22" s="2"/>
       <c r="P22" s="6">
-        <v>1247316.70868</v>
+        <v>1180205.0</v>
       </c>
       <c r="Q22" s="2">
-        <v>0.05</v>
+        <v>0.07</v>
       </c>
       <c r="R22" s="1">
-        <v>1247316.70868</v>
+        <v>1180205.0</v>
       </c>
       <c r="S22" s="1">
-        <v>946340.35</v>
+        <v>894706.636</v>
       </c>
       <c r="T22" s="1">
-        <v>946340.35</v>
+        <v>894706.636</v>
       </c>
       <c r="U22" s="1">
-        <v>1022146.0</v>
+        <v>944164.0</v>
       </c>
       <c r="V22" s="2"/>
       <c r="W22" s="5">
@@ -2611,13 +2557,13 @@
       </c>
       <c r="Z22" s="2"/>
       <c r="AA22" s="1">
-        <v>1128443.70868</v>
+        <v>1072172.0</v>
       </c>
       <c r="AB22" s="1">
-        <v>329918.35868</v>
+        <v>285498.364</v>
       </c>
       <c r="AC22" s="5">
-        <v>118873.0</v>
+        <v>108033.0</v>
       </c>
       <c r="AD22" s="2"/>
       <c r="AE22" s="1">
@@ -2638,7 +2584,7 @@
         <v>0</v>
       </c>
       <c r="AL22" s="1">
-        <v>9838.924</v>
+        <v>0.0</v>
       </c>
       <c r="AM22" s="1"/>
       <c r="AN22" s="2"/>
@@ -2681,22 +2627,22 @@
       </c>
       <c r="O23" s="2"/>
       <c r="P23" s="6">
-        <v>1329817.94402</v>
+        <v>1262819.0</v>
       </c>
       <c r="Q23" s="2">
         <v>0.06</v>
       </c>
       <c r="R23" s="1">
-        <v>1329817.94402</v>
+        <v>1262819.0</v>
       </c>
       <c r="S23" s="1">
-        <v>948657.036</v>
+        <v>894706.636</v>
       </c>
       <c r="T23" s="1">
-        <v>948657.036</v>
+        <v>894706.636</v>
       </c>
       <c r="U23" s="1">
-        <v>1069572.2</v>
+        <v>1010255.2</v>
       </c>
       <c r="V23" s="2"/>
       <c r="W23" s="5">
@@ -2708,13 +2654,13 @@
       </c>
       <c r="Z23" s="2"/>
       <c r="AA23" s="1">
-        <v>1184412.94402</v>
+        <v>1123525.0</v>
       </c>
       <c r="AB23" s="1">
-        <v>387973.90802</v>
+        <v>368112.364</v>
       </c>
       <c r="AC23" s="5">
-        <v>145405.0</v>
+        <v>139294.0</v>
       </c>
       <c r="AD23" s="2"/>
       <c r="AE23" s="1">
@@ -2735,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="AL23" s="1">
-        <v>2316.686</v>
+        <v>0.0</v>
       </c>
       <c r="AM23" s="1"/>
       <c r="AN23" s="2"/>
@@ -2778,22 +2724,22 @@
       </c>
       <c r="O24" s="2"/>
       <c r="P24" s="6">
-        <v>1421773.01062</v>
+        <v>1351216.0</v>
       </c>
       <c r="Q24" s="2">
         <v>0.06</v>
       </c>
       <c r="R24" s="1">
-        <v>1421773.01062</v>
+        <v>1351216.0</v>
       </c>
       <c r="S24" s="1">
-        <v>949202.102</v>
+        <v>894706.636</v>
       </c>
       <c r="T24" s="1">
-        <v>949202.102</v>
+        <v>894706.636</v>
       </c>
       <c r="U24" s="1">
-        <v>1138763.8</v>
+        <v>1080972.8</v>
       </c>
       <c r="V24" s="2"/>
       <c r="W24" s="5">
@@ -2805,13 +2751,13 @@
       </c>
       <c r="Z24" s="2"/>
       <c r="AA24" s="1">
-        <v>1242676.01062</v>
+        <v>1178473.0</v>
       </c>
       <c r="AB24" s="1">
-        <v>474173.90862</v>
+        <v>456509.364</v>
       </c>
       <c r="AC24" s="5">
-        <v>179097.0</v>
+        <v>172743.0</v>
       </c>
       <c r="AD24" s="2"/>
       <c r="AE24" s="1">
@@ -2832,7 +2778,7 @@
         <v>0</v>
       </c>
       <c r="AL24" s="1">
-        <v>545.06599999999</v>
+        <v>0.0</v>
       </c>
       <c r="AM24" s="1"/>
       <c r="AN24" s="2"/>
@@ -2875,22 +2821,22 @@
       </c>
       <c r="O25" s="2"/>
       <c r="P25" s="6">
-        <v>1521030.69412</v>
+        <v>1445801.0</v>
       </c>
       <c r="Q25" s="2">
         <v>0.06</v>
       </c>
       <c r="R25" s="1">
-        <v>1521030.69412</v>
+        <v>1445801.0</v>
       </c>
       <c r="S25" s="1">
-        <v>949331.218</v>
+        <v>894706.636</v>
       </c>
       <c r="T25" s="1">
-        <v>949331.218</v>
+        <v>894706.636</v>
       </c>
       <c r="U25" s="1">
-        <v>1217141.2</v>
+        <v>1156640.8</v>
       </c>
       <c r="V25" s="2"/>
       <c r="W25" s="5">
@@ -2902,13 +2848,13 @@
       </c>
       <c r="Z25" s="2"/>
       <c r="AA25" s="1">
-        <v>1304634.69412</v>
+        <v>1237267.0</v>
       </c>
       <c r="AB25" s="1">
-        <v>572077.47612</v>
+        <v>551094.364</v>
       </c>
       <c r="AC25" s="5">
-        <v>216396.0</v>
+        <v>208534.0</v>
       </c>
       <c r="AD25" s="2"/>
       <c r="AE25" s="1">
@@ -2929,7 +2875,7 @@
         <v>0</v>
       </c>
       <c r="AL25" s="1">
-        <v>129.11600000004</v>
+        <v>0.0</v>
       </c>
       <c r="AM25" s="1"/>
       <c r="AN25" s="2"/>
@@ -2972,22 +2918,22 @@
       </c>
       <c r="O26" s="2"/>
       <c r="P26" s="6">
-        <v>1627440.25306</v>
+        <v>1547007.0</v>
       </c>
       <c r="Q26" s="2">
         <v>0.06</v>
       </c>
       <c r="R26" s="1">
-        <v>1627440.25306</v>
+        <v>1547007.0</v>
       </c>
       <c r="S26" s="1">
-        <v>949361.576</v>
+        <v>894706.636</v>
       </c>
       <c r="T26" s="1">
-        <v>949361.576</v>
+        <v>894706.636</v>
       </c>
       <c r="U26" s="1">
-        <v>1302026.8</v>
+        <v>1237605.6</v>
       </c>
       <c r="V26" s="2"/>
       <c r="W26" s="5">
@@ -2999,13 +2945,13 @@
       </c>
       <c r="Z26" s="2"/>
       <c r="AA26" s="1">
-        <v>1370840.25306</v>
+        <v>1300177.0</v>
       </c>
       <c r="AB26" s="1">
-        <v>678167.67706</v>
+        <v>652300.364</v>
       </c>
       <c r="AC26" s="5">
-        <v>256600.0</v>
+        <v>246830.0</v>
       </c>
       <c r="AD26" s="2"/>
       <c r="AE26" s="1">
@@ -3026,7 +2972,7 @@
         <v>0</v>
       </c>
       <c r="AL26" s="1">
-        <v>30.358000000007</v>
+        <v>0.0</v>
       </c>
       <c r="AM26" s="1"/>
       <c r="AN26" s="2"/>
@@ -3069,22 +3015,22 @@
       </c>
       <c r="O27" s="2"/>
       <c r="P27" s="6">
-        <v>1741346.08634</v>
+        <v>1655297.0</v>
       </c>
       <c r="Q27" s="2">
         <v>0.06</v>
       </c>
       <c r="R27" s="1">
-        <v>1741346.08634</v>
+        <v>1655297.0</v>
       </c>
       <c r="S27" s="1">
-        <v>949368.638</v>
+        <v>894706.636</v>
       </c>
       <c r="T27" s="1">
-        <v>949368.638</v>
+        <v>894706.636</v>
       </c>
       <c r="U27" s="1">
-        <v>1393094.6</v>
+        <v>1324237.6</v>
       </c>
       <c r="V27" s="2"/>
       <c r="W27" s="5">
@@ -3096,13 +3042,13 @@
       </c>
       <c r="Z27" s="2"/>
       <c r="AA27" s="1">
-        <v>1441658.08634</v>
+        <v>1367490.0</v>
       </c>
       <c r="AB27" s="1">
-        <v>791998.44834</v>
+        <v>760590.364</v>
       </c>
       <c r="AC27" s="5">
-        <v>299688.0</v>
+        <v>287807.0</v>
       </c>
       <c r="AD27" s="2"/>
       <c r="AE27" s="1">
@@ -3123,7 +3069,7 @@
         <v>0</v>
       </c>
       <c r="AL27" s="1">
-        <v>7.0620000000345</v>
+        <v>0.0</v>
       </c>
       <c r="AM27" s="1"/>
       <c r="AN27" s="2"/>
@@ -3166,22 +3112,22 @@
       </c>
       <c r="O28" s="2"/>
       <c r="P28" s="6">
-        <v>1863236.8377</v>
+        <v>1771168.0</v>
       </c>
       <c r="Q28" s="2">
-        <v>0.06</v>
+        <v>0.07</v>
       </c>
       <c r="R28" s="1">
-        <v>1863236.8377</v>
+        <v>1771168.0</v>
       </c>
       <c r="S28" s="1">
-        <v>949369.748</v>
+        <v>894706.636</v>
       </c>
       <c r="T28" s="1">
-        <v>949369.748</v>
+        <v>894706.636</v>
       </c>
       <c r="U28" s="1">
-        <v>1490594.2</v>
+        <v>1416934.4</v>
       </c>
       <c r="V28" s="2"/>
       <c r="W28" s="5">
@@ -3193,13 +3139,13 @@
       </c>
       <c r="Z28" s="2"/>
       <c r="AA28" s="1">
-        <v>1517428.8377</v>
+        <v>1439515.0</v>
       </c>
       <c r="AB28" s="1">
-        <v>913872.0897</v>
+        <v>876461.364</v>
       </c>
       <c r="AC28" s="5">
-        <v>345808.0</v>
+        <v>331653.0</v>
       </c>
       <c r="AD28" s="2"/>
       <c r="AE28" s="1">
@@ -3220,7 +3166,7 @@
         <v>0</v>
       </c>
       <c r="AL28" s="1">
-        <v>1.109999999986</v>
+        <v>0.0</v>
       </c>
       <c r="AM28" s="1"/>
       <c r="AN28" s="2"/>
@@ -3263,22 +3209,22 @@
       </c>
       <c r="O29" s="2"/>
       <c r="P29" s="6">
-        <v>1993662.33108</v>
+        <v>1895150.0</v>
       </c>
       <c r="Q29" s="2">
-        <v>0.06</v>
+        <v>0.07</v>
       </c>
       <c r="R29" s="1">
-        <v>1993662.33108</v>
+        <v>1895150.0</v>
       </c>
       <c r="S29" s="1">
-        <v>949370.992</v>
+        <v>894706.636</v>
       </c>
       <c r="T29" s="1">
-        <v>949370.992</v>
+        <v>894706.636</v>
       </c>
       <c r="U29" s="1">
-        <v>1594928.8</v>
+        <v>1516120.0</v>
       </c>
       <c r="V29" s="2"/>
       <c r="W29" s="5">
@@ -3290,13 +3236,13 @@
       </c>
       <c r="Z29" s="2"/>
       <c r="AA29" s="1">
-        <v>1598502.33108</v>
+        <v>1516582.0</v>
       </c>
       <c r="AB29" s="1">
-        <v>1044291.33908</v>
+        <v>1000443.364</v>
       </c>
       <c r="AC29" s="5">
-        <v>395160.0</v>
+        <v>378568.0</v>
       </c>
       <c r="AD29" s="2"/>
       <c r="AE29" s="1">
@@ -3317,7 +3263,7 @@
         <v>0</v>
       </c>
       <c r="AL29" s="1">
-        <v>1.2439999999478</v>
+        <v>0.0</v>
       </c>
       <c r="AM29" s="1"/>
       <c r="AN29" s="2"/>
@@ -3360,26 +3306,26 @@
       </c>
       <c r="O30" s="2"/>
       <c r="P30" s="6">
-        <v>2133218.0</v>
+        <v>2027811.0</v>
       </c>
       <c r="Q30" s="2">
-        <v>0.06</v>
+        <v>0.07</v>
       </c>
       <c r="R30" s="1">
-        <v>2133218.0</v>
+        <v>2027811.0</v>
       </c>
       <c r="S30" s="1">
-        <v>949370.992</v>
+        <v>894706.636</v>
       </c>
       <c r="T30" s="1">
-        <v>949370.992</v>
+        <v>894706.636</v>
       </c>
       <c r="U30" s="1">
-        <v>1706574.4</v>
+        <v>1622248.8</v>
       </c>
       <c r="V30" s="2"/>
       <c r="W30" s="5">
-        <v>65.744000000001</v>
+        <v>0.0</v>
       </c>
       <c r="X30" s="2"/>
       <c r="Y30" s="5">
@@ -3387,13 +3333,13 @@
       </c>
       <c r="Z30" s="2"/>
       <c r="AA30" s="1">
-        <v>1685250.0</v>
+        <v>1599044.0</v>
       </c>
       <c r="AB30" s="1">
-        <v>1183847.008</v>
+        <v>1133104.364</v>
       </c>
       <c r="AC30" s="5">
-        <v>447968.0</v>
+        <v>428767.0</v>
       </c>
       <c r="AD30" s="2"/>
       <c r="AE30" s="1">
@@ -3401,10 +3347,10 @@
       </c>
       <c r="AF30" s="2"/>
       <c r="AG30" s="6">
-        <v>-65.744000000001</v>
+        <v>0.0</v>
       </c>
       <c r="AH30" s="1">
-        <v>-1230.384</v>
+        <v>-1164.64</v>
       </c>
       <c r="AI30" s="2"/>
       <c r="AJ30" s="1">
@@ -3457,26 +3403,26 @@
       </c>
       <c r="O31" s="2"/>
       <c r="P31" s="6">
-        <v>2282543.0</v>
+        <v>2169758.0</v>
       </c>
       <c r="Q31" s="2">
-        <v>0.06</v>
+        <v>0.07</v>
       </c>
       <c r="R31" s="1">
-        <v>2282543.0</v>
+        <v>2169758.0</v>
       </c>
       <c r="S31" s="1">
-        <v>949370.992</v>
+        <v>894706.636</v>
       </c>
       <c r="T31" s="1">
-        <v>949370.992</v>
+        <v>894706.636</v>
       </c>
       <c r="U31" s="1">
-        <v>1826034.4</v>
+        <v>1735806.4</v>
       </c>
       <c r="V31" s="2"/>
       <c r="W31" s="5">
-        <v>1260.344</v>
+        <v>358.064</v>
       </c>
       <c r="X31" s="2"/>
       <c r="Y31" s="5">
@@ -3484,13 +3430,13 @@
       </c>
       <c r="Z31" s="2"/>
       <c r="AA31" s="1">
-        <v>1778071.0</v>
+        <v>1687279.0</v>
       </c>
       <c r="AB31" s="1">
-        <v>1333172.008</v>
+        <v>1275051.364</v>
       </c>
       <c r="AC31" s="5">
-        <v>504472.0</v>
+        <v>482479.0</v>
       </c>
       <c r="AD31" s="2"/>
       <c r="AE31" s="1">
@@ -3498,10 +3444,10 @@
       </c>
       <c r="AF31" s="2"/>
       <c r="AG31" s="6">
-        <v>-1260.344</v>
+        <v>-358.064</v>
       </c>
       <c r="AH31" s="1">
-        <v>-2490.728</v>
+        <v>-1522.704</v>
       </c>
       <c r="AI31" s="2"/>
       <c r="AJ31" s="1">
@@ -3554,26 +3500,26 @@
       </c>
       <c r="O32" s="2"/>
       <c r="P32" s="6">
-        <v>2442321.0</v>
+        <v>2321641.0</v>
       </c>
       <c r="Q32" s="2">
         <v>0.06</v>
       </c>
       <c r="R32" s="1">
-        <v>2442321.0</v>
+        <v>2321641.0</v>
       </c>
       <c r="S32" s="1">
-        <v>949370.992</v>
+        <v>894706.636</v>
       </c>
       <c r="T32" s="1">
-        <v>949370.992</v>
+        <v>894706.636</v>
       </c>
       <c r="U32" s="1">
-        <v>1953856.8</v>
+        <v>1857312.8</v>
       </c>
       <c r="V32" s="2"/>
       <c r="W32" s="5">
-        <v>2538.568</v>
+        <v>1573.128</v>
       </c>
       <c r="X32" s="2"/>
       <c r="Y32" s="5">
@@ -3581,13 +3527,13 @@
       </c>
       <c r="Z32" s="2"/>
       <c r="AA32" s="1">
-        <v>1877389.0</v>
+        <v>1781689.0</v>
       </c>
       <c r="AB32" s="1">
-        <v>1492950.008</v>
+        <v>1426934.364</v>
       </c>
       <c r="AC32" s="5">
-        <v>564932.0</v>
+        <v>539952.0</v>
       </c>
       <c r="AD32" s="2"/>
       <c r="AE32" s="1">
@@ -3595,10 +3541,10 @@
       </c>
       <c r="AF32" s="2"/>
       <c r="AG32" s="6">
-        <v>-2538.568</v>
+        <v>-1573.128</v>
       </c>
       <c r="AH32" s="1">
-        <v>-5029.296</v>
+        <v>-3095.832</v>
       </c>
       <c r="AI32" s="2"/>
       <c r="AJ32" s="1">
@@ -3651,26 +3597,26 @@
       </c>
       <c r="O33" s="2"/>
       <c r="P33" s="6">
-        <v>2613283.0</v>
+        <v>2484156.0</v>
       </c>
       <c r="Q33" s="2">
-        <v>0.06</v>
+        <v>0.07</v>
       </c>
       <c r="R33" s="1">
-        <v>2613283.0</v>
+        <v>2484156.0</v>
       </c>
       <c r="S33" s="1">
-        <v>949370.992</v>
+        <v>894706.636</v>
       </c>
       <c r="T33" s="1">
-        <v>949370.992</v>
+        <v>894706.636</v>
       </c>
       <c r="U33" s="1">
-        <v>2090626.4</v>
+        <v>1987324.8</v>
       </c>
       <c r="V33" s="2"/>
       <c r="W33" s="5">
-        <v>3906.264</v>
+        <v>2873.248</v>
       </c>
       <c r="X33" s="2"/>
       <c r="Y33" s="5">
@@ -3678,13 +3624,13 @@
       </c>
       <c r="Z33" s="2"/>
       <c r="AA33" s="1">
-        <v>1983659.0</v>
+        <v>1882708.0</v>
       </c>
       <c r="AB33" s="1">
-        <v>1663912.008</v>
+        <v>1589449.364</v>
       </c>
       <c r="AC33" s="5">
-        <v>629624.0</v>
+        <v>601448.0</v>
       </c>
       <c r="AD33" s="2"/>
       <c r="AE33" s="1">
@@ -3692,10 +3638,10 @@
       </c>
       <c r="AF33" s="2"/>
       <c r="AG33" s="6">
-        <v>-3906.264</v>
+        <v>-2873.248</v>
       </c>
       <c r="AH33" s="1">
-        <v>-8935.56</v>
+        <v>-5969.08</v>
       </c>
       <c r="AI33" s="2"/>
       <c r="AJ33" s="1">
@@ -3748,26 +3694,26 @@
       </c>
       <c r="O34" s="2"/>
       <c r="P34" s="6">
-        <v>2796213.0</v>
+        <v>2658047.0</v>
       </c>
       <c r="Q34" s="2">
         <v>0.07</v>
       </c>
       <c r="R34" s="1">
-        <v>2796213.0</v>
+        <v>2658047.0</v>
       </c>
       <c r="S34" s="1">
-        <v>949370.992</v>
+        <v>894706.636</v>
       </c>
       <c r="T34" s="1">
-        <v>949370.992</v>
+        <v>894706.636</v>
       </c>
       <c r="U34" s="1">
-        <v>2236970.4</v>
+        <v>2126437.6</v>
       </c>
       <c r="V34" s="2"/>
       <c r="W34" s="5">
-        <v>5369.704</v>
+        <v>4264.376</v>
       </c>
       <c r="X34" s="2"/>
       <c r="Y34" s="5">
@@ -3775,13 +3721,13 @@
       </c>
       <c r="Z34" s="2"/>
       <c r="AA34" s="1">
-        <v>2097368.0</v>
+        <v>1990799.0</v>
       </c>
       <c r="AB34" s="1">
-        <v>1846842.008</v>
+        <v>1763340.364</v>
       </c>
       <c r="AC34" s="5">
-        <v>698845.0</v>
+        <v>667248.0</v>
       </c>
       <c r="AD34" s="2"/>
       <c r="AE34" s="1">
@@ -3789,10 +3735,10 @@
       </c>
       <c r="AF34" s="2"/>
       <c r="AG34" s="6">
-        <v>-5369.704</v>
+        <v>-4264.376</v>
       </c>
       <c r="AH34" s="1">
-        <v>-14305.264</v>
+        <v>-10233.456</v>
       </c>
       <c r="AI34" s="2"/>
       <c r="AJ34" s="1">
@@ -3845,26 +3791,26 @@
       </c>
       <c r="O35" s="2"/>
       <c r="P35" s="6">
-        <v>2991948.0</v>
+        <v>2844110.0</v>
       </c>
       <c r="Q35" s="2">
-        <v>0.07</v>
+        <v>0.06</v>
       </c>
       <c r="R35" s="1">
-        <v>2991948.0</v>
+        <v>2844110.0</v>
       </c>
       <c r="S35" s="1">
-        <v>949370.992</v>
+        <v>894706.636</v>
       </c>
       <c r="T35" s="1">
-        <v>949370.992</v>
+        <v>894706.636</v>
       </c>
       <c r="U35" s="1">
-        <v>2393558.4</v>
+        <v>2275288.0</v>
       </c>
       <c r="V35" s="2"/>
       <c r="W35" s="5">
-        <v>6935.584</v>
+        <v>5752.88</v>
       </c>
       <c r="X35" s="2"/>
       <c r="Y35" s="5">
@@ -3872,13 +3818,13 @@
       </c>
       <c r="Z35" s="2"/>
       <c r="AA35" s="1">
-        <v>2219037.0</v>
+        <v>2106456.0</v>
       </c>
       <c r="AB35" s="1">
-        <v>2042577.008</v>
+        <v>1949403.364</v>
       </c>
       <c r="AC35" s="5">
-        <v>772911.0</v>
+        <v>737654.0</v>
       </c>
       <c r="AD35" s="2"/>
       <c r="AE35" s="1">
@@ -3886,10 +3832,10 @@
       </c>
       <c r="AF35" s="2"/>
       <c r="AG35" s="6">
-        <v>-6935.584</v>
+        <v>-5752.88</v>
       </c>
       <c r="AH35" s="1">
-        <v>-21240.848</v>
+        <v>-15986.336</v>
       </c>
       <c r="AI35" s="2"/>
       <c r="AJ35" s="1">
@@ -3942,26 +3888,26 @@
       </c>
       <c r="O36" s="2"/>
       <c r="P36" s="6">
-        <v>3201384.0</v>
+        <v>3043198.0</v>
       </c>
       <c r="Q36" s="2">
-        <v>0.06</v>
+        <v>0.07</v>
       </c>
       <c r="R36" s="1">
-        <v>3201384.0</v>
+        <v>3043198.0</v>
       </c>
       <c r="S36" s="1">
-        <v>949370.992</v>
+        <v>894706.636</v>
       </c>
       <c r="T36" s="1">
-        <v>949370.992</v>
+        <v>894706.636</v>
       </c>
       <c r="U36" s="1">
-        <v>2561107.2</v>
+        <v>2434558.4</v>
       </c>
       <c r="V36" s="2"/>
       <c r="W36" s="5">
-        <v>8611.072</v>
+        <v>7345.584</v>
       </c>
       <c r="X36" s="2"/>
       <c r="Y36" s="5">
@@ -3969,13 +3915,13 @@
       </c>
       <c r="Z36" s="2"/>
       <c r="AA36" s="1">
-        <v>2349222.0</v>
+        <v>2230209.0</v>
       </c>
       <c r="AB36" s="1">
-        <v>2252013.008</v>
+        <v>2148491.364</v>
       </c>
       <c r="AC36" s="5">
-        <v>852162.0</v>
+        <v>812989.0</v>
       </c>
       <c r="AD36" s="2"/>
       <c r="AE36" s="1">
@@ -3983,10 +3929,10 @@
       </c>
       <c r="AF36" s="2"/>
       <c r="AG36" s="6">
-        <v>-8611.072</v>
+        <v>-7345.584</v>
       </c>
       <c r="AH36" s="1">
-        <v>-29851.92</v>
+        <v>-23331.92</v>
       </c>
       <c r="AI36" s="2"/>
       <c r="AJ36" s="1">
@@ -4039,26 +3985,26 @@
       </c>
       <c r="O37" s="2"/>
       <c r="P37" s="6">
-        <v>3425481.0</v>
+        <v>3256222.0</v>
       </c>
       <c r="Q37" s="2">
         <v>0.07</v>
       </c>
       <c r="R37" s="1">
-        <v>3425481.0</v>
+        <v>3256222.0</v>
       </c>
       <c r="S37" s="1">
-        <v>949370.992</v>
+        <v>894706.636</v>
       </c>
       <c r="T37" s="1">
-        <v>949370.992</v>
+        <v>894706.636</v>
       </c>
       <c r="U37" s="1">
-        <v>2740384.8</v>
+        <v>2604977.6</v>
       </c>
       <c r="V37" s="2"/>
       <c r="W37" s="5">
-        <v>10403.848</v>
+        <v>9049.776</v>
       </c>
       <c r="X37" s="2"/>
       <c r="Y37" s="5">
@@ -4066,13 +4012,13 @@
       </c>
       <c r="Z37" s="2"/>
       <c r="AA37" s="1">
-        <v>2488521.0</v>
+        <v>2362625.0</v>
       </c>
       <c r="AB37" s="1">
-        <v>2476110.008</v>
+        <v>2361515.364</v>
       </c>
       <c r="AC37" s="5">
-        <v>936960.0</v>
+        <v>893597.0</v>
       </c>
       <c r="AD37" s="2"/>
       <c r="AE37" s="1">
@@ -4080,10 +4026,10 @@
       </c>
       <c r="AF37" s="2"/>
       <c r="AG37" s="6">
-        <v>-10403.848</v>
+        <v>-9049.776</v>
       </c>
       <c r="AH37" s="1">
-        <v>-40255.768</v>
+        <v>-32381.696</v>
       </c>
       <c r="AI37" s="2"/>
       <c r="AJ37" s="1">
@@ -4136,26 +4082,26 @@
       </c>
       <c r="O38" s="2"/>
       <c r="P38" s="6">
-        <v>3665265.0</v>
+        <v>3484158.0</v>
       </c>
       <c r="Q38" s="2">
         <v>0.07</v>
       </c>
       <c r="R38" s="1">
-        <v>3665265.0</v>
+        <v>3484158.0</v>
       </c>
       <c r="S38" s="1">
-        <v>949370.992</v>
+        <v>894706.636</v>
       </c>
       <c r="T38" s="1">
-        <v>949370.992</v>
+        <v>894706.636</v>
       </c>
       <c r="U38" s="1">
-        <v>2932212.0</v>
+        <v>2787326.4</v>
       </c>
       <c r="V38" s="2"/>
       <c r="W38" s="5">
-        <v>12322.12</v>
+        <v>10873.264</v>
       </c>
       <c r="X38" s="2"/>
       <c r="Y38" s="5">
@@ -4163,13 +4109,13 @@
       </c>
       <c r="Z38" s="2"/>
       <c r="AA38" s="1">
-        <v>2637571.0</v>
+        <v>2504310.0</v>
       </c>
       <c r="AB38" s="1">
-        <v>2715894.008</v>
+        <v>2589451.364</v>
       </c>
       <c r="AC38" s="5">
-        <v>1027694.0</v>
+        <v>979848.0</v>
       </c>
       <c r="AD38" s="2"/>
       <c r="AE38" s="1">
@@ -4177,10 +4123,10 @@
       </c>
       <c r="AF38" s="2"/>
       <c r="AG38" s="6">
-        <v>-12322.12</v>
+        <v>-10873.264</v>
       </c>
       <c r="AH38" s="1">
-        <v>-52577.888</v>
+        <v>-43254.96</v>
       </c>
       <c r="AI38" s="2"/>
       <c r="AJ38" s="1">
@@ -4233,26 +4179,26 @@
       </c>
       <c r="O39" s="2"/>
       <c r="P39" s="6">
-        <v>3921834.0</v>
+        <v>3728049.0</v>
       </c>
       <c r="Q39" s="2">
-        <v>0.07</v>
+        <v>0.06</v>
       </c>
       <c r="R39" s="1">
-        <v>3921834.0</v>
+        <v>3728049.0</v>
       </c>
       <c r="S39" s="1">
-        <v>949370.992</v>
+        <v>894706.636</v>
       </c>
       <c r="T39" s="1">
-        <v>949370.992</v>
+        <v>894706.636</v>
       </c>
       <c r="U39" s="1">
-        <v>3137467.2</v>
+        <v>2982439.2</v>
       </c>
       <c r="V39" s="2"/>
       <c r="W39" s="5">
-        <v>14374.672</v>
+        <v>12824.392</v>
       </c>
       <c r="X39" s="2"/>
       <c r="Y39" s="5">
@@ -4260,13 +4206,13 @@
       </c>
       <c r="Z39" s="2"/>
       <c r="AA39" s="1">
-        <v>2797054.0</v>
+        <v>2655912.0</v>
       </c>
       <c r="AB39" s="1">
-        <v>2972463.008</v>
+        <v>2833342.364</v>
       </c>
       <c r="AC39" s="5">
-        <v>1124780.0</v>
+        <v>1072137.0</v>
       </c>
       <c r="AD39" s="2"/>
       <c r="AE39" s="1">
@@ -4274,10 +4220,10 @@
       </c>
       <c r="AF39" s="2"/>
       <c r="AG39" s="6">
-        <v>-14374.672</v>
+        <v>-12824.392</v>
       </c>
       <c r="AH39" s="1">
-        <v>-66952.56</v>
+        <v>-56079.352</v>
       </c>
       <c r="AI39" s="2"/>
       <c r="AJ39" s="1">
@@ -4330,26 +4276,26 @@
       </c>
       <c r="O40" s="12"/>
       <c r="P40" s="11">
-        <v>4196362.0</v>
+        <v>3989012.0</v>
       </c>
       <c r="Q40" s="12">
         <v>0.06</v>
       </c>
       <c r="R40" s="11">
-        <v>4196362.0</v>
+        <v>3989012.0</v>
       </c>
       <c r="S40" s="11">
-        <v>949370.992</v>
+        <v>894706.636</v>
       </c>
       <c r="T40" s="11">
-        <v>949370.992</v>
+        <v>894706.636</v>
       </c>
       <c r="U40" s="11">
-        <v>3357089.6</v>
+        <v>3191209.6</v>
       </c>
       <c r="V40" s="12"/>
       <c r="W40" s="11">
-        <v>16570.896</v>
+        <v>14912.096</v>
       </c>
       <c r="X40" s="12"/>
       <c r="Y40" s="11">
@@ -4357,13 +4303,13 @@
       </c>
       <c r="Z40" s="12"/>
       <c r="AA40" s="11">
-        <v>2967701.0</v>
+        <v>2818127.0</v>
       </c>
       <c r="AB40" s="11">
-        <v>3246991.008</v>
+        <v>3094305.364</v>
       </c>
       <c r="AC40" s="11">
-        <v>1228661.0</v>
+        <v>1170885.0</v>
       </c>
       <c r="AD40" s="12"/>
       <c r="AE40" s="11">
@@ -4371,10 +4317,10 @@
       </c>
       <c r="AF40" s="12"/>
       <c r="AG40" s="11">
-        <v>-16570.896</v>
+        <v>-14912.096</v>
       </c>
       <c r="AH40" s="11">
-        <v>-83523.456</v>
+        <v>-70991.448</v>
       </c>
       <c r="AI40" s="12"/>
       <c r="AJ40" s="11">
@@ -4427,26 +4373,26 @@
       </c>
       <c r="O41" s="2"/>
       <c r="P41" s="6">
-        <v>4490107.0</v>
+        <v>4268243.0</v>
       </c>
       <c r="Q41" s="2">
-        <v>0.06</v>
+        <v>0.07</v>
       </c>
       <c r="R41" s="1">
-        <v>4490107.0</v>
+        <v>4268243.0</v>
       </c>
       <c r="S41" s="1">
-        <v>949370.992</v>
+        <v>894706.636</v>
       </c>
       <c r="T41" s="1">
-        <v>949370.992</v>
+        <v>894706.636</v>
       </c>
       <c r="U41" s="1">
-        <v>3592085.6</v>
+        <v>3414594.4</v>
       </c>
       <c r="V41" s="2"/>
       <c r="W41" s="5">
-        <v>18920.856</v>
+        <v>17145.944</v>
       </c>
       <c r="X41" s="2"/>
       <c r="Y41" s="5">
@@ -4454,13 +4400,13 @@
       </c>
       <c r="Z41" s="2"/>
       <c r="AA41" s="1">
-        <v>3150292.0</v>
+        <v>2991697.0</v>
       </c>
       <c r="AB41" s="1">
-        <v>3540736.008</v>
+        <v>3373536.364</v>
       </c>
       <c r="AC41" s="5">
-        <v>1339815.0</v>
+        <v>1276546.0</v>
       </c>
       <c r="AD41" s="2"/>
       <c r="AE41" s="1">
@@ -4468,10 +4414,10 @@
       </c>
       <c r="AF41" s="2"/>
       <c r="AG41" s="6">
-        <v>-18920.856</v>
+        <v>-17145.944</v>
       </c>
       <c r="AH41" s="1">
-        <v>-102444.312</v>
+        <v>-88137.392</v>
       </c>
       <c r="AI41" s="2"/>
       <c r="AJ41" s="1">
@@ -4524,26 +4470,26 @@
       </c>
       <c r="O42" s="2"/>
       <c r="P42" s="6">
-        <v>4804414.0</v>
+        <v>4567020.0</v>
       </c>
       <c r="Q42" s="2">
         <v>0.06</v>
       </c>
       <c r="R42" s="1">
-        <v>4804414.0</v>
+        <v>4567020.0</v>
       </c>
       <c r="S42" s="1">
-        <v>949370.992</v>
+        <v>894706.636</v>
       </c>
       <c r="T42" s="1">
-        <v>949370.992</v>
+        <v>894706.636</v>
       </c>
       <c r="U42" s="1">
-        <v>3843531.2</v>
+        <v>3653616.0</v>
       </c>
       <c r="V42" s="2"/>
       <c r="W42" s="5">
-        <v>21435.312</v>
+        <v>19536.16</v>
       </c>
       <c r="X42" s="2"/>
       <c r="Y42" s="5">
@@ -4551,13 +4497,13 @@
       </c>
       <c r="Z42" s="2"/>
       <c r="AA42" s="1">
-        <v>3345666.0</v>
+        <v>3177417.0</v>
       </c>
       <c r="AB42" s="1">
-        <v>3855043.008</v>
+        <v>3672313.364</v>
       </c>
       <c r="AC42" s="5">
-        <v>1458748.0</v>
+        <v>1389603.0</v>
       </c>
       <c r="AD42" s="2"/>
       <c r="AE42" s="1">
@@ -4565,10 +4511,10 @@
       </c>
       <c r="AF42" s="2"/>
       <c r="AG42" s="6">
-        <v>-21435.312</v>
+        <v>-19536.16</v>
       </c>
       <c r="AH42" s="1">
-        <v>-123879.624</v>
+        <v>-107673.552</v>
       </c>
       <c r="AI42" s="2"/>
       <c r="AJ42" s="1">
@@ -4621,26 +4567,26 @@
       </c>
       <c r="O43" s="2"/>
       <c r="P43" s="6">
-        <v>5140723.0</v>
+        <v>4886711.0</v>
       </c>
       <c r="Q43" s="2">
-        <v>0.07</v>
+        <v>0.06</v>
       </c>
       <c r="R43" s="1">
-        <v>5140723.0</v>
+        <v>4886711.0</v>
       </c>
       <c r="S43" s="1">
-        <v>949370.992</v>
+        <v>894706.636</v>
       </c>
       <c r="T43" s="1">
-        <v>949370.992</v>
+        <v>894706.636</v>
       </c>
       <c r="U43" s="1">
-        <v>4112578.4</v>
+        <v>3909368.8</v>
       </c>
       <c r="V43" s="2"/>
       <c r="W43" s="5">
-        <v>24125.784</v>
+        <v>22093.688</v>
       </c>
       <c r="X43" s="2"/>
       <c r="Y43" s="5">
@@ -4648,13 +4594,13 @@
       </c>
       <c r="Z43" s="2"/>
       <c r="AA43" s="1">
-        <v>3554715.0</v>
+        <v>3376137.0</v>
       </c>
       <c r="AB43" s="1">
-        <v>4191352.008</v>
+        <v>3992004.364</v>
       </c>
       <c r="AC43" s="5">
-        <v>1586008.0</v>
+        <v>1510574.0</v>
       </c>
       <c r="AD43" s="2"/>
       <c r="AE43" s="1">
@@ -4662,10 +4608,10 @@
       </c>
       <c r="AF43" s="2"/>
       <c r="AG43" s="6">
-        <v>-24125.784</v>
+        <v>-22093.688</v>
       </c>
       <c r="AH43" s="1">
-        <v>-148005.408</v>
+        <v>-129767.24</v>
       </c>
       <c r="AI43" s="2"/>
       <c r="AJ43" s="1">
@@ -4718,26 +4664,26 @@
       </c>
       <c r="O44" s="2"/>
       <c r="P44" s="6">
-        <v>5500574.0</v>
+        <v>5228781.0</v>
       </c>
       <c r="Q44" s="2">
         <v>0.07</v>
       </c>
       <c r="R44" s="1">
-        <v>5500574.0</v>
+        <v>5228781.0</v>
       </c>
       <c r="S44" s="1">
-        <v>949370.992</v>
+        <v>894706.636</v>
       </c>
       <c r="T44" s="1">
-        <v>949370.992</v>
+        <v>894706.636</v>
       </c>
       <c r="U44" s="1">
-        <v>4400459.2</v>
+        <v>4183024.8</v>
       </c>
       <c r="V44" s="2"/>
       <c r="W44" s="5">
-        <v>27004.592</v>
+        <v>24830.248</v>
       </c>
       <c r="X44" s="2"/>
       <c r="Y44" s="5">
@@ -4745,13 +4691,13 @@
       </c>
       <c r="Z44" s="2"/>
       <c r="AA44" s="1">
-        <v>3778399.0</v>
+        <v>3588767.0</v>
       </c>
       <c r="AB44" s="1">
-        <v>4551203.008</v>
+        <v>4334074.364</v>
       </c>
       <c r="AC44" s="5">
-        <v>1722175.0</v>
+        <v>1640014.0</v>
       </c>
       <c r="AD44" s="2"/>
       <c r="AE44" s="1">
@@ -4759,10 +4705,10 @@
       </c>
       <c r="AF44" s="2"/>
       <c r="AG44" s="6">
-        <v>-27004.592</v>
+        <v>-24830.248</v>
       </c>
       <c r="AH44" s="1">
-        <v>-175010.0</v>
+        <v>-154597.488</v>
       </c>
       <c r="AI44" s="2"/>
       <c r="AJ44" s="1">
@@ -4815,26 +4761,26 @@
       </c>
       <c r="O45" s="2"/>
       <c r="P45" s="6">
-        <v>5885614.0</v>
+        <v>5594796.0</v>
       </c>
       <c r="Q45" s="2">
-        <v>0.06</v>
+        <v>0.07</v>
       </c>
       <c r="R45" s="1">
-        <v>5885614.0</v>
+        <v>5594796.0</v>
       </c>
       <c r="S45" s="1">
-        <v>949370.992</v>
+        <v>894706.636</v>
       </c>
       <c r="T45" s="1">
-        <v>949370.992</v>
+        <v>894706.636</v>
       </c>
       <c r="U45" s="1">
-        <v>4708491.2</v>
+        <v>4475836.8</v>
       </c>
       <c r="V45" s="2"/>
       <c r="W45" s="5">
-        <v>30084.912</v>
+        <v>27758.368</v>
       </c>
       <c r="X45" s="2"/>
       <c r="Y45" s="5">
@@ -4842,13 +4788,13 @@
       </c>
       <c r="Z45" s="2"/>
       <c r="AA45" s="1">
-        <v>4017740.0</v>
+        <v>3816282.0</v>
       </c>
       <c r="AB45" s="1">
-        <v>4936243.008</v>
+        <v>4700089.364</v>
       </c>
       <c r="AC45" s="5">
-        <v>1867874.0</v>
+        <v>1778514.0</v>
       </c>
       <c r="AD45" s="2"/>
       <c r="AE45" s="1">
@@ -4856,10 +4802,10 @@
       </c>
       <c r="AF45" s="2"/>
       <c r="AG45" s="6">
-        <v>-30084.912</v>
+        <v>-27758.368</v>
       </c>
       <c r="AH45" s="1">
-        <v>-205094.912</v>
+        <v>-182355.856</v>
       </c>
       <c r="AI45" s="2"/>
       <c r="AJ45" s="1">
@@ -4912,26 +4858,26 @@
       </c>
       <c r="O46" s="2"/>
       <c r="P46" s="6">
-        <v>6297607.0</v>
+        <v>5986432.0</v>
       </c>
       <c r="Q46" s="2">
         <v>0.07</v>
       </c>
       <c r="R46" s="1">
-        <v>6297607.0</v>
+        <v>5986432.0</v>
       </c>
       <c r="S46" s="1">
-        <v>949370.992</v>
+        <v>894706.636</v>
       </c>
       <c r="T46" s="1">
-        <v>949370.992</v>
+        <v>894706.636</v>
       </c>
       <c r="U46" s="1">
-        <v>5038085.6</v>
+        <v>4789145.6</v>
       </c>
       <c r="V46" s="2"/>
       <c r="W46" s="5">
-        <v>33380.856</v>
+        <v>30891.456</v>
       </c>
       <c r="X46" s="2"/>
       <c r="Y46" s="5">
@@ -4939,13 +4885,13 @@
       </c>
       <c r="Z46" s="2"/>
       <c r="AA46" s="1">
-        <v>4273834.0</v>
+        <v>4059723.0</v>
       </c>
       <c r="AB46" s="1">
-        <v>5348236.008</v>
+        <v>5091725.364</v>
       </c>
       <c r="AC46" s="5">
-        <v>2023773.0</v>
+        <v>1926709.0</v>
       </c>
       <c r="AD46" s="2"/>
       <c r="AE46" s="1">
@@ -4953,10 +4899,10 @@
       </c>
       <c r="AF46" s="2"/>
       <c r="AG46" s="6">
-        <v>-33380.856</v>
+        <v>-30891.456</v>
       </c>
       <c r="AH46" s="1">
-        <v>-238475.768</v>
+        <v>-213247.312</v>
       </c>
       <c r="AI46" s="2"/>
       <c r="AJ46" s="1">
@@ -5009,26 +4955,26 @@
       </c>
       <c r="O47" s="2"/>
       <c r="P47" s="6">
-        <v>6738439.0</v>
+        <v>6405482.0</v>
       </c>
       <c r="Q47" s="2">
         <v>0.06</v>
       </c>
       <c r="R47" s="1">
-        <v>6738439.0</v>
+        <v>6405482.0</v>
       </c>
       <c r="S47" s="1">
-        <v>949370.992</v>
+        <v>894706.636</v>
       </c>
       <c r="T47" s="1">
-        <v>949370.992</v>
+        <v>894706.636</v>
       </c>
       <c r="U47" s="1">
-        <v>5390751.2</v>
+        <v>5124385.6</v>
       </c>
       <c r="V47" s="2"/>
       <c r="W47" s="5">
-        <v>36907.512</v>
+        <v>34243.856</v>
       </c>
       <c r="X47" s="2"/>
       <c r="Y47" s="5">
@@ -5036,13 +4982,13 @@
       </c>
       <c r="Z47" s="2"/>
       <c r="AA47" s="1">
-        <v>4547856.0</v>
+        <v>4320205.0</v>
       </c>
       <c r="AB47" s="1">
-        <v>5789068.008</v>
+        <v>5510775.364</v>
       </c>
       <c r="AC47" s="5">
-        <v>2190583.0</v>
+        <v>2085277.0</v>
       </c>
       <c r="AD47" s="2"/>
       <c r="AE47" s="1">
@@ -5050,10 +4996,10 @@
       </c>
       <c r="AF47" s="2"/>
       <c r="AG47" s="6">
-        <v>-36907.512</v>
+        <v>-34243.856</v>
       </c>
       <c r="AH47" s="1">
-        <v>-275383.28</v>
+        <v>-247491.168</v>
       </c>
       <c r="AI47" s="2"/>
       <c r="AJ47" s="1">
@@ -5106,26 +5052,26 @@
       </c>
       <c r="O48" s="2"/>
       <c r="P48" s="6">
-        <v>7210130.0</v>
+        <v>6853866.0</v>
       </c>
       <c r="Q48" s="2">
         <v>0.07</v>
       </c>
       <c r="R48" s="1">
-        <v>7210130.0</v>
+        <v>6853866.0</v>
       </c>
       <c r="S48" s="1">
-        <v>949370.992</v>
+        <v>894706.636</v>
       </c>
       <c r="T48" s="1">
-        <v>949370.992</v>
+        <v>894706.636</v>
       </c>
       <c r="U48" s="1">
-        <v>5768104.0</v>
+        <v>5483092.8</v>
       </c>
       <c r="V48" s="2"/>
       <c r="W48" s="5">
-        <v>40681.04</v>
+        <v>37830.928</v>
       </c>
       <c r="X48" s="2"/>
       <c r="Y48" s="5">
@@ -5133,13 +5079,13 @@
       </c>
       <c r="Z48" s="2"/>
       <c r="AA48" s="1">
-        <v>4841059.0</v>
+        <v>4598920.0</v>
       </c>
       <c r="AB48" s="1">
-        <v>6260759.008</v>
+        <v>5959159.364</v>
       </c>
       <c r="AC48" s="5">
-        <v>2369071.0</v>
+        <v>2254946.0</v>
       </c>
       <c r="AD48" s="2"/>
       <c r="AE48" s="1">
@@ -5147,10 +5093,10 @@
       </c>
       <c r="AF48" s="2"/>
       <c r="AG48" s="6">
-        <v>-40681.04</v>
+        <v>-37830.928</v>
       </c>
       <c r="AH48" s="1">
-        <v>-316064.32</v>
+        <v>-285322.096</v>
       </c>
       <c r="AI48" s="2"/>
       <c r="AJ48" s="1">
@@ -5203,26 +5149,26 @@
       </c>
       <c r="O49" s="2"/>
       <c r="P49" s="6">
-        <v>7714839.0</v>
+        <v>7333637.0</v>
       </c>
       <c r="Q49" s="2">
-        <v>0.06</v>
+        <v>0.07</v>
       </c>
       <c r="R49" s="1">
-        <v>7714839.0</v>
+        <v>7333637.0</v>
       </c>
       <c r="S49" s="1">
-        <v>949370.992</v>
+        <v>894706.636</v>
       </c>
       <c r="T49" s="1">
-        <v>949370.992</v>
+        <v>894706.636</v>
       </c>
       <c r="U49" s="1">
-        <v>6171871.2</v>
+        <v>5866909.6</v>
       </c>
       <c r="V49" s="2"/>
       <c r="W49" s="5">
-        <v>44718.712</v>
+        <v>41669.096</v>
       </c>
       <c r="X49" s="2"/>
       <c r="Y49" s="5">
@@ -5230,13 +5176,13 @@
       </c>
       <c r="Z49" s="2"/>
       <c r="AA49" s="1">
-        <v>5154786.0</v>
+        <v>4897146.0</v>
       </c>
       <c r="AB49" s="1">
-        <v>6765468.008</v>
+        <v>6438930.364</v>
       </c>
       <c r="AC49" s="5">
-        <v>2560053.0</v>
+        <v>2436491.0</v>
       </c>
       <c r="AD49" s="2"/>
       <c r="AE49" s="1">
@@ -5244,10 +5190,10 @@
       </c>
       <c r="AF49" s="2"/>
       <c r="AG49" s="6">
-        <v>-44718.712</v>
+        <v>-41669.096</v>
       </c>
       <c r="AH49" s="1">
-        <v>-360783.032</v>
+        <v>-326991.192</v>
       </c>
       <c r="AI49" s="2"/>
       <c r="AJ49" s="1">
@@ -5300,26 +5246,26 @@
       </c>
       <c r="O50" s="2"/>
       <c r="P50" s="6">
-        <v>8254878.0</v>
+        <v>7846992.0</v>
       </c>
       <c r="Q50" s="2">
         <v>0.07</v>
       </c>
       <c r="R50" s="1">
-        <v>8254878.0</v>
+        <v>7846992.0</v>
       </c>
       <c r="S50" s="1">
-        <v>949370.992</v>
+        <v>894706.636</v>
       </c>
       <c r="T50" s="1">
-        <v>949370.992</v>
+        <v>894706.636</v>
       </c>
       <c r="U50" s="1">
-        <v>6603902.4</v>
+        <v>6277593.6</v>
       </c>
       <c r="V50" s="2"/>
       <c r="W50" s="5">
-        <v>49039.024</v>
+        <v>45775.936</v>
       </c>
       <c r="X50" s="2"/>
       <c r="Y50" s="5">
@@ -5327,13 +5273,13 @@
       </c>
       <c r="Z50" s="2"/>
       <c r="AA50" s="1">
-        <v>5490474.0</v>
+        <v>5216247.0</v>
       </c>
       <c r="AB50" s="1">
-        <v>7305507.008</v>
+        <v>6952285.364</v>
       </c>
       <c r="AC50" s="5">
-        <v>2764404.0</v>
+        <v>2630745.0</v>
       </c>
       <c r="AD50" s="2"/>
       <c r="AE50" s="1">
@@ -5341,10 +5287,10 @@
       </c>
       <c r="AF50" s="2"/>
       <c r="AG50" s="6">
-        <v>-49039.024</v>
+        <v>-45775.936</v>
       </c>
       <c r="AH50" s="1">
-        <v>-409822.056</v>
+        <v>-372767.128</v>
       </c>
       <c r="AI50" s="2"/>
       <c r="AJ50" s="1">
@@ -5397,26 +5343,26 @@
       </c>
       <c r="O51" s="2"/>
       <c r="P51" s="6">
-        <v>8832719.0</v>
+        <v>8396281.0</v>
       </c>
       <c r="Q51" s="2">
         <v>0.06</v>
       </c>
       <c r="R51" s="1">
-        <v>8832719.0</v>
+        <v>8396281.0</v>
       </c>
       <c r="S51" s="1">
-        <v>949370.992</v>
+        <v>894706.636</v>
       </c>
       <c r="T51" s="1">
-        <v>949370.992</v>
+        <v>894706.636</v>
       </c>
       <c r="U51" s="1">
-        <v>7066175.2</v>
+        <v>6717024.8</v>
       </c>
       <c r="V51" s="2"/>
       <c r="W51" s="5">
-        <v>53661.752</v>
+        <v>50170.248</v>
       </c>
       <c r="X51" s="2"/>
       <c r="Y51" s="5">
@@ -5424,13 +5370,13 @@
       </c>
       <c r="Z51" s="2"/>
       <c r="AA51" s="1">
-        <v>5849660.0</v>
+        <v>5557685.0</v>
       </c>
       <c r="AB51" s="1">
-        <v>7883348.008</v>
+        <v>7501574.364</v>
       </c>
       <c r="AC51" s="5">
-        <v>2983059.0</v>
+        <v>2838596.0</v>
       </c>
       <c r="AD51" s="2"/>
       <c r="AE51" s="1">
@@ -5438,10 +5384,10 @@
       </c>
       <c r="AF51" s="2"/>
       <c r="AG51" s="6">
-        <v>-53661.752</v>
+        <v>-50170.248</v>
       </c>
       <c r="AH51" s="1">
-        <v>-463483.808</v>
+        <v>-422937.376</v>
       </c>
       <c r="AI51" s="2"/>
       <c r="AJ51" s="1">
@@ -5494,26 +5440,26 @@
       </c>
       <c r="O52" s="16"/>
       <c r="P52" s="5">
-        <v>9451009.0</v>
+        <v>8984021.0</v>
       </c>
       <c r="Q52" s="16">
-        <v>0.06</v>
+        <v>0.07</v>
       </c>
       <c r="R52" s="5">
-        <v>9451009.0</v>
+        <v>8984021.0</v>
       </c>
       <c r="S52" s="5">
-        <v>949370.992</v>
+        <v>894706.636</v>
       </c>
       <c r="T52" s="5">
-        <v>949370.992</v>
+        <v>894706.636</v>
       </c>
       <c r="U52" s="5">
-        <v>7560807.2</v>
+        <v>7187216.8</v>
       </c>
       <c r="V52" s="16"/>
       <c r="W52" s="5">
-        <v>58608.072</v>
+        <v>54872.168</v>
       </c>
       <c r="X52" s="16"/>
       <c r="Y52" s="5">
@@ -5521,13 +5467,13 @@
       </c>
       <c r="Z52" s="16"/>
       <c r="AA52" s="5">
-        <v>6233989.0</v>
+        <v>5923024.0</v>
       </c>
       <c r="AB52" s="5">
-        <v>8501638.008</v>
+        <v>8089314.364</v>
       </c>
       <c r="AC52" s="5">
-        <v>3217020.0</v>
+        <v>3060997.0</v>
       </c>
       <c r="AD52" s="16"/>
       <c r="AE52" s="5">
@@ -5535,10 +5481,10 @@
       </c>
       <c r="AF52" s="16"/>
       <c r="AG52" s="5">
-        <v>-58608.072</v>
+        <v>-54872.168</v>
       </c>
       <c r="AH52" s="5">
-        <v>-522091.88</v>
+        <v>-477809.544</v>
       </c>
       <c r="AI52" s="16"/>
       <c r="AJ52" s="5">
@@ -8346,13 +8292,13 @@
       </c>
       <c r="O20" s="2"/>
       <c r="P20" s="6">
-        <v>1030836.2996</v>
+        <v>1030836.0</v>
       </c>
       <c r="Q20" s="2">
         <v>6.23</v>
       </c>
       <c r="R20" s="1">
-        <v>1030836.2996</v>
+        <v>1030836.0</v>
       </c>
       <c r="S20" s="1">
         <v>894706.636</v>
@@ -8373,10 +8319,10 @@
       </c>
       <c r="Z20" s="2"/>
       <c r="AA20" s="1">
-        <v>979325.2996</v>
+        <v>979325.0</v>
       </c>
       <c r="AB20" s="1">
-        <v>136129.6636</v>
+        <v>136129.364</v>
       </c>
       <c r="AC20" s="5">
         <v>51511.0</v>
@@ -8443,19 +8389,19 @@
       </c>
       <c r="O21" s="2"/>
       <c r="P21" s="6">
-        <v>1147715.4253</v>
+        <v>1102995.0</v>
       </c>
       <c r="Q21" s="2">
-        <v>0.11</v>
+        <v>0.07</v>
       </c>
       <c r="R21" s="1">
-        <v>1147715.4253</v>
+        <v>1102995.0</v>
       </c>
       <c r="S21" s="1">
-        <v>936501.426</v>
+        <v>894706.636</v>
       </c>
       <c r="T21" s="1">
-        <v>936501.426</v>
+        <v>894706.636</v>
       </c>
       <c r="U21" s="1">
         <v>882396.0</v>
@@ -8470,13 +8416,13 @@
       </c>
       <c r="Z21" s="2"/>
       <c r="AA21" s="1">
-        <v>1067792.4253</v>
+        <v>1024179.0</v>
       </c>
       <c r="AB21" s="1">
-        <v>211213.9993</v>
+        <v>208288.364</v>
       </c>
       <c r="AC21" s="5">
-        <v>79923.0</v>
+        <v>78816.0</v>
       </c>
       <c r="AD21" s="2"/>
       <c r="AE21" s="1">
@@ -8497,7 +8443,7 @@
         <v>0</v>
       </c>
       <c r="AL21" s="1">
-        <v>41794.79</v>
+        <v>0.0</v>
       </c>
       <c r="AM21" s="1"/>
       <c r="AN21" s="2"/>
@@ -8540,22 +8486,22 @@
       </c>
       <c r="O22" s="2"/>
       <c r="P22" s="6">
-        <v>1238582.64868</v>
+        <v>1180205.0</v>
       </c>
       <c r="Q22" s="2">
         <v>0.07</v>
       </c>
       <c r="R22" s="1">
-        <v>1238582.64868</v>
+        <v>1180205.0</v>
       </c>
       <c r="S22" s="1">
-        <v>946340.35</v>
+        <v>894706.636</v>
       </c>
       <c r="T22" s="1">
-        <v>946340.35</v>
+        <v>894706.636</v>
       </c>
       <c r="U22" s="1">
-        <v>982444.0</v>
+        <v>944164.0</v>
       </c>
       <c r="V22" s="2"/>
       <c r="W22" s="5">
@@ -8567,13 +8513,13 @@
       </c>
       <c r="Z22" s="2"/>
       <c r="AA22" s="1">
-        <v>1127998.64868</v>
+        <v>1072172.0</v>
       </c>
       <c r="AB22" s="1">
-        <v>292242.29868</v>
+        <v>285498.364</v>
       </c>
       <c r="AC22" s="5">
-        <v>110584.0</v>
+        <v>108033.0</v>
       </c>
       <c r="AD22" s="2"/>
       <c r="AE22" s="1">
@@ -8594,7 +8540,7 @@
         <v>0</v>
       </c>
       <c r="AL22" s="1">
-        <v>9838.924</v>
+        <v>0.0</v>
       </c>
       <c r="AM22" s="1"/>
       <c r="AN22" s="2"/>
@@ -8637,22 +8583,22 @@
       </c>
       <c r="O23" s="2"/>
       <c r="P23" s="6">
-        <v>1327762.85402</v>
+        <v>1262819.0</v>
       </c>
       <c r="Q23" s="2">
-        <v>0.07</v>
+        <v>0.06</v>
       </c>
       <c r="R23" s="1">
-        <v>1327762.85402</v>
+        <v>1262819.0</v>
       </c>
       <c r="S23" s="1">
-        <v>948657.036</v>
+        <v>894706.636</v>
       </c>
       <c r="T23" s="1">
-        <v>948657.036</v>
+        <v>894706.636</v>
       </c>
       <c r="U23" s="1">
-        <v>1060227.2</v>
+        <v>1010255.2</v>
       </c>
       <c r="V23" s="2"/>
       <c r="W23" s="5">
@@ -8664,13 +8610,13 @@
       </c>
       <c r="Z23" s="2"/>
       <c r="AA23" s="1">
-        <v>1184308.85402</v>
+        <v>1123525.0</v>
       </c>
       <c r="AB23" s="1">
-        <v>379105.81802</v>
+        <v>368112.364</v>
       </c>
       <c r="AC23" s="5">
-        <v>143454.0</v>
+        <v>139294.0</v>
       </c>
       <c r="AD23" s="2"/>
       <c r="AE23" s="1">
@@ -8691,7 +8637,7 @@
         <v>0</v>
       </c>
       <c r="AL23" s="1">
-        <v>2316.686</v>
+        <v>0.0</v>
       </c>
       <c r="AM23" s="1"/>
       <c r="AN23" s="2"/>
@@ -8734,22 +8680,22 @@
       </c>
       <c r="O24" s="2"/>
       <c r="P24" s="6">
-        <v>1421289.22062</v>
+        <v>1351216.0</v>
       </c>
       <c r="Q24" s="2">
-        <v>0.07</v>
+        <v>0.06</v>
       </c>
       <c r="R24" s="1">
-        <v>1421289.22062</v>
+        <v>1351216.0</v>
       </c>
       <c r="S24" s="1">
-        <v>949202.102</v>
+        <v>894706.636</v>
       </c>
       <c r="T24" s="1">
-        <v>949202.102</v>
+        <v>894706.636</v>
       </c>
       <c r="U24" s="1">
-        <v>1136564.8</v>
+        <v>1080972.8</v>
       </c>
       <c r="V24" s="2"/>
       <c r="W24" s="5">
@@ -8761,13 +8707,13 @@
       </c>
       <c r="Z24" s="2"/>
       <c r="AA24" s="1">
-        <v>1242651.22062</v>
+        <v>1178473.0</v>
       </c>
       <c r="AB24" s="1">
-        <v>472087.11862</v>
+        <v>456509.364</v>
       </c>
       <c r="AC24" s="5">
-        <v>178638.0</v>
+        <v>172743.0</v>
       </c>
       <c r="AD24" s="2"/>
       <c r="AE24" s="1">
@@ -8788,7 +8734,7 @@
         <v>0</v>
       </c>
       <c r="AL24" s="1">
-        <v>545.06599999999</v>
+        <v>0.0</v>
       </c>
       <c r="AM24" s="1"/>
       <c r="AN24" s="2"/>
@@ -8831,22 +8777,22 @@
       </c>
       <c r="O25" s="2"/>
       <c r="P25" s="6">
-        <v>1520917.15412</v>
+        <v>1445801.0</v>
       </c>
       <c r="Q25" s="2">
-        <v>0.07</v>
+        <v>0.06</v>
       </c>
       <c r="R25" s="1">
-        <v>1520917.15412</v>
+        <v>1445801.0</v>
       </c>
       <c r="S25" s="1">
-        <v>949331.218</v>
+        <v>894706.636</v>
       </c>
       <c r="T25" s="1">
-        <v>949331.218</v>
+        <v>894706.636</v>
       </c>
       <c r="U25" s="1">
-        <v>1216623.2</v>
+        <v>1156640.8</v>
       </c>
       <c r="V25" s="2"/>
       <c r="W25" s="5">
@@ -8858,13 +8804,13 @@
       </c>
       <c r="Z25" s="2"/>
       <c r="AA25" s="1">
-        <v>1304629.15412</v>
+        <v>1237267.0</v>
       </c>
       <c r="AB25" s="1">
-        <v>571585.93612</v>
+        <v>551094.364</v>
       </c>
       <c r="AC25" s="5">
-        <v>216288.0</v>
+        <v>208534.0</v>
       </c>
       <c r="AD25" s="2"/>
       <c r="AE25" s="1">
@@ -8885,7 +8831,7 @@
         <v>0</v>
       </c>
       <c r="AL25" s="1">
-        <v>129.11600000004</v>
+        <v>0.0</v>
       </c>
       <c r="AM25" s="1"/>
       <c r="AN25" s="2"/>
@@ -8928,22 +8874,22 @@
       </c>
       <c r="O26" s="2"/>
       <c r="P26" s="6">
-        <v>1627413.48306</v>
+        <v>1547007.0</v>
       </c>
       <c r="Q26" s="2">
-        <v>0.07</v>
+        <v>0.06</v>
       </c>
       <c r="R26" s="1">
-        <v>1627413.48306</v>
+        <v>1547007.0</v>
       </c>
       <c r="S26" s="1">
-        <v>949361.576</v>
+        <v>894706.636</v>
       </c>
       <c r="T26" s="1">
-        <v>949361.576</v>
+        <v>894706.636</v>
       </c>
       <c r="U26" s="1">
-        <v>1301904.8</v>
+        <v>1237605.6</v>
       </c>
       <c r="V26" s="2"/>
       <c r="W26" s="5">
@@ -8955,13 +8901,13 @@
       </c>
       <c r="Z26" s="2"/>
       <c r="AA26" s="1">
-        <v>1370838.48306</v>
+        <v>1300177.0</v>
       </c>
       <c r="AB26" s="1">
-        <v>678051.90706</v>
+        <v>652300.364</v>
       </c>
       <c r="AC26" s="5">
-        <v>256575.0</v>
+        <v>246830.0</v>
       </c>
       <c r="AD26" s="2"/>
       <c r="AE26" s="1">
@@ -8982,7 +8928,7 @@
         <v>0</v>
       </c>
       <c r="AL26" s="1">
-        <v>30.358000000007</v>
+        <v>0.0</v>
       </c>
       <c r="AM26" s="1"/>
       <c r="AN26" s="2"/>
@@ -9025,22 +8971,22 @@
       </c>
       <c r="O27" s="2"/>
       <c r="P27" s="6">
-        <v>1741339.55634</v>
+        <v>1655297.0</v>
       </c>
       <c r="Q27" s="2">
-        <v>0.07</v>
+        <v>0.06</v>
       </c>
       <c r="R27" s="1">
-        <v>1741339.55634</v>
+        <v>1655297.0</v>
       </c>
       <c r="S27" s="1">
-        <v>949368.638</v>
+        <v>894706.636</v>
       </c>
       <c r="T27" s="1">
-        <v>949368.638</v>
+        <v>894706.636</v>
       </c>
       <c r="U27" s="1">
-        <v>1393065.6</v>
+        <v>1324237.6</v>
       </c>
       <c r="V27" s="2"/>
       <c r="W27" s="5">
@@ -9052,13 +8998,13 @@
       </c>
       <c r="Z27" s="2"/>
       <c r="AA27" s="1">
-        <v>1441657.55634</v>
+        <v>1367490.0</v>
       </c>
       <c r="AB27" s="1">
-        <v>791970.91834</v>
+        <v>760590.364</v>
       </c>
       <c r="AC27" s="5">
-        <v>299682.0</v>
+        <v>287807.0</v>
       </c>
       <c r="AD27" s="2"/>
       <c r="AE27" s="1">
@@ -9079,7 +9025,7 @@
         <v>0</v>
       </c>
       <c r="AL27" s="1">
-        <v>7.0620000000345</v>
+        <v>0.0</v>
       </c>
       <c r="AM27" s="1"/>
       <c r="AN27" s="2"/>
@@ -9122,22 +9068,22 @@
       </c>
       <c r="O28" s="2"/>
       <c r="P28" s="6">
-        <v>1863235.1877</v>
+        <v>1771168.0</v>
       </c>
       <c r="Q28" s="2">
         <v>0.07</v>
       </c>
       <c r="R28" s="1">
-        <v>1863235.1877</v>
+        <v>1771168.0</v>
       </c>
       <c r="S28" s="1">
-        <v>949369.748</v>
+        <v>894706.636</v>
       </c>
       <c r="T28" s="1">
-        <v>949369.748</v>
+        <v>894706.636</v>
       </c>
       <c r="U28" s="1">
-        <v>1490587.2</v>
+        <v>1416934.4</v>
       </c>
       <c r="V28" s="2"/>
       <c r="W28" s="5">
@@ -9149,13 +9095,13 @@
       </c>
       <c r="Z28" s="2"/>
       <c r="AA28" s="1">
-        <v>1517428.1877</v>
+        <v>1439515.0</v>
       </c>
       <c r="AB28" s="1">
-        <v>913865.4397</v>
+        <v>876461.364</v>
       </c>
       <c r="AC28" s="5">
-        <v>345807.0</v>
+        <v>331653.0</v>
       </c>
       <c r="AD28" s="2"/>
       <c r="AE28" s="1">
@@ -9176,7 +9122,7 @@
         <v>0</v>
       </c>
       <c r="AL28" s="1">
-        <v>1.109999999986</v>
+        <v>0.0</v>
       </c>
       <c r="AM28" s="1"/>
       <c r="AN28" s="2"/>
@@ -9219,22 +9165,22 @@
       </c>
       <c r="O29" s="2"/>
       <c r="P29" s="6">
-        <v>1993662.33108</v>
+        <v>1895150.0</v>
       </c>
       <c r="Q29" s="2">
         <v>0.07</v>
       </c>
       <c r="R29" s="1">
-        <v>1993662.33108</v>
+        <v>1895150.0</v>
       </c>
       <c r="S29" s="1">
-        <v>949370.992</v>
+        <v>894706.636</v>
       </c>
       <c r="T29" s="1">
-        <v>949370.992</v>
+        <v>894706.636</v>
       </c>
       <c r="U29" s="1">
-        <v>1594928.8</v>
+        <v>1516120.0</v>
       </c>
       <c r="V29" s="2"/>
       <c r="W29" s="5">
@@ -9246,13 +9192,13 @@
       </c>
       <c r="Z29" s="2"/>
       <c r="AA29" s="1">
-        <v>1598502.33108</v>
+        <v>1516582.0</v>
       </c>
       <c r="AB29" s="1">
-        <v>1044291.33908</v>
+        <v>1000443.364</v>
       </c>
       <c r="AC29" s="5">
-        <v>395160.0</v>
+        <v>378568.0</v>
       </c>
       <c r="AD29" s="2"/>
       <c r="AE29" s="1">
@@ -9273,7 +9219,7 @@
         <v>0</v>
       </c>
       <c r="AL29" s="1">
-        <v>1.2439999999478</v>
+        <v>0.0</v>
       </c>
       <c r="AM29" s="1"/>
       <c r="AN29" s="2"/>
@@ -9316,26 +9262,26 @@
       </c>
       <c r="O30" s="2"/>
       <c r="P30" s="6">
-        <v>2133218.0</v>
+        <v>2027811.0</v>
       </c>
       <c r="Q30" s="2">
-        <v>0.06</v>
+        <v>0.07</v>
       </c>
       <c r="R30" s="1">
-        <v>2133218.0</v>
+        <v>2027811.0</v>
       </c>
       <c r="S30" s="1">
-        <v>949370.992</v>
+        <v>894706.636</v>
       </c>
       <c r="T30" s="1">
-        <v>949370.992</v>
+        <v>894706.636</v>
       </c>
       <c r="U30" s="1">
-        <v>1706574.4</v>
+        <v>1622248.8</v>
       </c>
       <c r="V30" s="2"/>
       <c r="W30" s="5">
-        <v>65.744000000001</v>
+        <v>0.0</v>
       </c>
       <c r="X30" s="2"/>
       <c r="Y30" s="5">
@@ -9343,13 +9289,13 @@
       </c>
       <c r="Z30" s="2"/>
       <c r="AA30" s="1">
-        <v>1685250.0</v>
+        <v>1599044.0</v>
       </c>
       <c r="AB30" s="1">
-        <v>1183847.008</v>
+        <v>1133104.364</v>
       </c>
       <c r="AC30" s="5">
-        <v>447968.0</v>
+        <v>428767.0</v>
       </c>
       <c r="AD30" s="2"/>
       <c r="AE30" s="1">
@@ -9357,10 +9303,10 @@
       </c>
       <c r="AF30" s="2"/>
       <c r="AG30" s="6">
-        <v>-65.744000000001</v>
+        <v>0.0</v>
       </c>
       <c r="AH30" s="1">
-        <v>-65.744000000001</v>
+        <v>0.0</v>
       </c>
       <c r="AI30" s="2"/>
       <c r="AJ30" s="1">
@@ -9413,26 +9359,26 @@
       </c>
       <c r="O31" s="2"/>
       <c r="P31" s="6">
-        <v>2282543.0</v>
+        <v>2169758.0</v>
       </c>
       <c r="Q31" s="2">
-        <v>0.06</v>
+        <v>0.07</v>
       </c>
       <c r="R31" s="1">
-        <v>2282543.0</v>
+        <v>2169758.0</v>
       </c>
       <c r="S31" s="1">
-        <v>949370.992</v>
+        <v>894706.636</v>
       </c>
       <c r="T31" s="1">
-        <v>949370.992</v>
+        <v>894706.636</v>
       </c>
       <c r="U31" s="1">
-        <v>1826034.4</v>
+        <v>1735806.4</v>
       </c>
       <c r="V31" s="2"/>
       <c r="W31" s="5">
-        <v>1260.344</v>
+        <v>358.064</v>
       </c>
       <c r="X31" s="2"/>
       <c r="Y31" s="5">
@@ -9440,13 +9386,13 @@
       </c>
       <c r="Z31" s="2"/>
       <c r="AA31" s="1">
-        <v>1778071.0</v>
+        <v>1687279.0</v>
       </c>
       <c r="AB31" s="1">
-        <v>1333172.008</v>
+        <v>1275051.364</v>
       </c>
       <c r="AC31" s="5">
-        <v>504472.0</v>
+        <v>482479.0</v>
       </c>
       <c r="AD31" s="2"/>
       <c r="AE31" s="1">
@@ -9454,10 +9400,10 @@
       </c>
       <c r="AF31" s="2"/>
       <c r="AG31" s="6">
-        <v>-1260.344</v>
+        <v>-358.064</v>
       </c>
       <c r="AH31" s="1">
-        <v>-1326.088</v>
+        <v>-358.064</v>
       </c>
       <c r="AI31" s="2"/>
       <c r="AJ31" s="1">
@@ -9510,26 +9456,26 @@
       </c>
       <c r="O32" s="2"/>
       <c r="P32" s="6">
-        <v>2442321.0</v>
+        <v>2321641.0</v>
       </c>
       <c r="Q32" s="2">
         <v>0.06</v>
       </c>
       <c r="R32" s="1">
-        <v>2442321.0</v>
+        <v>2321641.0</v>
       </c>
       <c r="S32" s="1">
-        <v>949370.992</v>
+        <v>894706.636</v>
       </c>
       <c r="T32" s="1">
-        <v>949370.992</v>
+        <v>894706.636</v>
       </c>
       <c r="U32" s="1">
-        <v>1953856.8</v>
+        <v>1857312.8</v>
       </c>
       <c r="V32" s="2"/>
       <c r="W32" s="5">
-        <v>2538.568</v>
+        <v>1573.128</v>
       </c>
       <c r="X32" s="2"/>
       <c r="Y32" s="5">
@@ -9537,13 +9483,13 @@
       </c>
       <c r="Z32" s="2"/>
       <c r="AA32" s="1">
-        <v>1877389.0</v>
+        <v>1781689.0</v>
       </c>
       <c r="AB32" s="1">
-        <v>1492950.008</v>
+        <v>1426934.364</v>
       </c>
       <c r="AC32" s="5">
-        <v>564932.0</v>
+        <v>539952.0</v>
       </c>
       <c r="AD32" s="2"/>
       <c r="AE32" s="1">
@@ -9551,10 +9497,10 @@
       </c>
       <c r="AF32" s="2"/>
       <c r="AG32" s="6">
-        <v>-2538.568</v>
+        <v>-1573.128</v>
       </c>
       <c r="AH32" s="1">
-        <v>-3864.656</v>
+        <v>-1931.192</v>
       </c>
       <c r="AI32" s="2"/>
       <c r="AJ32" s="1">
@@ -9607,26 +9553,26 @@
       </c>
       <c r="O33" s="2"/>
       <c r="P33" s="6">
-        <v>2613283.0</v>
+        <v>2484156.0</v>
       </c>
       <c r="Q33" s="2">
-        <v>0.06</v>
+        <v>0.07</v>
       </c>
       <c r="R33" s="1">
-        <v>2613283.0</v>
+        <v>2484156.0</v>
       </c>
       <c r="S33" s="1">
-        <v>949370.992</v>
+        <v>894706.636</v>
       </c>
       <c r="T33" s="1">
-        <v>949370.992</v>
+        <v>894706.636</v>
       </c>
       <c r="U33" s="1">
-        <v>2090626.4</v>
+        <v>1987324.8</v>
       </c>
       <c r="V33" s="2"/>
       <c r="W33" s="5">
-        <v>3906.264</v>
+        <v>2873.248</v>
       </c>
       <c r="X33" s="2"/>
       <c r="Y33" s="5">
@@ -9634,13 +9580,13 @@
       </c>
       <c r="Z33" s="2"/>
       <c r="AA33" s="1">
-        <v>1983659.0</v>
+        <v>1882708.0</v>
       </c>
       <c r="AB33" s="1">
-        <v>1663912.008</v>
+        <v>1589449.364</v>
       </c>
       <c r="AC33" s="5">
-        <v>629624.0</v>
+        <v>601448.0</v>
       </c>
       <c r="AD33" s="2"/>
       <c r="AE33" s="1">
@@ -9648,10 +9594,10 @@
       </c>
       <c r="AF33" s="2"/>
       <c r="AG33" s="6">
-        <v>-3906.264</v>
+        <v>-2873.248</v>
       </c>
       <c r="AH33" s="1">
-        <v>-7770.92</v>
+        <v>-4804.44</v>
       </c>
       <c r="AI33" s="2"/>
       <c r="AJ33" s="1">
@@ -9704,26 +9650,26 @@
       </c>
       <c r="O34" s="2"/>
       <c r="P34" s="6">
-        <v>2796213.0</v>
+        <v>2658047.0</v>
       </c>
       <c r="Q34" s="2">
         <v>0.07</v>
       </c>
       <c r="R34" s="1">
-        <v>2796213.0</v>
+        <v>2658047.0</v>
       </c>
       <c r="S34" s="1">
-        <v>949370.992</v>
+        <v>894706.636</v>
       </c>
       <c r="T34" s="1">
-        <v>949370.992</v>
+        <v>894706.636</v>
       </c>
       <c r="U34" s="1">
-        <v>2236970.4</v>
+        <v>2126437.6</v>
       </c>
       <c r="V34" s="2"/>
       <c r="W34" s="5">
-        <v>5369.704</v>
+        <v>4264.376</v>
       </c>
       <c r="X34" s="2"/>
       <c r="Y34" s="5">
@@ -9731,13 +9677,13 @@
       </c>
       <c r="Z34" s="2"/>
       <c r="AA34" s="1">
-        <v>2097368.0</v>
+        <v>1990799.0</v>
       </c>
       <c r="AB34" s="1">
-        <v>1846842.008</v>
+        <v>1763340.364</v>
       </c>
       <c r="AC34" s="5">
-        <v>698845.0</v>
+        <v>667248.0</v>
       </c>
       <c r="AD34" s="2"/>
       <c r="AE34" s="1">
@@ -9745,10 +9691,10 @@
       </c>
       <c r="AF34" s="2"/>
       <c r="AG34" s="6">
-        <v>-5369.704</v>
+        <v>-4264.376</v>
       </c>
       <c r="AH34" s="1">
-        <v>-13140.624</v>
+        <v>-9068.816</v>
       </c>
       <c r="AI34" s="2"/>
       <c r="AJ34" s="1">
@@ -9801,26 +9747,26 @@
       </c>
       <c r="O35" s="2"/>
       <c r="P35" s="6">
-        <v>2991948.0</v>
+        <v>2844110.0</v>
       </c>
       <c r="Q35" s="2">
-        <v>0.07</v>
+        <v>0.06</v>
       </c>
       <c r="R35" s="1">
-        <v>2991948.0</v>
+        <v>2844110.0</v>
       </c>
       <c r="S35" s="1">
-        <v>949370.992</v>
+        <v>894706.636</v>
       </c>
       <c r="T35" s="1">
-        <v>949370.992</v>
+        <v>894706.636</v>
       </c>
       <c r="U35" s="1">
-        <v>2393558.4</v>
+        <v>2275288.0</v>
       </c>
       <c r="V35" s="2"/>
       <c r="W35" s="5">
-        <v>6935.584</v>
+        <v>5752.88</v>
       </c>
       <c r="X35" s="2"/>
       <c r="Y35" s="5">
@@ -9828,13 +9774,13 @@
       </c>
       <c r="Z35" s="2"/>
       <c r="AA35" s="1">
-        <v>2219037.0</v>
+        <v>2106456.0</v>
       </c>
       <c r="AB35" s="1">
-        <v>2042577.008</v>
+        <v>1949403.364</v>
       </c>
       <c r="AC35" s="5">
-        <v>772911.0</v>
+        <v>737654.0</v>
       </c>
       <c r="AD35" s="2"/>
       <c r="AE35" s="1">
@@ -9842,10 +9788,10 @@
       </c>
       <c r="AF35" s="2"/>
       <c r="AG35" s="6">
-        <v>-6935.584</v>
+        <v>-5752.88</v>
       </c>
       <c r="AH35" s="1">
-        <v>-20076.208</v>
+        <v>-14821.696</v>
       </c>
       <c r="AI35" s="2"/>
       <c r="AJ35" s="1">
@@ -9898,26 +9844,26 @@
       </c>
       <c r="O36" s="2"/>
       <c r="P36" s="6">
-        <v>3201384.0</v>
+        <v>3043198.0</v>
       </c>
       <c r="Q36" s="2">
-        <v>0.06</v>
+        <v>0.07</v>
       </c>
       <c r="R36" s="1">
-        <v>3201384.0</v>
+        <v>3043198.0</v>
       </c>
       <c r="S36" s="1">
-        <v>949370.992</v>
+        <v>894706.636</v>
       </c>
       <c r="T36" s="1">
-        <v>949370.992</v>
+        <v>894706.636</v>
       </c>
       <c r="U36" s="1">
-        <v>2561107.2</v>
+        <v>2434558.4</v>
       </c>
       <c r="V36" s="2"/>
       <c r="W36" s="5">
-        <v>8611.072</v>
+        <v>7345.584</v>
       </c>
       <c r="X36" s="2"/>
       <c r="Y36" s="5">
@@ -9925,13 +9871,13 @@
       </c>
       <c r="Z36" s="2"/>
       <c r="AA36" s="1">
-        <v>2349222.0</v>
+        <v>2230209.0</v>
       </c>
       <c r="AB36" s="1">
-        <v>2252013.008</v>
+        <v>2148491.364</v>
       </c>
       <c r="AC36" s="5">
-        <v>852162.0</v>
+        <v>812989.0</v>
       </c>
       <c r="AD36" s="2"/>
       <c r="AE36" s="1">
@@ -9939,10 +9885,10 @@
       </c>
       <c r="AF36" s="2"/>
       <c r="AG36" s="6">
-        <v>-8611.072</v>
+        <v>-7345.584</v>
       </c>
       <c r="AH36" s="1">
-        <v>-28687.28</v>
+        <v>-22167.28</v>
       </c>
       <c r="AI36" s="2"/>
       <c r="AJ36" s="1">
@@ -9995,26 +9941,26 @@
       </c>
       <c r="O37" s="2"/>
       <c r="P37" s="6">
-        <v>3425481.0</v>
+        <v>3256222.0</v>
       </c>
       <c r="Q37" s="2">
         <v>0.07</v>
       </c>
       <c r="R37" s="1">
-        <v>3425481.0</v>
+        <v>3256222.0</v>
       </c>
       <c r="S37" s="1">
-        <v>949370.992</v>
+        <v>894706.636</v>
       </c>
       <c r="T37" s="1">
-        <v>949370.992</v>
+        <v>894706.636</v>
       </c>
       <c r="U37" s="1">
-        <v>2740384.8</v>
+        <v>2604977.6</v>
       </c>
       <c r="V37" s="2"/>
       <c r="W37" s="5">
-        <v>10403.848</v>
+        <v>9049.776</v>
       </c>
       <c r="X37" s="2"/>
       <c r="Y37" s="5">
@@ -10022,13 +9968,13 @@
       </c>
       <c r="Z37" s="2"/>
       <c r="AA37" s="1">
-        <v>2488521.0</v>
+        <v>2362625.0</v>
       </c>
       <c r="AB37" s="1">
-        <v>2476110.008</v>
+        <v>2361515.364</v>
       </c>
       <c r="AC37" s="5">
-        <v>936960.0</v>
+        <v>893597.0</v>
       </c>
       <c r="AD37" s="2"/>
       <c r="AE37" s="1">
@@ -10036,10 +9982,10 @@
       </c>
       <c r="AF37" s="2"/>
       <c r="AG37" s="6">
-        <v>-10403.848</v>
+        <v>-9049.776</v>
       </c>
       <c r="AH37" s="1">
-        <v>-39091.128</v>
+        <v>-31217.056</v>
       </c>
       <c r="AI37" s="2"/>
       <c r="AJ37" s="1">
@@ -10092,26 +10038,26 @@
       </c>
       <c r="O38" s="2"/>
       <c r="P38" s="6">
-        <v>3665265.0</v>
+        <v>3484158.0</v>
       </c>
       <c r="Q38" s="2">
         <v>0.07</v>
       </c>
       <c r="R38" s="1">
-        <v>3665265.0</v>
+        <v>3484158.0</v>
       </c>
       <c r="S38" s="1">
-        <v>949370.992</v>
+        <v>894706.636</v>
       </c>
       <c r="T38" s="1">
-        <v>949370.992</v>
+        <v>894706.636</v>
       </c>
       <c r="U38" s="1">
-        <v>2932212.0</v>
+        <v>2787326.4</v>
       </c>
       <c r="V38" s="2"/>
       <c r="W38" s="5">
-        <v>12322.12</v>
+        <v>10873.264</v>
       </c>
       <c r="X38" s="2"/>
       <c r="Y38" s="5">
@@ -10119,13 +10065,13 @@
       </c>
       <c r="Z38" s="2"/>
       <c r="AA38" s="1">
-        <v>2637571.0</v>
+        <v>2504310.0</v>
       </c>
       <c r="AB38" s="1">
-        <v>2715894.008</v>
+        <v>2589451.364</v>
       </c>
       <c r="AC38" s="5">
-        <v>1027694.0</v>
+        <v>979848.0</v>
       </c>
       <c r="AD38" s="2"/>
       <c r="AE38" s="1">
@@ -10133,10 +10079,10 @@
       </c>
       <c r="AF38" s="2"/>
       <c r="AG38" s="6">
-        <v>-12322.12</v>
+        <v>-10873.264</v>
       </c>
       <c r="AH38" s="1">
-        <v>-51413.248</v>
+        <v>-42090.32</v>
       </c>
       <c r="AI38" s="2"/>
       <c r="AJ38" s="1">
@@ -10189,26 +10135,26 @@
       </c>
       <c r="O39" s="2"/>
       <c r="P39" s="6">
-        <v>3921834.0</v>
+        <v>3728049.0</v>
       </c>
       <c r="Q39" s="2">
-        <v>0.07</v>
+        <v>0.06</v>
       </c>
       <c r="R39" s="1">
-        <v>3921834.0</v>
+        <v>3728049.0</v>
       </c>
       <c r="S39" s="1">
-        <v>949370.992</v>
+        <v>894706.636</v>
       </c>
       <c r="T39" s="1">
-        <v>949370.992</v>
+        <v>894706.636</v>
       </c>
       <c r="U39" s="1">
-        <v>3137467.2</v>
+        <v>2982439.2</v>
       </c>
       <c r="V39" s="2"/>
       <c r="W39" s="5">
-        <v>14374.672</v>
+        <v>12824.392</v>
       </c>
       <c r="X39" s="2"/>
       <c r="Y39" s="5">
@@ -10216,13 +10162,13 @@
       </c>
       <c r="Z39" s="2"/>
       <c r="AA39" s="1">
-        <v>2797054.0</v>
+        <v>2655912.0</v>
       </c>
       <c r="AB39" s="1">
-        <v>2972463.008</v>
+        <v>2833342.364</v>
       </c>
       <c r="AC39" s="5">
-        <v>1124780.0</v>
+        <v>1072137.0</v>
       </c>
       <c r="AD39" s="2"/>
       <c r="AE39" s="1">
@@ -10230,10 +10176,10 @@
       </c>
       <c r="AF39" s="2"/>
       <c r="AG39" s="6">
-        <v>-14374.672</v>
+        <v>-12824.392</v>
       </c>
       <c r="AH39" s="1">
-        <v>-65787.92</v>
+        <v>-54914.712</v>
       </c>
       <c r="AI39" s="2"/>
       <c r="AJ39" s="1">
@@ -10286,26 +10232,26 @@
       </c>
       <c r="O40" s="12"/>
       <c r="P40" s="11">
-        <v>4196362.0</v>
+        <v>3989012.0</v>
       </c>
       <c r="Q40" s="12">
         <v>0.06</v>
       </c>
       <c r="R40" s="11">
-        <v>4196362.0</v>
+        <v>3989012.0</v>
       </c>
       <c r="S40" s="11">
-        <v>949370.992</v>
+        <v>894706.636</v>
       </c>
       <c r="T40" s="11">
-        <v>949370.992</v>
+        <v>894706.636</v>
       </c>
       <c r="U40" s="11">
-        <v>3357089.6</v>
+        <v>3191209.6</v>
       </c>
       <c r="V40" s="12"/>
       <c r="W40" s="11">
-        <v>16570.896</v>
+        <v>14912.096</v>
       </c>
       <c r="X40" s="12"/>
       <c r="Y40" s="11">
@@ -10313,13 +10259,13 @@
       </c>
       <c r="Z40" s="12"/>
       <c r="AA40" s="11">
-        <v>2967701.0</v>
+        <v>2818127.0</v>
       </c>
       <c r="AB40" s="11">
-        <v>3246991.008</v>
+        <v>3094305.364</v>
       </c>
       <c r="AC40" s="11">
-        <v>1228661.0</v>
+        <v>1170885.0</v>
       </c>
       <c r="AD40" s="12"/>
       <c r="AE40" s="11">
@@ -10327,10 +10273,10 @@
       </c>
       <c r="AF40" s="12"/>
       <c r="AG40" s="11">
-        <v>-16570.896</v>
+        <v>-14912.096</v>
       </c>
       <c r="AH40" s="11">
-        <v>-82358.816</v>
+        <v>-69826.808</v>
       </c>
       <c r="AI40" s="12"/>
       <c r="AJ40" s="11">
@@ -10383,26 +10329,26 @@
       </c>
       <c r="O41" s="2"/>
       <c r="P41" s="6">
-        <v>4490107.0</v>
+        <v>4268243.0</v>
       </c>
       <c r="Q41" s="2">
-        <v>0.06</v>
+        <v>0.07</v>
       </c>
       <c r="R41" s="1">
-        <v>4490107.0</v>
+        <v>4268243.0</v>
       </c>
       <c r="S41" s="1">
-        <v>949370.992</v>
+        <v>894706.636</v>
       </c>
       <c r="T41" s="1">
-        <v>949370.992</v>
+        <v>894706.636</v>
       </c>
       <c r="U41" s="1">
-        <v>3592085.6</v>
+        <v>3414594.4</v>
       </c>
       <c r="V41" s="2"/>
       <c r="W41" s="5">
-        <v>18920.856</v>
+        <v>17145.944</v>
       </c>
       <c r="X41" s="2"/>
       <c r="Y41" s="5">
@@ -10410,13 +10356,13 @@
       </c>
       <c r="Z41" s="2"/>
       <c r="AA41" s="1">
-        <v>3150292.0</v>
+        <v>2991697.0</v>
       </c>
       <c r="AB41" s="1">
-        <v>3540736.008</v>
+        <v>3373536.364</v>
       </c>
       <c r="AC41" s="5">
-        <v>1339815.0</v>
+        <v>1276546.0</v>
       </c>
       <c r="AD41" s="2"/>
       <c r="AE41" s="1">
@@ -10424,10 +10370,10 @@
       </c>
       <c r="AF41" s="2"/>
       <c r="AG41" s="6">
-        <v>-18920.856</v>
+        <v>-17145.944</v>
       </c>
       <c r="AH41" s="1">
-        <v>-101279.672</v>
+        <v>-86972.752</v>
       </c>
       <c r="AI41" s="2"/>
       <c r="AJ41" s="1">
@@ -10480,26 +10426,26 @@
       </c>
       <c r="O42" s="2"/>
       <c r="P42" s="6">
-        <v>4804414.0</v>
+        <v>4567020.0</v>
       </c>
       <c r="Q42" s="2">
         <v>0.06</v>
       </c>
       <c r="R42" s="1">
-        <v>4804414.0</v>
+        <v>4567020.0</v>
       </c>
       <c r="S42" s="1">
-        <v>949370.992</v>
+        <v>894706.636</v>
       </c>
       <c r="T42" s="1">
-        <v>949370.992</v>
+        <v>894706.636</v>
       </c>
       <c r="U42" s="1">
-        <v>3843531.2</v>
+        <v>3653616.0</v>
       </c>
       <c r="V42" s="2"/>
       <c r="W42" s="5">
-        <v>21435.312</v>
+        <v>19536.16</v>
       </c>
       <c r="X42" s="2"/>
       <c r="Y42" s="5">
@@ -10507,13 +10453,13 @@
       </c>
       <c r="Z42" s="2"/>
       <c r="AA42" s="1">
-        <v>3345666.0</v>
+        <v>3177417.0</v>
       </c>
       <c r="AB42" s="1">
-        <v>3855043.008</v>
+        <v>3672313.364</v>
       </c>
       <c r="AC42" s="5">
-        <v>1458748.0</v>
+        <v>1389603.0</v>
       </c>
       <c r="AD42" s="2"/>
       <c r="AE42" s="1">
@@ -10521,10 +10467,10 @@
       </c>
       <c r="AF42" s="2"/>
       <c r="AG42" s="6">
-        <v>-21435.312</v>
+        <v>-19536.16</v>
       </c>
       <c r="AH42" s="1">
-        <v>-122714.984</v>
+        <v>-106508.912</v>
       </c>
       <c r="AI42" s="2"/>
       <c r="AJ42" s="1">
@@ -10577,26 +10523,26 @@
       </c>
       <c r="O43" s="2"/>
       <c r="P43" s="6">
-        <v>5140723.0</v>
+        <v>4886711.0</v>
       </c>
       <c r="Q43" s="2">
-        <v>0.07</v>
+        <v>0.06</v>
       </c>
       <c r="R43" s="1">
-        <v>5140723.0</v>
+        <v>4886711.0</v>
       </c>
       <c r="S43" s="1">
-        <v>949370.992</v>
+        <v>894706.636</v>
       </c>
       <c r="T43" s="1">
-        <v>949370.992</v>
+        <v>894706.636</v>
       </c>
       <c r="U43" s="1">
-        <v>4112578.4</v>
+        <v>3909368.8</v>
       </c>
       <c r="V43" s="2"/>
       <c r="W43" s="5">
-        <v>24125.784</v>
+        <v>22093.688</v>
       </c>
       <c r="X43" s="2"/>
       <c r="Y43" s="5">
@@ -10604,13 +10550,13 @@
       </c>
       <c r="Z43" s="2"/>
       <c r="AA43" s="1">
-        <v>3554715.0</v>
+        <v>3376137.0</v>
       </c>
       <c r="AB43" s="1">
-        <v>4191352.008</v>
+        <v>3992004.364</v>
       </c>
       <c r="AC43" s="5">
-        <v>1586008.0</v>
+        <v>1510574.0</v>
       </c>
       <c r="AD43" s="2"/>
       <c r="AE43" s="1">
@@ -10618,10 +10564,10 @@
       </c>
       <c r="AF43" s="2"/>
       <c r="AG43" s="6">
-        <v>-24125.784</v>
+        <v>-22093.688</v>
       </c>
       <c r="AH43" s="1">
-        <v>-146840.768</v>
+        <v>-128602.6</v>
       </c>
       <c r="AI43" s="2"/>
       <c r="AJ43" s="1">
@@ -10674,26 +10620,26 @@
       </c>
       <c r="O44" s="2"/>
       <c r="P44" s="6">
-        <v>5500574.0</v>
+        <v>5228781.0</v>
       </c>
       <c r="Q44" s="2">
         <v>0.07</v>
       </c>
       <c r="R44" s="1">
-        <v>5500574.0</v>
+        <v>5228781.0</v>
       </c>
       <c r="S44" s="1">
-        <v>949370.992</v>
+        <v>894706.636</v>
       </c>
       <c r="T44" s="1">
-        <v>949370.992</v>
+        <v>894706.636</v>
       </c>
       <c r="U44" s="1">
-        <v>4400459.2</v>
+        <v>4183024.8</v>
       </c>
       <c r="V44" s="2"/>
       <c r="W44" s="5">
-        <v>27004.592</v>
+        <v>24830.248</v>
       </c>
       <c r="X44" s="2"/>
       <c r="Y44" s="5">
@@ -10701,13 +10647,13 @@
       </c>
       <c r="Z44" s="2"/>
       <c r="AA44" s="1">
-        <v>3778399.0</v>
+        <v>3588767.0</v>
       </c>
       <c r="AB44" s="1">
-        <v>4551203.008</v>
+        <v>4334074.364</v>
       </c>
       <c r="AC44" s="5">
-        <v>1722175.0</v>
+        <v>1640014.0</v>
       </c>
       <c r="AD44" s="2"/>
       <c r="AE44" s="1">
@@ -10715,10 +10661,10 @@
       </c>
       <c r="AF44" s="2"/>
       <c r="AG44" s="6">
-        <v>-27004.592</v>
+        <v>-24830.248</v>
       </c>
       <c r="AH44" s="1">
-        <v>-173845.36</v>
+        <v>-153432.848</v>
       </c>
       <c r="AI44" s="2"/>
       <c r="AJ44" s="1">
@@ -10771,26 +10717,26 @@
       </c>
       <c r="O45" s="2"/>
       <c r="P45" s="6">
-        <v>5885614.0</v>
+        <v>5594796.0</v>
       </c>
       <c r="Q45" s="2">
-        <v>0.06</v>
+        <v>0.07</v>
       </c>
       <c r="R45" s="1">
-        <v>5885614.0</v>
+        <v>5594796.0</v>
       </c>
       <c r="S45" s="1">
-        <v>949370.992</v>
+        <v>894706.636</v>
       </c>
       <c r="T45" s="1">
-        <v>949370.992</v>
+        <v>894706.636</v>
       </c>
       <c r="U45" s="1">
-        <v>4708491.2</v>
+        <v>4475836.8</v>
       </c>
       <c r="V45" s="2"/>
       <c r="W45" s="5">
-        <v>30084.912</v>
+        <v>27758.368</v>
       </c>
       <c r="X45" s="2"/>
       <c r="Y45" s="5">
@@ -10798,13 +10744,13 @@
       </c>
       <c r="Z45" s="2"/>
       <c r="AA45" s="1">
-        <v>4017740.0</v>
+        <v>3816282.0</v>
       </c>
       <c r="AB45" s="1">
-        <v>4936243.008</v>
+        <v>4700089.364</v>
       </c>
       <c r="AC45" s="5">
-        <v>1867874.0</v>
+        <v>1778514.0</v>
       </c>
       <c r="AD45" s="2"/>
       <c r="AE45" s="1">
@@ -10812,10 +10758,10 @@
       </c>
       <c r="AF45" s="2"/>
       <c r="AG45" s="6">
-        <v>-30084.912</v>
+        <v>-27758.368</v>
       </c>
       <c r="AH45" s="1">
-        <v>-203930.272</v>
+        <v>-181191.216</v>
       </c>
       <c r="AI45" s="2"/>
       <c r="AJ45" s="1">
@@ -10868,26 +10814,26 @@
       </c>
       <c r="O46" s="2"/>
       <c r="P46" s="6">
-        <v>6297607.0</v>
+        <v>5986432.0</v>
       </c>
       <c r="Q46" s="2">
         <v>0.07</v>
       </c>
       <c r="R46" s="1">
-        <v>6297607.0</v>
+        <v>5986432.0</v>
       </c>
       <c r="S46" s="1">
-        <v>949370.992</v>
+        <v>894706.636</v>
       </c>
       <c r="T46" s="1">
-        <v>949370.992</v>
+        <v>894706.636</v>
       </c>
       <c r="U46" s="1">
-        <v>5038085.6</v>
+        <v>4789145.6</v>
       </c>
       <c r="V46" s="2"/>
       <c r="W46" s="5">
-        <v>33380.856</v>
+        <v>30891.456</v>
       </c>
       <c r="X46" s="2"/>
       <c r="Y46" s="5">
@@ -10895,13 +10841,13 @@
       </c>
       <c r="Z46" s="2"/>
       <c r="AA46" s="1">
-        <v>4273834.0</v>
+        <v>4059723.0</v>
       </c>
       <c r="AB46" s="1">
-        <v>5348236.008</v>
+        <v>5091725.364</v>
       </c>
       <c r="AC46" s="5">
-        <v>2023773.0</v>
+        <v>1926709.0</v>
       </c>
       <c r="AD46" s="2"/>
       <c r="AE46" s="1">
@@ -10909,10 +10855,10 @@
       </c>
       <c r="AF46" s="2"/>
       <c r="AG46" s="6">
-        <v>-33380.856</v>
+        <v>-30891.456</v>
       </c>
       <c r="AH46" s="1">
-        <v>-237311.128</v>
+        <v>-212082.672</v>
       </c>
       <c r="AI46" s="2"/>
       <c r="AJ46" s="1">
@@ -10965,26 +10911,26 @@
       </c>
       <c r="O47" s="2"/>
       <c r="P47" s="6">
-        <v>6738439.0</v>
+        <v>6405482.0</v>
       </c>
       <c r="Q47" s="2">
         <v>0.06</v>
       </c>
       <c r="R47" s="1">
-        <v>6738439.0</v>
+        <v>6405482.0</v>
       </c>
       <c r="S47" s="1">
-        <v>949370.992</v>
+        <v>894706.636</v>
       </c>
       <c r="T47" s="1">
-        <v>949370.992</v>
+        <v>894706.636</v>
       </c>
       <c r="U47" s="1">
-        <v>5390751.2</v>
+        <v>5124385.6</v>
       </c>
       <c r="V47" s="2"/>
       <c r="W47" s="5">
-        <v>36907.512</v>
+        <v>34243.856</v>
       </c>
       <c r="X47" s="2"/>
       <c r="Y47" s="5">
@@ -10992,13 +10938,13 @@
       </c>
       <c r="Z47" s="2"/>
       <c r="AA47" s="1">
-        <v>4547856.0</v>
+        <v>4320205.0</v>
       </c>
       <c r="AB47" s="1">
-        <v>5789068.008</v>
+        <v>5510775.364</v>
       </c>
       <c r="AC47" s="5">
-        <v>2190583.0</v>
+        <v>2085277.0</v>
       </c>
       <c r="AD47" s="2"/>
       <c r="AE47" s="1">
@@ -11006,10 +10952,10 @@
       </c>
       <c r="AF47" s="2"/>
       <c r="AG47" s="6">
-        <v>-36907.512</v>
+        <v>-34243.856</v>
       </c>
       <c r="AH47" s="1">
-        <v>-274218.64</v>
+        <v>-246326.528</v>
       </c>
       <c r="AI47" s="2"/>
       <c r="AJ47" s="1">
@@ -11062,26 +11008,26 @@
       </c>
       <c r="O48" s="2"/>
       <c r="P48" s="6">
-        <v>7210130.0</v>
+        <v>6853866.0</v>
       </c>
       <c r="Q48" s="2">
         <v>0.07</v>
       </c>
       <c r="R48" s="1">
-        <v>7210130.0</v>
+        <v>6853866.0</v>
       </c>
       <c r="S48" s="1">
-        <v>949370.992</v>
+        <v>894706.636</v>
       </c>
       <c r="T48" s="1">
-        <v>949370.992</v>
+        <v>894706.636</v>
       </c>
       <c r="U48" s="1">
-        <v>5768104.0</v>
+        <v>5483092.8</v>
       </c>
       <c r="V48" s="2"/>
       <c r="W48" s="5">
-        <v>40681.04</v>
+        <v>37830.928</v>
       </c>
       <c r="X48" s="2"/>
       <c r="Y48" s="5">
@@ -11089,13 +11035,13 @@
       </c>
       <c r="Z48" s="2"/>
       <c r="AA48" s="1">
-        <v>4841059.0</v>
+        <v>4598920.0</v>
       </c>
       <c r="AB48" s="1">
-        <v>6260759.008</v>
+        <v>5959159.364</v>
       </c>
       <c r="AC48" s="5">
-        <v>2369071.0</v>
+        <v>2254946.0</v>
       </c>
       <c r="AD48" s="2"/>
       <c r="AE48" s="1">
@@ -11103,10 +11049,10 @@
       </c>
       <c r="AF48" s="2"/>
       <c r="AG48" s="6">
-        <v>-40681.04</v>
+        <v>-37830.928</v>
       </c>
       <c r="AH48" s="1">
-        <v>-314899.68</v>
+        <v>-284157.456</v>
       </c>
       <c r="AI48" s="2"/>
       <c r="AJ48" s="1">
@@ -11159,26 +11105,26 @@
       </c>
       <c r="O49" s="2"/>
       <c r="P49" s="6">
-        <v>7714839.0</v>
+        <v>7333637.0</v>
       </c>
       <c r="Q49" s="2">
-        <v>0.06</v>
+        <v>0.07</v>
       </c>
       <c r="R49" s="1">
-        <v>7714839.0</v>
+        <v>7333637.0</v>
       </c>
       <c r="S49" s="1">
-        <v>949370.992</v>
+        <v>894706.636</v>
       </c>
       <c r="T49" s="1">
-        <v>949370.992</v>
+        <v>894706.636</v>
       </c>
       <c r="U49" s="1">
-        <v>6171871.2</v>
+        <v>5866909.6</v>
       </c>
       <c r="V49" s="2"/>
       <c r="W49" s="5">
-        <v>44718.712</v>
+        <v>41669.096</v>
       </c>
       <c r="X49" s="2"/>
       <c r="Y49" s="5">
@@ -11186,13 +11132,13 @@
       </c>
       <c r="Z49" s="2"/>
       <c r="AA49" s="1">
-        <v>5154786.0</v>
+        <v>4897146.0</v>
       </c>
       <c r="AB49" s="1">
-        <v>6765468.008</v>
+        <v>6438930.364</v>
       </c>
       <c r="AC49" s="5">
-        <v>2560053.0</v>
+        <v>2436491.0</v>
       </c>
       <c r="AD49" s="2"/>
       <c r="AE49" s="1">
@@ -11200,10 +11146,10 @@
       </c>
       <c r="AF49" s="2"/>
       <c r="AG49" s="6">
-        <v>-44718.712</v>
+        <v>-41669.096</v>
       </c>
       <c r="AH49" s="1">
-        <v>-359618.392</v>
+        <v>-325826.552</v>
       </c>
       <c r="AI49" s="2"/>
       <c r="AJ49" s="1">
@@ -11256,26 +11202,26 @@
       </c>
       <c r="O50" s="2"/>
       <c r="P50" s="6">
-        <v>8254878.0</v>
+        <v>7846992.0</v>
       </c>
       <c r="Q50" s="2">
         <v>0.07</v>
       </c>
       <c r="R50" s="1">
-        <v>8254878.0</v>
+        <v>7846992.0</v>
       </c>
       <c r="S50" s="1">
-        <v>949370.992</v>
+        <v>894706.636</v>
       </c>
       <c r="T50" s="1">
-        <v>949370.992</v>
+        <v>894706.636</v>
       </c>
       <c r="U50" s="1">
-        <v>6603902.4</v>
+        <v>6277593.6</v>
       </c>
       <c r="V50" s="2"/>
       <c r="W50" s="5">
-        <v>49039.024</v>
+        <v>45775.936</v>
       </c>
       <c r="X50" s="2"/>
       <c r="Y50" s="5">
@@ -11283,13 +11229,13 @@
       </c>
       <c r="Z50" s="2"/>
       <c r="AA50" s="1">
-        <v>5490474.0</v>
+        <v>5216247.0</v>
       </c>
       <c r="AB50" s="1">
-        <v>7305507.008</v>
+        <v>6952285.364</v>
       </c>
       <c r="AC50" s="5">
-        <v>2764404.0</v>
+        <v>2630745.0</v>
       </c>
       <c r="AD50" s="2"/>
       <c r="AE50" s="1">
@@ -11297,10 +11243,10 @@
       </c>
       <c r="AF50" s="2"/>
       <c r="AG50" s="6">
-        <v>-49039.024</v>
+        <v>-45775.936</v>
       </c>
       <c r="AH50" s="1">
-        <v>-408657.416</v>
+        <v>-371602.488</v>
       </c>
       <c r="AI50" s="2"/>
       <c r="AJ50" s="1">
@@ -11353,26 +11299,26 @@
       </c>
       <c r="O51" s="2"/>
       <c r="P51" s="6">
-        <v>8832719.0</v>
+        <v>8396281.0</v>
       </c>
       <c r="Q51" s="2">
         <v>0.06</v>
       </c>
       <c r="R51" s="1">
-        <v>8832719.0</v>
+        <v>8396281.0</v>
       </c>
       <c r="S51" s="1">
-        <v>949370.992</v>
+        <v>894706.636</v>
       </c>
       <c r="T51" s="1">
-        <v>949370.992</v>
+        <v>894706.636</v>
       </c>
       <c r="U51" s="1">
-        <v>7066175.2</v>
+        <v>6717024.8</v>
       </c>
       <c r="V51" s="2"/>
       <c r="W51" s="5">
-        <v>53661.752</v>
+        <v>50170.248</v>
       </c>
       <c r="X51" s="2"/>
       <c r="Y51" s="5">
@@ -11380,13 +11326,13 @@
       </c>
       <c r="Z51" s="2"/>
       <c r="AA51" s="1">
-        <v>5849660.0</v>
+        <v>5557685.0</v>
       </c>
       <c r="AB51" s="1">
-        <v>7883348.008</v>
+        <v>7501574.364</v>
       </c>
       <c r="AC51" s="5">
-        <v>2983059.0</v>
+        <v>2838596.0</v>
       </c>
       <c r="AD51" s="2"/>
       <c r="AE51" s="1">
@@ -11394,10 +11340,10 @@
       </c>
       <c r="AF51" s="2"/>
       <c r="AG51" s="6">
-        <v>-53661.752</v>
+        <v>-50170.248</v>
       </c>
       <c r="AH51" s="1">
-        <v>-462319.168</v>
+        <v>-421772.736</v>
       </c>
       <c r="AI51" s="2"/>
       <c r="AJ51" s="1">
@@ -11450,26 +11396,26 @@
       </c>
       <c r="O52" s="16"/>
       <c r="P52" s="5">
-        <v>9451009.0</v>
+        <v>8984021.0</v>
       </c>
       <c r="Q52" s="16">
-        <v>0.06</v>
+        <v>0.07</v>
       </c>
       <c r="R52" s="5">
-        <v>9451009.0</v>
+        <v>8984021.0</v>
       </c>
       <c r="S52" s="5">
-        <v>949370.992</v>
+        <v>894706.636</v>
       </c>
       <c r="T52" s="5">
-        <v>949370.992</v>
+        <v>894706.636</v>
       </c>
       <c r="U52" s="5">
-        <v>7560807.2</v>
+        <v>7187216.8</v>
       </c>
       <c r="V52" s="16"/>
       <c r="W52" s="5">
-        <v>58608.072</v>
+        <v>54872.168</v>
       </c>
       <c r="X52" s="16"/>
       <c r="Y52" s="5">
@@ -11477,13 +11423,13 @@
       </c>
       <c r="Z52" s="16"/>
       <c r="AA52" s="5">
-        <v>6233989.0</v>
+        <v>5923024.0</v>
       </c>
       <c r="AB52" s="5">
-        <v>8501638.008</v>
+        <v>8089314.364</v>
       </c>
       <c r="AC52" s="5">
-        <v>3217020.0</v>
+        <v>3060997.0</v>
       </c>
       <c r="AD52" s="16"/>
       <c r="AE52" s="5">
@@ -11491,10 +11437,10 @@
       </c>
       <c r="AF52" s="16"/>
       <c r="AG52" s="5">
-        <v>-58608.072</v>
+        <v>-54872.168</v>
       </c>
       <c r="AH52" s="5">
-        <v>-520927.24</v>
+        <v>-476644.904</v>
       </c>
       <c r="AI52" s="16"/>
       <c r="AJ52" s="5">
@@ -14320,13 +14266,11 @@
       </c>
       <c r="O20" s="2"/>
       <c r="P20" s="6">
-        <v>157622.2</v>
-      </c>
-      <c r="Q20" s="2">
-        <v>0.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="Q20" s="2"/>
       <c r="R20" s="1">
-        <v>157622.2</v>
+        <v>0</v>
       </c>
       <c r="S20" s="1">
         <v>0</v>
@@ -14335,11 +14279,11 @@
         <v>0</v>
       </c>
       <c r="U20" s="1">
-        <v>1816464</v>
+        <v>0</v>
       </c>
       <c r="V20" s="2"/>
       <c r="W20" s="5">
-        <v>18164.64</v>
+        <v>0.0</v>
       </c>
       <c r="X20" s="2"/>
       <c r="Y20" s="5">
@@ -14347,17 +14291,15 @@
       </c>
       <c r="Z20" s="2"/>
       <c r="AA20" s="1">
-        <v>6952.2</v>
+        <v>0</v>
       </c>
       <c r="AB20" s="1">
-        <v>665660.2</v>
+        <v>0</v>
       </c>
       <c r="AC20" s="5">
-        <v>150670.0</v>
-      </c>
-      <c r="AD20" s="2">
-        <v>0.378</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="AD20" s="2"/>
       <c r="AE20" s="1">
         <v>0</v>
       </c>
@@ -14380,9 +14322,7 @@
       </c>
       <c r="AM20" s="1"/>
       <c r="AN20" s="2"/>
-      <c r="AO20" t="s">
-        <v>53</v>
-      </c>
+      <c r="AO20"/>
     </row>
     <row r="21" spans="1:41">
       <c r="A21">
@@ -14421,13 +14361,11 @@
       </c>
       <c r="O21" s="2"/>
       <c r="P21" s="6">
-        <v>37104.85</v>
-      </c>
-      <c r="Q21" s="2">
-        <v>0.76</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="Q21" s="2"/>
       <c r="R21" s="1">
-        <v>37104.85</v>
+        <v>0</v>
       </c>
       <c r="S21" s="1">
         <v>0</v>
@@ -14436,11 +14374,11 @@
         <v>0</v>
       </c>
       <c r="U21" s="1">
-        <v>168656</v>
+        <v>0</v>
       </c>
       <c r="V21" s="2"/>
       <c r="W21" s="5">
-        <v>1686.56</v>
+        <v>0.0</v>
       </c>
       <c r="X21" s="2"/>
       <c r="Y21" s="5">
@@ -14448,17 +14386,15 @@
       </c>
       <c r="Z21" s="2"/>
       <c r="AA21" s="1">
-        <v>1177.85</v>
+        <v>0</v>
       </c>
       <c r="AB21" s="1">
-        <v>160049.85</v>
+        <v>0</v>
       </c>
       <c r="AC21" s="5">
-        <v>35927.0</v>
-      </c>
-      <c r="AD21" s="2">
-        <v>0.378</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="AD21" s="2"/>
       <c r="AE21" s="1">
         <v>0</v>
       </c>
@@ -14481,9 +14417,7 @@
       </c>
       <c r="AM21" s="1"/>
       <c r="AN21" s="2"/>
-      <c r="AO21" t="s">
-        <v>54</v>
-      </c>
+      <c r="AO21"/>
     </row>
     <row r="22" spans="1:41">
       <c r="A22">
@@ -14522,13 +14456,11 @@
       </c>
       <c r="O22" s="2"/>
       <c r="P22" s="6">
-        <v>8734.06</v>
-      </c>
-      <c r="Q22" s="2">
-        <v>0.76</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="Q22" s="2"/>
       <c r="R22" s="1">
-        <v>8734.06</v>
+        <v>0</v>
       </c>
       <c r="S22" s="1">
         <v>0</v>
@@ -14537,11 +14469,11 @@
         <v>0</v>
       </c>
       <c r="U22" s="1">
-        <v>39702</v>
+        <v>0</v>
       </c>
       <c r="V22" s="2"/>
       <c r="W22" s="5">
-        <v>397.02</v>
+        <v>0.0</v>
       </c>
       <c r="X22" s="2"/>
       <c r="Y22" s="5">
@@ -14549,17 +14481,15 @@
       </c>
       <c r="Z22" s="2"/>
       <c r="AA22" s="1">
-        <v>277.06</v>
+        <v>0</v>
       </c>
       <c r="AB22" s="1">
-        <v>37676.06</v>
+        <v>0</v>
       </c>
       <c r="AC22" s="5">
-        <v>8457.0</v>
-      </c>
-      <c r="AD22" s="2">
-        <v>0.378</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="AD22" s="2"/>
       <c r="AE22" s="1">
         <v>0</v>
       </c>
@@ -14582,9 +14512,7 @@
       </c>
       <c r="AM22" s="1"/>
       <c r="AN22" s="2"/>
-      <c r="AO22" t="s">
-        <v>55</v>
-      </c>
+      <c r="AO22"/>
     </row>
     <row r="23" spans="1:41">
       <c r="A23">
@@ -14623,13 +14551,11 @@
       </c>
       <c r="O23" s="2"/>
       <c r="P23" s="6">
-        <v>2055.09</v>
-      </c>
-      <c r="Q23" s="2">
-        <v>0.76</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="Q23" s="2"/>
       <c r="R23" s="1">
-        <v>2055.09</v>
+        <v>0</v>
       </c>
       <c r="S23" s="1">
         <v>0</v>
@@ -14638,11 +14564,11 @@
         <v>0</v>
       </c>
       <c r="U23" s="1">
-        <v>9345</v>
+        <v>0</v>
       </c>
       <c r="V23" s="2"/>
       <c r="W23" s="5">
-        <v>93.45</v>
+        <v>0.0</v>
       </c>
       <c r="X23" s="2"/>
       <c r="Y23" s="5">
@@ -14650,17 +14576,15 @@
       </c>
       <c r="Z23" s="2"/>
       <c r="AA23" s="1">
-        <v>65.089999999999</v>
+        <v>0</v>
       </c>
       <c r="AB23" s="1">
-        <v>8868.09</v>
+        <v>0</v>
       </c>
       <c r="AC23" s="5">
-        <v>1990.0</v>
-      </c>
-      <c r="AD23" s="2">
-        <v>0.378</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="AD23" s="2"/>
       <c r="AE23" s="1">
         <v>0</v>
       </c>
@@ -14683,9 +14607,7 @@
       </c>
       <c r="AM23" s="1"/>
       <c r="AN23" s="2"/>
-      <c r="AO23" t="s">
-        <v>56</v>
-      </c>
+      <c r="AO23"/>
     </row>
     <row r="24" spans="1:41">
       <c r="A24">
@@ -14724,13 +14646,11 @@
       </c>
       <c r="O24" s="2"/>
       <c r="P24" s="6">
-        <v>483.79</v>
-      </c>
-      <c r="Q24" s="2">
-        <v>0.76</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="Q24" s="2"/>
       <c r="R24" s="1">
-        <v>483.79</v>
+        <v>0</v>
       </c>
       <c r="S24" s="1">
         <v>0</v>
@@ -14739,11 +14659,11 @@
         <v>0</v>
       </c>
       <c r="U24" s="1">
-        <v>2199</v>
+        <v>0</v>
       </c>
       <c r="V24" s="2"/>
       <c r="W24" s="5">
-        <v>21.99</v>
+        <v>0.0</v>
       </c>
       <c r="X24" s="2"/>
       <c r="Y24" s="5">
@@ -14751,17 +14671,15 @@
       </c>
       <c r="Z24" s="2"/>
       <c r="AA24" s="1">
-        <v>15.79</v>
+        <v>0</v>
       </c>
       <c r="AB24" s="1">
-        <v>2086.79</v>
+        <v>0</v>
       </c>
       <c r="AC24" s="5">
-        <v>468.0</v>
-      </c>
-      <c r="AD24" s="2">
-        <v>0.378</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="AD24" s="2"/>
       <c r="AE24" s="1">
         <v>0</v>
       </c>
@@ -14784,9 +14702,7 @@
       </c>
       <c r="AM24" s="1"/>
       <c r="AN24" s="2"/>
-      <c r="AO24" t="s">
-        <v>57</v>
-      </c>
+      <c r="AO24"/>
     </row>
     <row r="25" spans="1:41">
       <c r="A25">
@@ -14825,13 +14741,11 @@
       </c>
       <c r="O25" s="2"/>
       <c r="P25" s="6">
-        <v>113.54</v>
-      </c>
-      <c r="Q25" s="2">
-        <v>0.76</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="Q25" s="2"/>
       <c r="R25" s="1">
-        <v>113.54</v>
+        <v>0</v>
       </c>
       <c r="S25" s="1">
         <v>0</v>
@@ -14840,11 +14754,11 @@
         <v>0</v>
       </c>
       <c r="U25" s="1">
-        <v>518</v>
+        <v>0</v>
       </c>
       <c r="V25" s="2"/>
       <c r="W25" s="5">
-        <v>5.18</v>
+        <v>0.0</v>
       </c>
       <c r="X25" s="2"/>
       <c r="Y25" s="5">
@@ -14852,17 +14766,15 @@
       </c>
       <c r="Z25" s="2"/>
       <c r="AA25" s="1">
-        <v>3.54</v>
+        <v>0</v>
       </c>
       <c r="AB25" s="1">
-        <v>491.54</v>
+        <v>0</v>
       </c>
       <c r="AC25" s="5">
-        <v>110.0</v>
-      </c>
-      <c r="AD25" s="2">
-        <v>0.378</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="AD25" s="2"/>
       <c r="AE25" s="1">
         <v>0</v>
       </c>
@@ -14885,9 +14797,7 @@
       </c>
       <c r="AM25" s="1"/>
       <c r="AN25" s="2"/>
-      <c r="AO25" t="s">
-        <v>58</v>
-      </c>
+      <c r="AO25"/>
     </row>
     <row r="26" spans="1:41">
       <c r="A26">
@@ -14926,13 +14836,11 @@
       </c>
       <c r="O26" s="2"/>
       <c r="P26" s="6">
-        <v>26.77</v>
-      </c>
-      <c r="Q26" s="2">
-        <v>0.76</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="Q26" s="2"/>
       <c r="R26" s="1">
-        <v>26.77</v>
+        <v>0</v>
       </c>
       <c r="S26" s="1">
         <v>0</v>
@@ -14941,11 +14849,11 @@
         <v>0</v>
       </c>
       <c r="U26" s="1">
-        <v>122</v>
+        <v>0</v>
       </c>
       <c r="V26" s="2"/>
       <c r="W26" s="5">
-        <v>1.22</v>
+        <v>0.0</v>
       </c>
       <c r="X26" s="2"/>
       <c r="Y26" s="5">
@@ -14953,17 +14861,15 @@
       </c>
       <c r="Z26" s="2"/>
       <c r="AA26" s="1">
-        <v>0.77</v>
+        <v>0</v>
       </c>
       <c r="AB26" s="1">
-        <v>115.77</v>
+        <v>0</v>
       </c>
       <c r="AC26" s="5">
-        <v>26.0</v>
-      </c>
-      <c r="AD26" s="2">
-        <v>0.378</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="AD26" s="2"/>
       <c r="AE26" s="1">
         <v>0</v>
       </c>
@@ -14986,9 +14892,7 @@
       </c>
       <c r="AM26" s="1"/>
       <c r="AN26" s="2"/>
-      <c r="AO26" t="s">
-        <v>59</v>
-      </c>
+      <c r="AO26"/>
     </row>
     <row r="27" spans="1:41">
       <c r="A27">
@@ -15027,13 +14931,11 @@
       </c>
       <c r="O27" s="2"/>
       <c r="P27" s="6">
-        <v>6.53</v>
-      </c>
-      <c r="Q27" s="2">
-        <v>0.75</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="Q27" s="2"/>
       <c r="R27" s="1">
-        <v>6.53</v>
+        <v>0</v>
       </c>
       <c r="S27" s="1">
         <v>0</v>
@@ -15042,11 +14944,11 @@
         <v>0</v>
       </c>
       <c r="U27" s="1">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="V27" s="2"/>
       <c r="W27" s="5">
-        <v>0.29</v>
+        <v>0.0</v>
       </c>
       <c r="X27" s="2"/>
       <c r="Y27" s="5">
@@ -15054,17 +14956,15 @@
       </c>
       <c r="Z27" s="2"/>
       <c r="AA27" s="1">
-        <v>0.53</v>
+        <v>0</v>
       </c>
       <c r="AB27" s="1">
-        <v>27.53</v>
+        <v>0</v>
       </c>
       <c r="AC27" s="5">
-        <v>6.0</v>
-      </c>
-      <c r="AD27" s="2">
-        <v>0.378</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="AD27" s="2"/>
       <c r="AE27" s="1">
         <v>0</v>
       </c>
@@ -15087,9 +14987,7 @@
       </c>
       <c r="AM27" s="1"/>
       <c r="AN27" s="2"/>
-      <c r="AO27" t="s">
-        <v>60</v>
-      </c>
+      <c r="AO27"/>
     </row>
     <row r="28" spans="1:41">
       <c r="A28">
@@ -15128,13 +15026,11 @@
       </c>
       <c r="O28" s="2"/>
       <c r="P28" s="6">
-        <v>1.65</v>
-      </c>
-      <c r="Q28" s="2">
-        <v>0.74</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="Q28" s="2"/>
       <c r="R28" s="1">
-        <v>1.65</v>
+        <v>0</v>
       </c>
       <c r="S28" s="1">
         <v>0</v>
@@ -15143,11 +15039,11 @@
         <v>0</v>
       </c>
       <c r="U28" s="1">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="V28" s="2"/>
       <c r="W28" s="5">
-        <v>0.07</v>
+        <v>0.0</v>
       </c>
       <c r="X28" s="2"/>
       <c r="Y28" s="5">
@@ -15155,17 +15051,15 @@
       </c>
       <c r="Z28" s="2"/>
       <c r="AA28" s="1">
-        <v>0.65</v>
+        <v>0</v>
       </c>
       <c r="AB28" s="1">
-        <v>6.65</v>
+        <v>0</v>
       </c>
       <c r="AC28" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="AD28" s="2">
-        <v>0.378</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="AD28" s="2"/>
       <c r="AE28" s="1">
         <v>0</v>
       </c>
@@ -15188,9 +15082,7 @@
       </c>
       <c r="AM28" s="1"/>
       <c r="AN28" s="2"/>
-      <c r="AO28" t="s">
-        <v>61</v>
-      </c>
+      <c r="AO28"/>
     </row>
     <row r="29" spans="1:41">
       <c r="A29">
@@ -18695,7 +18587,7 @@
   <sheetData>
     <row r="1" spans="1:41">
       <c r="A1" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:41">
@@ -18703,19 +18595,19 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="C2" t="s">
         <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="E2" t="s">
         <v>3</v>
       </c>
       <c r="F2" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="G2" t="s">
         <v>4</v>
@@ -18727,7 +18619,7 @@
         <v>5</v>
       </c>
       <c r="J2" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:41">
@@ -19508,7 +19400,7 @@
         <v>1</v>
       </c>
       <c r="AO15" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
     </row>
     <row r="16" spans="1:41">
@@ -19595,7 +19487,7 @@
       <c r="AM16" s="1"/>
       <c r="AN16" s="2"/>
       <c r="AO16" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
     </row>
     <row r="17" spans="1:41">
@@ -19682,7 +19574,7 @@
       <c r="AM17" s="1"/>
       <c r="AN17" s="2"/>
       <c r="AO17" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
     </row>
     <row r="18" spans="1:41">
@@ -19769,7 +19661,7 @@
       <c r="AM18" s="1"/>
       <c r="AN18" s="2"/>
       <c r="AO18" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
     </row>
     <row r="19" spans="1:41">
@@ -19856,7 +19748,7 @@
       <c r="AM19" s="8"/>
       <c r="AN19" s="9"/>
       <c r="AO19" s="7" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
     </row>
     <row r="20" spans="1:41">
@@ -19881,50 +19773,22 @@
       <c r="M20" s="1"/>
       <c r="N20" s="1"/>
       <c r="O20" s="2"/>
-      <c r="P20" s="6">
-        <v>157622.2</v>
-      </c>
-      <c r="Q20" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="R20" s="1">
-        <v>157622.2</v>
-      </c>
-      <c r="S20" s="1">
-        <v>0</v>
-      </c>
-      <c r="T20" s="1">
-        <v>0</v>
-      </c>
-      <c r="U20" s="1">
-        <v>1816464</v>
-      </c>
-      <c r="V20" s="2">
-        <v>1</v>
-      </c>
-      <c r="W20" s="5">
-        <v>1164.64</v>
-      </c>
-      <c r="X20" s="2">
-        <v>0.01</v>
-      </c>
+      <c r="P20" s="6"/>
+      <c r="Q20" s="2"/>
+      <c r="R20" s="1"/>
+      <c r="S20" s="1"/>
+      <c r="T20" s="1"/>
+      <c r="U20" s="1"/>
+      <c r="V20" s="2"/>
+      <c r="W20" s="5"/>
+      <c r="X20" s="2"/>
       <c r="Y20" s="5"/>
       <c r="Z20" s="2"/>
-      <c r="AA20" s="1">
-        <v>11177.2</v>
-      </c>
-      <c r="AB20" s="1">
-        <v>665660.2</v>
-      </c>
-      <c r="AC20" s="5">
-        <v>146445.0</v>
-      </c>
-      <c r="AD20" s="2">
-        <v>0.22</v>
-      </c>
-      <c r="AE20" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="AA20" s="1"/>
+      <c r="AB20" s="1"/>
+      <c r="AC20" s="5"/>
+      <c r="AD20" s="2"/>
+      <c r="AE20" s="1"/>
       <c r="AF20" s="2"/>
       <c r="AG20" s="6">
         <v>-1164.64</v>
@@ -19944,9 +19808,7 @@
       </c>
       <c r="AM20" s="1"/>
       <c r="AN20" s="2"/>
-      <c r="AO20" t="s">
-        <v>69</v>
-      </c>
+      <c r="AO20"/>
     </row>
     <row r="21" spans="1:41">
       <c r="A21">
@@ -19970,48 +19832,22 @@
       <c r="M21" s="1"/>
       <c r="N21" s="1"/>
       <c r="O21" s="2"/>
-      <c r="P21" s="6">
-        <v>37104.85</v>
-      </c>
-      <c r="Q21" s="2">
-        <v>0.07</v>
-      </c>
-      <c r="R21" s="1">
-        <v>37104.85</v>
-      </c>
-      <c r="S21" s="1">
-        <v>0</v>
-      </c>
-      <c r="T21" s="1">
-        <v>0</v>
-      </c>
-      <c r="U21" s="1">
-        <v>168656</v>
-      </c>
-      <c r="V21" s="2">
-        <v>1</v>
-      </c>
-      <c r="W21" s="5">
-        <v>0</v>
-      </c>
+      <c r="P21" s="6"/>
+      <c r="Q21" s="2"/>
+      <c r="R21" s="1"/>
+      <c r="S21" s="1"/>
+      <c r="T21" s="1"/>
+      <c r="U21" s="1"/>
+      <c r="V21" s="2"/>
+      <c r="W21" s="5"/>
       <c r="X21" s="2"/>
       <c r="Y21" s="5"/>
       <c r="Z21" s="2"/>
-      <c r="AA21" s="1">
-        <v>1893.85</v>
-      </c>
-      <c r="AB21" s="1">
-        <v>160049.85</v>
-      </c>
-      <c r="AC21" s="5">
-        <v>35211.0</v>
-      </c>
-      <c r="AD21" s="2">
-        <v>0.22</v>
-      </c>
-      <c r="AE21" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="AA21" s="1"/>
+      <c r="AB21" s="1"/>
+      <c r="AC21" s="5"/>
+      <c r="AD21" s="2"/>
+      <c r="AE21" s="1"/>
       <c r="AF21" s="2"/>
       <c r="AG21" s="6">
         <v>0.0</v>
@@ -20031,9 +19867,7 @@
       </c>
       <c r="AM21" s="1"/>
       <c r="AN21" s="2"/>
-      <c r="AO21" t="s">
-        <v>70</v>
-      </c>
+      <c r="AO21"/>
     </row>
     <row r="22" spans="1:41">
       <c r="A22">
@@ -20057,48 +19891,22 @@
       <c r="M22" s="1"/>
       <c r="N22" s="1"/>
       <c r="O22" s="2"/>
-      <c r="P22" s="6">
-        <v>8734.06</v>
-      </c>
-      <c r="Q22" s="2">
-        <v>0.07</v>
-      </c>
-      <c r="R22" s="1">
-        <v>8734.06</v>
-      </c>
-      <c r="S22" s="1">
-        <v>0</v>
-      </c>
-      <c r="T22" s="1">
-        <v>0</v>
-      </c>
-      <c r="U22" s="1">
-        <v>39702</v>
-      </c>
-      <c r="V22" s="2">
-        <v>1</v>
-      </c>
-      <c r="W22" s="5">
-        <v>0</v>
-      </c>
+      <c r="P22" s="6"/>
+      <c r="Q22" s="2"/>
+      <c r="R22" s="1"/>
+      <c r="S22" s="1"/>
+      <c r="T22" s="1"/>
+      <c r="U22" s="1"/>
+      <c r="V22" s="2"/>
+      <c r="W22" s="5"/>
       <c r="X22" s="2"/>
       <c r="Y22" s="5"/>
       <c r="Z22" s="2"/>
-      <c r="AA22" s="1">
-        <v>445.06</v>
-      </c>
-      <c r="AB22" s="1">
-        <v>37676.06</v>
-      </c>
-      <c r="AC22" s="5">
-        <v>8289.0</v>
-      </c>
-      <c r="AD22" s="2">
-        <v>0.22</v>
-      </c>
-      <c r="AE22" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="AA22" s="1"/>
+      <c r="AB22" s="1"/>
+      <c r="AC22" s="5"/>
+      <c r="AD22" s="2"/>
+      <c r="AE22" s="1"/>
       <c r="AF22" s="2"/>
       <c r="AG22" s="6">
         <v>0.0</v>
@@ -20118,9 +19926,7 @@
       </c>
       <c r="AM22" s="1"/>
       <c r="AN22" s="2"/>
-      <c r="AO22" t="s">
-        <v>71</v>
-      </c>
+      <c r="AO22"/>
     </row>
     <row r="23" spans="1:41">
       <c r="A23">
@@ -20144,48 +19950,22 @@
       <c r="M23" s="1"/>
       <c r="N23" s="1"/>
       <c r="O23" s="2"/>
-      <c r="P23" s="6">
-        <v>2055.09</v>
-      </c>
-      <c r="Q23" s="2">
-        <v>0.07</v>
-      </c>
-      <c r="R23" s="1">
-        <v>2055.09</v>
-      </c>
-      <c r="S23" s="1">
-        <v>0</v>
-      </c>
-      <c r="T23" s="1">
-        <v>0</v>
-      </c>
-      <c r="U23" s="1">
-        <v>9345</v>
-      </c>
-      <c r="V23" s="2">
-        <v>1</v>
-      </c>
-      <c r="W23" s="5">
-        <v>0</v>
-      </c>
+      <c r="P23" s="6"/>
+      <c r="Q23" s="2"/>
+      <c r="R23" s="1"/>
+      <c r="S23" s="1"/>
+      <c r="T23" s="1"/>
+      <c r="U23" s="1"/>
+      <c r="V23" s="2"/>
+      <c r="W23" s="5"/>
       <c r="X23" s="2"/>
       <c r="Y23" s="5"/>
       <c r="Z23" s="2"/>
-      <c r="AA23" s="1">
-        <v>104.09</v>
-      </c>
-      <c r="AB23" s="1">
-        <v>8868.09</v>
-      </c>
-      <c r="AC23" s="5">
-        <v>1951.0</v>
-      </c>
-      <c r="AD23" s="2">
-        <v>0.22</v>
-      </c>
-      <c r="AE23" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="AA23" s="1"/>
+      <c r="AB23" s="1"/>
+      <c r="AC23" s="5"/>
+      <c r="AD23" s="2"/>
+      <c r="AE23" s="1"/>
       <c r="AF23" s="2"/>
       <c r="AG23" s="6">
         <v>0.0</v>
@@ -20205,9 +19985,7 @@
       </c>
       <c r="AM23" s="1"/>
       <c r="AN23" s="2"/>
-      <c r="AO23" t="s">
-        <v>72</v>
-      </c>
+      <c r="AO23"/>
     </row>
     <row r="24" spans="1:41">
       <c r="A24">
@@ -20231,48 +20009,22 @@
       <c r="M24" s="1"/>
       <c r="N24" s="1"/>
       <c r="O24" s="2"/>
-      <c r="P24" s="6">
-        <v>483.79</v>
-      </c>
-      <c r="Q24" s="2">
-        <v>0.07</v>
-      </c>
-      <c r="R24" s="1">
-        <v>483.79</v>
-      </c>
-      <c r="S24" s="1">
-        <v>0</v>
-      </c>
-      <c r="T24" s="1">
-        <v>0</v>
-      </c>
-      <c r="U24" s="1">
-        <v>2199</v>
-      </c>
-      <c r="V24" s="2">
-        <v>1</v>
-      </c>
-      <c r="W24" s="5">
-        <v>0</v>
-      </c>
+      <c r="P24" s="6"/>
+      <c r="Q24" s="2"/>
+      <c r="R24" s="1"/>
+      <c r="S24" s="1"/>
+      <c r="T24" s="1"/>
+      <c r="U24" s="1"/>
+      <c r="V24" s="2"/>
+      <c r="W24" s="5"/>
       <c r="X24" s="2"/>
       <c r="Y24" s="5"/>
       <c r="Z24" s="2"/>
-      <c r="AA24" s="1">
-        <v>24.79</v>
-      </c>
-      <c r="AB24" s="1">
-        <v>2086.79</v>
-      </c>
-      <c r="AC24" s="5">
-        <v>459.0</v>
-      </c>
-      <c r="AD24" s="2">
-        <v>0.22</v>
-      </c>
-      <c r="AE24" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="AA24" s="1"/>
+      <c r="AB24" s="1"/>
+      <c r="AC24" s="5"/>
+      <c r="AD24" s="2"/>
+      <c r="AE24" s="1"/>
       <c r="AF24" s="2"/>
       <c r="AG24" s="6">
         <v>0.0</v>
@@ -20292,9 +20044,7 @@
       </c>
       <c r="AM24" s="1"/>
       <c r="AN24" s="2"/>
-      <c r="AO24" t="s">
-        <v>73</v>
-      </c>
+      <c r="AO24"/>
     </row>
     <row r="25" spans="1:41">
       <c r="A25">
@@ -20318,48 +20068,22 @@
       <c r="M25" s="1"/>
       <c r="N25" s="1"/>
       <c r="O25" s="2"/>
-      <c r="P25" s="6">
-        <v>113.54</v>
-      </c>
-      <c r="Q25" s="2">
-        <v>0.07</v>
-      </c>
-      <c r="R25" s="1">
-        <v>113.54</v>
-      </c>
-      <c r="S25" s="1">
-        <v>0</v>
-      </c>
-      <c r="T25" s="1">
-        <v>0</v>
-      </c>
-      <c r="U25" s="1">
-        <v>518</v>
-      </c>
-      <c r="V25" s="2">
-        <v>1</v>
-      </c>
-      <c r="W25" s="5">
-        <v>0</v>
-      </c>
+      <c r="P25" s="6"/>
+      <c r="Q25" s="2"/>
+      <c r="R25" s="1"/>
+      <c r="S25" s="1"/>
+      <c r="T25" s="1"/>
+      <c r="U25" s="1"/>
+      <c r="V25" s="2"/>
+      <c r="W25" s="5"/>
       <c r="X25" s="2"/>
       <c r="Y25" s="5"/>
       <c r="Z25" s="2"/>
-      <c r="AA25" s="1">
-        <v>5.54</v>
-      </c>
-      <c r="AB25" s="1">
-        <v>491.54</v>
-      </c>
-      <c r="AC25" s="5">
-        <v>108.0</v>
-      </c>
-      <c r="AD25" s="2">
-        <v>0.22</v>
-      </c>
-      <c r="AE25" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="AA25" s="1"/>
+      <c r="AB25" s="1"/>
+      <c r="AC25" s="5"/>
+      <c r="AD25" s="2"/>
+      <c r="AE25" s="1"/>
       <c r="AF25" s="2"/>
       <c r="AG25" s="6">
         <v>0.0</v>
@@ -20379,9 +20103,7 @@
       </c>
       <c r="AM25" s="1"/>
       <c r="AN25" s="2"/>
-      <c r="AO25" t="s">
-        <v>74</v>
-      </c>
+      <c r="AO25"/>
     </row>
     <row r="26" spans="1:41">
       <c r="A26">
@@ -20405,48 +20127,22 @@
       <c r="M26" s="1"/>
       <c r="N26" s="1"/>
       <c r="O26" s="2"/>
-      <c r="P26" s="6">
-        <v>26.77</v>
-      </c>
-      <c r="Q26" s="2">
-        <v>0.07</v>
-      </c>
-      <c r="R26" s="1">
-        <v>26.77</v>
-      </c>
-      <c r="S26" s="1">
-        <v>0</v>
-      </c>
-      <c r="T26" s="1">
-        <v>0</v>
-      </c>
-      <c r="U26" s="1">
-        <v>122</v>
-      </c>
-      <c r="V26" s="2">
-        <v>1</v>
-      </c>
-      <c r="W26" s="5">
-        <v>0</v>
-      </c>
+      <c r="P26" s="6"/>
+      <c r="Q26" s="2"/>
+      <c r="R26" s="1"/>
+      <c r="S26" s="1"/>
+      <c r="T26" s="1"/>
+      <c r="U26" s="1"/>
+      <c r="V26" s="2"/>
+      <c r="W26" s="5"/>
       <c r="X26" s="2"/>
       <c r="Y26" s="5"/>
       <c r="Z26" s="2"/>
-      <c r="AA26" s="1">
-        <v>1.77</v>
-      </c>
-      <c r="AB26" s="1">
-        <v>115.77</v>
-      </c>
-      <c r="AC26" s="5">
-        <v>25.0</v>
-      </c>
-      <c r="AD26" s="2">
-        <v>0.22</v>
-      </c>
-      <c r="AE26" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="AA26" s="1"/>
+      <c r="AB26" s="1"/>
+      <c r="AC26" s="5"/>
+      <c r="AD26" s="2"/>
+      <c r="AE26" s="1"/>
       <c r="AF26" s="2"/>
       <c r="AG26" s="6">
         <v>0.0</v>
@@ -20466,9 +20162,7 @@
       </c>
       <c r="AM26" s="1"/>
       <c r="AN26" s="2"/>
-      <c r="AO26" t="s">
-        <v>75</v>
-      </c>
+      <c r="AO26"/>
     </row>
     <row r="27" spans="1:41">
       <c r="A27">
@@ -20492,48 +20186,22 @@
       <c r="M27" s="1"/>
       <c r="N27" s="1"/>
       <c r="O27" s="2"/>
-      <c r="P27" s="6">
-        <v>6.53</v>
-      </c>
-      <c r="Q27" s="2">
-        <v>0.07</v>
-      </c>
-      <c r="R27" s="1">
-        <v>6.53</v>
-      </c>
-      <c r="S27" s="1">
-        <v>0</v>
-      </c>
-      <c r="T27" s="1">
-        <v>0</v>
-      </c>
-      <c r="U27" s="1">
-        <v>29</v>
-      </c>
-      <c r="V27" s="2">
-        <v>1</v>
-      </c>
-      <c r="W27" s="5">
-        <v>0</v>
-      </c>
+      <c r="P27" s="6"/>
+      <c r="Q27" s="2"/>
+      <c r="R27" s="1"/>
+      <c r="S27" s="1"/>
+      <c r="T27" s="1"/>
+      <c r="U27" s="1"/>
+      <c r="V27" s="2"/>
+      <c r="W27" s="5"/>
       <c r="X27" s="2"/>
       <c r="Y27" s="5"/>
       <c r="Z27" s="2"/>
-      <c r="AA27" s="1">
-        <v>0.53</v>
-      </c>
-      <c r="AB27" s="1">
-        <v>27.53</v>
-      </c>
-      <c r="AC27" s="5">
-        <v>6.0</v>
-      </c>
-      <c r="AD27" s="2">
-        <v>0.22</v>
-      </c>
-      <c r="AE27" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="AA27" s="1"/>
+      <c r="AB27" s="1"/>
+      <c r="AC27" s="5"/>
+      <c r="AD27" s="2"/>
+      <c r="AE27" s="1"/>
       <c r="AF27" s="2"/>
       <c r="AG27" s="6">
         <v>0.0</v>
@@ -20553,9 +20221,7 @@
       </c>
       <c r="AM27" s="1"/>
       <c r="AN27" s="2"/>
-      <c r="AO27" t="s">
-        <v>76</v>
-      </c>
+      <c r="AO27"/>
     </row>
     <row r="28" spans="1:41">
       <c r="A28">
@@ -20579,48 +20245,22 @@
       <c r="M28" s="1"/>
       <c r="N28" s="1"/>
       <c r="O28" s="2"/>
-      <c r="P28" s="6">
-        <v>1.65</v>
-      </c>
-      <c r="Q28" s="2">
-        <v>0.07</v>
-      </c>
-      <c r="R28" s="1">
-        <v>1.65</v>
-      </c>
-      <c r="S28" s="1">
-        <v>0</v>
-      </c>
-      <c r="T28" s="1">
-        <v>0</v>
-      </c>
-      <c r="U28" s="1">
-        <v>7</v>
-      </c>
-      <c r="V28" s="2">
-        <v>1</v>
-      </c>
-      <c r="W28" s="5">
-        <v>0</v>
-      </c>
+      <c r="P28" s="6"/>
+      <c r="Q28" s="2"/>
+      <c r="R28" s="1"/>
+      <c r="S28" s="1"/>
+      <c r="T28" s="1"/>
+      <c r="U28" s="1"/>
+      <c r="V28" s="2"/>
+      <c r="W28" s="5"/>
       <c r="X28" s="2"/>
       <c r="Y28" s="5"/>
       <c r="Z28" s="2"/>
-      <c r="AA28" s="1">
-        <v>0.65</v>
-      </c>
-      <c r="AB28" s="1">
-        <v>6.65</v>
-      </c>
-      <c r="AC28" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="AD28" s="2">
-        <v>0.22</v>
-      </c>
-      <c r="AE28" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="AA28" s="1"/>
+      <c r="AB28" s="1"/>
+      <c r="AC28" s="5"/>
+      <c r="AD28" s="2"/>
+      <c r="AE28" s="1"/>
       <c r="AF28" s="2"/>
       <c r="AG28" s="6">
         <v>0.0</v>
@@ -20640,9 +20280,7 @@
       </c>
       <c r="AM28" s="1"/>
       <c r="AN28" s="2"/>
-      <c r="AO28" t="s">
-        <v>77</v>
-      </c>
+      <c r="AO28"/>
     </row>
     <row r="29" spans="1:41">
       <c r="A29">
@@ -23283,7 +22921,7 @@
   <sheetData>
     <row r="1" spans="1:41">
       <c r="A1" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:41">
@@ -23291,19 +22929,19 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="C2" t="s">
         <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>79</v>
+        <v>61</v>
       </c>
       <c r="E2" t="s">
         <v>3</v>
       </c>
       <c r="F2" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="G2" t="s">
         <v>4</v>
@@ -23315,7 +22953,7 @@
         <v>5</v>
       </c>
       <c r="J2" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:41">
@@ -24096,7 +23734,7 @@
         <v>1</v>
       </c>
       <c r="AO15" t="s">
-        <v>80</v>
+        <v>62</v>
       </c>
     </row>
     <row r="16" spans="1:41">
@@ -24183,7 +23821,7 @@
       <c r="AM16" s="1"/>
       <c r="AN16" s="2"/>
       <c r="AO16" t="s">
-        <v>81</v>
+        <v>63</v>
       </c>
     </row>
     <row r="17" spans="1:41">
@@ -24270,7 +23908,7 @@
       <c r="AM17" s="1"/>
       <c r="AN17" s="2"/>
       <c r="AO17" t="s">
-        <v>82</v>
+        <v>64</v>
       </c>
     </row>
     <row r="18" spans="1:41">
@@ -24357,7 +23995,7 @@
       <c r="AM18" s="1"/>
       <c r="AN18" s="2"/>
       <c r="AO18" t="s">
-        <v>83</v>
+        <v>65</v>
       </c>
     </row>
     <row r="19" spans="1:41">
@@ -24444,7 +24082,7 @@
       <c r="AM19" s="8"/>
       <c r="AN19" s="9"/>
       <c r="AO19" s="7" t="s">
-        <v>84</v>
+        <v>66</v>
       </c>
     </row>
     <row r="20" spans="1:41">
@@ -24470,13 +24108,13 @@
       <c r="N20" s="1"/>
       <c r="O20" s="2"/>
       <c r="P20" s="6">
-        <v>1030836.2996</v>
+        <v>1030836.0</v>
       </c>
       <c r="Q20" s="2">
         <v>0.1</v>
       </c>
       <c r="R20" s="1">
-        <v>1030836.2996</v>
+        <v>1030836.0</v>
       </c>
       <c r="S20" s="1">
         <v>894706.636</v>
@@ -24497,10 +24135,10 @@
       <c r="Y20" s="5"/>
       <c r="Z20" s="2"/>
       <c r="AA20" s="1">
-        <v>979325.2996</v>
+        <v>979325.0</v>
       </c>
       <c r="AB20" s="1">
-        <v>136129.6636</v>
+        <v>136129.364</v>
       </c>
       <c r="AC20" s="5">
         <v>51511.0</v>
@@ -24533,7 +24171,7 @@
         <v>1</v>
       </c>
       <c r="AO20" t="s">
-        <v>85</v>
+        <v>67</v>
       </c>
     </row>
     <row r="21" spans="1:41">
@@ -24559,19 +24197,19 @@
       <c r="N21" s="1"/>
       <c r="O21" s="2"/>
       <c r="P21" s="6">
-        <v>1147715.4253</v>
+        <v>1102995.0</v>
       </c>
       <c r="Q21" s="2">
         <v>0.07</v>
       </c>
       <c r="R21" s="1">
-        <v>1147715.4253</v>
+        <v>1102995.0</v>
       </c>
       <c r="S21" s="1">
-        <v>936501.426</v>
+        <v>894706.636</v>
       </c>
       <c r="T21" s="1">
-        <v>936501.426</v>
+        <v>894706.636</v>
       </c>
       <c r="U21" s="1">
         <v>882396.0</v>
@@ -24586,13 +24224,13 @@
       <c r="Y21" s="5"/>
       <c r="Z21" s="2"/>
       <c r="AA21" s="1">
-        <v>1067792.4253</v>
+        <v>1024179.0</v>
       </c>
       <c r="AB21" s="1">
-        <v>211213.9993</v>
+        <v>208288.364</v>
       </c>
       <c r="AC21" s="5">
-        <v>79923.0</v>
+        <v>78816.0</v>
       </c>
       <c r="AD21" s="2">
         <v>0.3784</v>
@@ -24615,14 +24253,12 @@
         <v>0</v>
       </c>
       <c r="AL21" s="1">
-        <v>41794.79</v>
+        <v>0.0</v>
       </c>
       <c r="AM21" s="1"/>
-      <c r="AN21" s="2">
-        <v>1</v>
-      </c>
+      <c r="AN21" s="2"/>
       <c r="AO21" t="s">
-        <v>86</v>
+        <v>68</v>
       </c>
     </row>
     <row r="22" spans="1:41">
@@ -24648,22 +24284,22 @@
       <c r="N22" s="1"/>
       <c r="O22" s="2"/>
       <c r="P22" s="6">
-        <v>1238582.64868</v>
+        <v>1180205.0</v>
       </c>
       <c r="Q22" s="2">
         <v>0.07</v>
       </c>
       <c r="R22" s="1">
-        <v>1238582.64868</v>
+        <v>1180205.0</v>
       </c>
       <c r="S22" s="1">
-        <v>946340.35</v>
+        <v>894706.636</v>
       </c>
       <c r="T22" s="1">
-        <v>946340.35</v>
+        <v>894706.636</v>
       </c>
       <c r="U22" s="1">
-        <v>982444.0</v>
+        <v>944164.0</v>
       </c>
       <c r="V22" s="2">
         <v>0.8</v>
@@ -24675,13 +24311,13 @@
       <c r="Y22" s="5"/>
       <c r="Z22" s="2"/>
       <c r="AA22" s="1">
-        <v>1127998.64868</v>
+        <v>1072172.0</v>
       </c>
       <c r="AB22" s="1">
-        <v>292242.29868</v>
+        <v>285498.364</v>
       </c>
       <c r="AC22" s="5">
-        <v>110584.0</v>
+        <v>108033.0</v>
       </c>
       <c r="AD22" s="2">
         <v>0.3784</v>
@@ -24704,14 +24340,12 @@
         <v>0</v>
       </c>
       <c r="AL22" s="1">
-        <v>9838.924</v>
+        <v>0.0</v>
       </c>
       <c r="AM22" s="1"/>
-      <c r="AN22" s="2">
-        <v>1</v>
-      </c>
+      <c r="AN22" s="2"/>
       <c r="AO22" t="s">
-        <v>87</v>
+        <v>69</v>
       </c>
     </row>
     <row r="23" spans="1:41">
@@ -24737,22 +24371,22 @@
       <c r="N23" s="1"/>
       <c r="O23" s="2"/>
       <c r="P23" s="6">
-        <v>1327762.85402</v>
+        <v>1262819.0</v>
       </c>
       <c r="Q23" s="2">
         <v>0.07</v>
       </c>
       <c r="R23" s="1">
-        <v>1327762.85402</v>
+        <v>1262819.0</v>
       </c>
       <c r="S23" s="1">
-        <v>948657.036</v>
+        <v>894706.636</v>
       </c>
       <c r="T23" s="1">
-        <v>948657.036</v>
+        <v>894706.636</v>
       </c>
       <c r="U23" s="1">
-        <v>1060227.2</v>
+        <v>1010255.2</v>
       </c>
       <c r="V23" s="2">
         <v>0.8</v>
@@ -24764,13 +24398,13 @@
       <c r="Y23" s="5"/>
       <c r="Z23" s="2"/>
       <c r="AA23" s="1">
-        <v>1184308.85402</v>
+        <v>1123525.0</v>
       </c>
       <c r="AB23" s="1">
-        <v>379105.81802</v>
+        <v>368112.364</v>
       </c>
       <c r="AC23" s="5">
-        <v>143454.0</v>
+        <v>139294.0</v>
       </c>
       <c r="AD23" s="2">
         <v>0.3784</v>
@@ -24793,14 +24427,12 @@
         <v>0</v>
       </c>
       <c r="AL23" s="1">
-        <v>2316.686</v>
+        <v>0.0</v>
       </c>
       <c r="AM23" s="1"/>
-      <c r="AN23" s="2">
-        <v>1</v>
-      </c>
+      <c r="AN23" s="2"/>
       <c r="AO23" t="s">
-        <v>88</v>
+        <v>70</v>
       </c>
     </row>
     <row r="24" spans="1:41">
@@ -24826,22 +24458,22 @@
       <c r="N24" s="1"/>
       <c r="O24" s="2"/>
       <c r="P24" s="6">
-        <v>1421289.22062</v>
+        <v>1351216.0</v>
       </c>
       <c r="Q24" s="2">
         <v>0.07</v>
       </c>
       <c r="R24" s="1">
-        <v>1421289.22062</v>
+        <v>1351216.0</v>
       </c>
       <c r="S24" s="1">
-        <v>949202.102</v>
+        <v>894706.636</v>
       </c>
       <c r="T24" s="1">
-        <v>949202.102</v>
+        <v>894706.636</v>
       </c>
       <c r="U24" s="1">
-        <v>1136564.8</v>
+        <v>1080972.8</v>
       </c>
       <c r="V24" s="2">
         <v>0.8</v>
@@ -24853,13 +24485,13 @@
       <c r="Y24" s="5"/>
       <c r="Z24" s="2"/>
       <c r="AA24" s="1">
-        <v>1242651.22062</v>
+        <v>1178473.0</v>
       </c>
       <c r="AB24" s="1">
-        <v>472087.11862</v>
+        <v>456509.364</v>
       </c>
       <c r="AC24" s="5">
-        <v>178638.0</v>
+        <v>172743.0</v>
       </c>
       <c r="AD24" s="2">
         <v>0.3784</v>
@@ -24882,14 +24514,12 @@
         <v>0</v>
       </c>
       <c r="AL24" s="1">
-        <v>545.06599999999</v>
+        <v>0.0</v>
       </c>
       <c r="AM24" s="1"/>
-      <c r="AN24" s="2">
-        <v>1</v>
-      </c>
+      <c r="AN24" s="2"/>
       <c r="AO24" t="s">
-        <v>89</v>
+        <v>71</v>
       </c>
     </row>
     <row r="25" spans="1:41">
@@ -24915,22 +24545,22 @@
       <c r="N25" s="1"/>
       <c r="O25" s="2"/>
       <c r="P25" s="6">
-        <v>1520917.15412</v>
+        <v>1445801.0</v>
       </c>
       <c r="Q25" s="2">
         <v>0.07</v>
       </c>
       <c r="R25" s="1">
-        <v>1520917.15412</v>
+        <v>1445801.0</v>
       </c>
       <c r="S25" s="1">
-        <v>949331.218</v>
+        <v>894706.636</v>
       </c>
       <c r="T25" s="1">
-        <v>949331.218</v>
+        <v>894706.636</v>
       </c>
       <c r="U25" s="1">
-        <v>1216623.2</v>
+        <v>1156640.8</v>
       </c>
       <c r="V25" s="2">
         <v>0.8</v>
@@ -24942,13 +24572,13 @@
       <c r="Y25" s="5"/>
       <c r="Z25" s="2"/>
       <c r="AA25" s="1">
-        <v>1304629.15412</v>
+        <v>1237267.0</v>
       </c>
       <c r="AB25" s="1">
-        <v>571585.93612</v>
+        <v>551094.364</v>
       </c>
       <c r="AC25" s="5">
-        <v>216288.0</v>
+        <v>208534.0</v>
       </c>
       <c r="AD25" s="2">
         <v>0.3784</v>
@@ -24971,14 +24601,12 @@
         <v>0</v>
       </c>
       <c r="AL25" s="1">
-        <v>129.11600000004</v>
+        <v>0.0</v>
       </c>
       <c r="AM25" s="1"/>
-      <c r="AN25" s="2">
-        <v>1</v>
-      </c>
+      <c r="AN25" s="2"/>
       <c r="AO25" t="s">
-        <v>90</v>
+        <v>72</v>
       </c>
     </row>
     <row r="26" spans="1:41">
@@ -25004,22 +24632,22 @@
       <c r="N26" s="1"/>
       <c r="O26" s="2"/>
       <c r="P26" s="6">
-        <v>1627413.48306</v>
+        <v>1547007.0</v>
       </c>
       <c r="Q26" s="2">
         <v>0.07</v>
       </c>
       <c r="R26" s="1">
-        <v>1627413.48306</v>
+        <v>1547007.0</v>
       </c>
       <c r="S26" s="1">
-        <v>949361.576</v>
+        <v>894706.636</v>
       </c>
       <c r="T26" s="1">
-        <v>949361.576</v>
+        <v>894706.636</v>
       </c>
       <c r="U26" s="1">
-        <v>1301904.8</v>
+        <v>1237605.6</v>
       </c>
       <c r="V26" s="2">
         <v>0.8</v>
@@ -25031,13 +24659,13 @@
       <c r="Y26" s="5"/>
       <c r="Z26" s="2"/>
       <c r="AA26" s="1">
-        <v>1370838.48306</v>
+        <v>1300177.0</v>
       </c>
       <c r="AB26" s="1">
-        <v>678051.90706</v>
+        <v>652300.364</v>
       </c>
       <c r="AC26" s="5">
-        <v>256575.0</v>
+        <v>246830.0</v>
       </c>
       <c r="AD26" s="2">
         <v>0.3784</v>
@@ -25060,14 +24688,12 @@
         <v>0</v>
       </c>
       <c r="AL26" s="1">
-        <v>30.358000000007</v>
+        <v>0.0</v>
       </c>
       <c r="AM26" s="1"/>
-      <c r="AN26" s="2">
-        <v>1</v>
-      </c>
+      <c r="AN26" s="2"/>
       <c r="AO26" t="s">
-        <v>91</v>
+        <v>73</v>
       </c>
     </row>
     <row r="27" spans="1:41">
@@ -25093,22 +24719,22 @@
       <c r="N27" s="1"/>
       <c r="O27" s="2"/>
       <c r="P27" s="6">
-        <v>1741339.55634</v>
+        <v>1655297.0</v>
       </c>
       <c r="Q27" s="2">
         <v>0.07</v>
       </c>
       <c r="R27" s="1">
-        <v>1741339.55634</v>
+        <v>1655297.0</v>
       </c>
       <c r="S27" s="1">
-        <v>949368.638</v>
+        <v>894706.636</v>
       </c>
       <c r="T27" s="1">
-        <v>949368.638</v>
+        <v>894706.636</v>
       </c>
       <c r="U27" s="1">
-        <v>1393065.6</v>
+        <v>1324237.6</v>
       </c>
       <c r="V27" s="2">
         <v>0.8</v>
@@ -25120,13 +24746,13 @@
       <c r="Y27" s="5"/>
       <c r="Z27" s="2"/>
       <c r="AA27" s="1">
-        <v>1441657.55634</v>
+        <v>1367490.0</v>
       </c>
       <c r="AB27" s="1">
-        <v>791970.91834</v>
+        <v>760590.364</v>
       </c>
       <c r="AC27" s="5">
-        <v>299682.0</v>
+        <v>287807.0</v>
       </c>
       <c r="AD27" s="2">
         <v>0.3784</v>
@@ -25149,14 +24775,12 @@
         <v>0</v>
       </c>
       <c r="AL27" s="1">
-        <v>7.0620000000345</v>
+        <v>0.0</v>
       </c>
       <c r="AM27" s="1"/>
-      <c r="AN27" s="2">
-        <v>1</v>
-      </c>
+      <c r="AN27" s="2"/>
       <c r="AO27" t="s">
-        <v>92</v>
+        <v>74</v>
       </c>
     </row>
     <row r="28" spans="1:41">
@@ -25182,22 +24806,22 @@
       <c r="N28" s="1"/>
       <c r="O28" s="2"/>
       <c r="P28" s="6">
-        <v>1863235.1877</v>
+        <v>1771168.0</v>
       </c>
       <c r="Q28" s="2">
         <v>0.07</v>
       </c>
       <c r="R28" s="1">
-        <v>1863235.1877</v>
+        <v>1771168.0</v>
       </c>
       <c r="S28" s="1">
-        <v>949369.748</v>
+        <v>894706.636</v>
       </c>
       <c r="T28" s="1">
-        <v>949369.748</v>
+        <v>894706.636</v>
       </c>
       <c r="U28" s="1">
-        <v>1490587.2</v>
+        <v>1416934.4</v>
       </c>
       <c r="V28" s="2">
         <v>0.8</v>
@@ -25209,13 +24833,13 @@
       <c r="Y28" s="5"/>
       <c r="Z28" s="2"/>
       <c r="AA28" s="1">
-        <v>1517428.1877</v>
+        <v>1439515.0</v>
       </c>
       <c r="AB28" s="1">
-        <v>913865.4397</v>
+        <v>876461.364</v>
       </c>
       <c r="AC28" s="5">
-        <v>345807.0</v>
+        <v>331653.0</v>
       </c>
       <c r="AD28" s="2">
         <v>0.3784</v>
@@ -25238,14 +24862,12 @@
         <v>0</v>
       </c>
       <c r="AL28" s="1">
-        <v>1.109999999986</v>
+        <v>0.0</v>
       </c>
       <c r="AM28" s="1"/>
-      <c r="AN28" s="2">
-        <v>1</v>
-      </c>
+      <c r="AN28" s="2"/>
       <c r="AO28" t="s">
-        <v>93</v>
+        <v>75</v>
       </c>
     </row>
     <row r="29" spans="1:41">
@@ -25271,22 +24893,22 @@
       <c r="N29" s="1"/>
       <c r="O29" s="2"/>
       <c r="P29" s="6">
-        <v>1993662.33108</v>
+        <v>1895150.0</v>
       </c>
       <c r="Q29" s="2">
         <v>0.07</v>
       </c>
       <c r="R29" s="1">
-        <v>1993662.33108</v>
+        <v>1895150.0</v>
       </c>
       <c r="S29" s="1">
-        <v>949370.992</v>
+        <v>894706.636</v>
       </c>
       <c r="T29" s="1">
-        <v>949370.992</v>
+        <v>894706.636</v>
       </c>
       <c r="U29" s="1">
-        <v>1594928.8</v>
+        <v>1516120.0</v>
       </c>
       <c r="V29" s="2">
         <v>0.8</v>
@@ -25298,13 +24920,13 @@
       <c r="Y29" s="5"/>
       <c r="Z29" s="2"/>
       <c r="AA29" s="1">
-        <v>1598502.33108</v>
+        <v>1516582.0</v>
       </c>
       <c r="AB29" s="1">
-        <v>1044291.33908</v>
+        <v>1000443.364</v>
       </c>
       <c r="AC29" s="5">
-        <v>395160.0</v>
+        <v>378568.0</v>
       </c>
       <c r="AD29" s="2">
         <v>0.3784</v>
@@ -25327,14 +24949,12 @@
         <v>0</v>
       </c>
       <c r="AL29" s="1">
-        <v>1.2439999999478</v>
+        <v>0.0</v>
       </c>
       <c r="AM29" s="1"/>
-      <c r="AN29" s="2">
-        <v>1</v>
-      </c>
+      <c r="AN29" s="2"/>
       <c r="AO29" t="s">
-        <v>94</v>
+        <v>76</v>
       </c>
     </row>
     <row r="30" spans="1:41">
@@ -25360,42 +24980,40 @@
       <c r="N30" s="1"/>
       <c r="O30" s="2"/>
       <c r="P30" s="6">
-        <v>2133218.0</v>
+        <v>2027811.0</v>
       </c>
       <c r="Q30" s="2">
         <v>0.07</v>
       </c>
       <c r="R30" s="1">
-        <v>2133218.0</v>
+        <v>2027811.0</v>
       </c>
       <c r="S30" s="1">
-        <v>949370.992</v>
+        <v>894706.636</v>
       </c>
       <c r="T30" s="1">
-        <v>949370.992</v>
+        <v>894706.636</v>
       </c>
       <c r="U30" s="1">
-        <v>1706574.4</v>
+        <v>1622248.8</v>
       </c>
       <c r="V30" s="2">
         <v>0.8</v>
       </c>
       <c r="W30" s="5">
-        <v>65.744000000001</v>
-      </c>
-      <c r="X30" s="2">
-        <v>0.01</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="X30" s="2"/>
       <c r="Y30" s="5"/>
       <c r="Z30" s="2"/>
       <c r="AA30" s="1">
-        <v>1685250.0</v>
+        <v>1599044.0</v>
       </c>
       <c r="AB30" s="1">
-        <v>1183847.008</v>
+        <v>1133104.364</v>
       </c>
       <c r="AC30" s="5">
-        <v>447968.0</v>
+        <v>428767.0</v>
       </c>
       <c r="AD30" s="2">
         <v>0.3784</v>
@@ -25405,10 +25023,10 @@
       </c>
       <c r="AF30" s="2"/>
       <c r="AG30" s="6">
-        <v>-65.744000000001</v>
+        <v>0.0</v>
       </c>
       <c r="AH30" s="1">
-        <v>-65.744000000001</v>
+        <v>0.0</v>
       </c>
       <c r="AI30" s="2"/>
       <c r="AJ30" s="1">
@@ -25423,7 +25041,7 @@
       <c r="AM30" s="1"/>
       <c r="AN30" s="2"/>
       <c r="AO30" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
     </row>
     <row r="31" spans="1:41">
@@ -25449,28 +25067,28 @@
       <c r="N31" s="1"/>
       <c r="O31" s="2"/>
       <c r="P31" s="6">
-        <v>2282543.0</v>
+        <v>2169758.0</v>
       </c>
       <c r="Q31" s="2">
         <v>0.07</v>
       </c>
       <c r="R31" s="1">
-        <v>2282543.0</v>
+        <v>2169758.0</v>
       </c>
       <c r="S31" s="1">
-        <v>949370.992</v>
+        <v>894706.636</v>
       </c>
       <c r="T31" s="1">
-        <v>949370.992</v>
+        <v>894706.636</v>
       </c>
       <c r="U31" s="1">
-        <v>1826034.4</v>
+        <v>1735806.4</v>
       </c>
       <c r="V31" s="2">
         <v>0.8</v>
       </c>
       <c r="W31" s="5">
-        <v>1260.344</v>
+        <v>358.064</v>
       </c>
       <c r="X31" s="2">
         <v>0.01</v>
@@ -25478,13 +25096,13 @@
       <c r="Y31" s="5"/>
       <c r="Z31" s="2"/>
       <c r="AA31" s="1">
-        <v>1778071.0</v>
+        <v>1687279.0</v>
       </c>
       <c r="AB31" s="1">
-        <v>1333172.008</v>
+        <v>1275051.364</v>
       </c>
       <c r="AC31" s="5">
-        <v>504472.0</v>
+        <v>482479.0</v>
       </c>
       <c r="AD31" s="2">
         <v>0.3784</v>
@@ -25494,10 +25112,10 @@
       </c>
       <c r="AF31" s="2"/>
       <c r="AG31" s="6">
-        <v>-1260.344</v>
+        <v>-358.064</v>
       </c>
       <c r="AH31" s="1">
-        <v>-1326.088</v>
+        <v>-358.064</v>
       </c>
       <c r="AI31" s="2"/>
       <c r="AJ31" s="1">
@@ -25512,7 +25130,7 @@
       <c r="AM31" s="1"/>
       <c r="AN31" s="2"/>
       <c r="AO31" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
     </row>
     <row r="32" spans="1:41">
@@ -25538,28 +25156,28 @@
       <c r="N32" s="1"/>
       <c r="O32" s="2"/>
       <c r="P32" s="6">
-        <v>2442321.0</v>
+        <v>2321641.0</v>
       </c>
       <c r="Q32" s="2">
         <v>0.07</v>
       </c>
       <c r="R32" s="1">
-        <v>2442321.0</v>
+        <v>2321641.0</v>
       </c>
       <c r="S32" s="1">
-        <v>949370.992</v>
+        <v>894706.636</v>
       </c>
       <c r="T32" s="1">
-        <v>949370.992</v>
+        <v>894706.636</v>
       </c>
       <c r="U32" s="1">
-        <v>1953856.8</v>
+        <v>1857312.8</v>
       </c>
       <c r="V32" s="2">
         <v>0.8</v>
       </c>
       <c r="W32" s="5">
-        <v>2538.568</v>
+        <v>1573.128</v>
       </c>
       <c r="X32" s="2">
         <v>0.01</v>
@@ -25567,13 +25185,13 @@
       <c r="Y32" s="5"/>
       <c r="Z32" s="2"/>
       <c r="AA32" s="1">
-        <v>1877389.0</v>
+        <v>1781689.0</v>
       </c>
       <c r="AB32" s="1">
-        <v>1492950.008</v>
+        <v>1426934.364</v>
       </c>
       <c r="AC32" s="5">
-        <v>564932.0</v>
+        <v>539952.0</v>
       </c>
       <c r="AD32" s="2">
         <v>0.3784</v>
@@ -25583,10 +25201,10 @@
       </c>
       <c r="AF32" s="2"/>
       <c r="AG32" s="6">
-        <v>-2538.568</v>
+        <v>-1573.128</v>
       </c>
       <c r="AH32" s="1">
-        <v>-3864.656</v>
+        <v>-1931.192</v>
       </c>
       <c r="AI32" s="2"/>
       <c r="AJ32" s="1">
@@ -25601,7 +25219,7 @@
       <c r="AM32" s="1"/>
       <c r="AN32" s="2"/>
       <c r="AO32" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
     </row>
     <row r="33" spans="1:41">
@@ -25627,28 +25245,28 @@
       <c r="N33" s="1"/>
       <c r="O33" s="2"/>
       <c r="P33" s="6">
-        <v>2613283.0</v>
+        <v>2484156.0</v>
       </c>
       <c r="Q33" s="2">
         <v>0.07</v>
       </c>
       <c r="R33" s="1">
-        <v>2613283.0</v>
+        <v>2484156.0</v>
       </c>
       <c r="S33" s="1">
-        <v>949370.992</v>
+        <v>894706.636</v>
       </c>
       <c r="T33" s="1">
-        <v>949370.992</v>
+        <v>894706.636</v>
       </c>
       <c r="U33" s="1">
-        <v>2090626.4</v>
+        <v>1987324.8</v>
       </c>
       <c r="V33" s="2">
         <v>0.8</v>
       </c>
       <c r="W33" s="5">
-        <v>3906.264</v>
+        <v>2873.248</v>
       </c>
       <c r="X33" s="2">
         <v>0.01</v>
@@ -25656,13 +25274,13 @@
       <c r="Y33" s="5"/>
       <c r="Z33" s="2"/>
       <c r="AA33" s="1">
-        <v>1983659.0</v>
+        <v>1882708.0</v>
       </c>
       <c r="AB33" s="1">
-        <v>1663912.008</v>
+        <v>1589449.364</v>
       </c>
       <c r="AC33" s="5">
-        <v>629624.0</v>
+        <v>601448.0</v>
       </c>
       <c r="AD33" s="2">
         <v>0.3784</v>
@@ -25672,10 +25290,10 @@
       </c>
       <c r="AF33" s="2"/>
       <c r="AG33" s="6">
-        <v>-3906.264</v>
+        <v>-2873.248</v>
       </c>
       <c r="AH33" s="1">
-        <v>-7770.92</v>
+        <v>-4804.44</v>
       </c>
       <c r="AI33" s="2"/>
       <c r="AJ33" s="1">
@@ -25690,7 +25308,7 @@
       <c r="AM33" s="1"/>
       <c r="AN33" s="2"/>
       <c r="AO33" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
     </row>
     <row r="34" spans="1:41">
@@ -25716,28 +25334,28 @@
       <c r="N34" s="1"/>
       <c r="O34" s="2"/>
       <c r="P34" s="6">
-        <v>2796213.0</v>
+        <v>2658047.0</v>
       </c>
       <c r="Q34" s="2">
         <v>0.07</v>
       </c>
       <c r="R34" s="1">
-        <v>2796213.0</v>
+        <v>2658047.0</v>
       </c>
       <c r="S34" s="1">
-        <v>949370.992</v>
+        <v>894706.636</v>
       </c>
       <c r="T34" s="1">
-        <v>949370.992</v>
+        <v>894706.636</v>
       </c>
       <c r="U34" s="1">
-        <v>2236970.4</v>
+        <v>2126437.6</v>
       </c>
       <c r="V34" s="2">
         <v>0.8</v>
       </c>
       <c r="W34" s="5">
-        <v>5369.704</v>
+        <v>4264.376</v>
       </c>
       <c r="X34" s="2">
         <v>0.01</v>
@@ -25745,13 +25363,13 @@
       <c r="Y34" s="5"/>
       <c r="Z34" s="2"/>
       <c r="AA34" s="1">
-        <v>2097368.0</v>
+        <v>1990799.0</v>
       </c>
       <c r="AB34" s="1">
-        <v>1846842.008</v>
+        <v>1763340.364</v>
       </c>
       <c r="AC34" s="5">
-        <v>698845.0</v>
+        <v>667248.0</v>
       </c>
       <c r="AD34" s="2">
         <v>0.3784</v>
@@ -25761,10 +25379,10 @@
       </c>
       <c r="AF34" s="2"/>
       <c r="AG34" s="6">
-        <v>-5369.704</v>
+        <v>-4264.376</v>
       </c>
       <c r="AH34" s="1">
-        <v>-13140.624</v>
+        <v>-9068.816</v>
       </c>
       <c r="AI34" s="2"/>
       <c r="AJ34" s="1">
@@ -25779,7 +25397,7 @@
       <c r="AM34" s="1"/>
       <c r="AN34" s="2"/>
       <c r="AO34" t="s">
-        <v>99</v>
+        <v>81</v>
       </c>
     </row>
     <row r="35" spans="1:41">
@@ -25805,28 +25423,28 @@
       <c r="N35" s="1"/>
       <c r="O35" s="2"/>
       <c r="P35" s="6">
-        <v>2991948.0</v>
+        <v>2844110.0</v>
       </c>
       <c r="Q35" s="2">
         <v>0.07</v>
       </c>
       <c r="R35" s="1">
-        <v>2991948.0</v>
+        <v>2844110.0</v>
       </c>
       <c r="S35" s="1">
-        <v>949370.992</v>
+        <v>894706.636</v>
       </c>
       <c r="T35" s="1">
-        <v>949370.992</v>
+        <v>894706.636</v>
       </c>
       <c r="U35" s="1">
-        <v>2393558.4</v>
+        <v>2275288.0</v>
       </c>
       <c r="V35" s="2">
         <v>0.8</v>
       </c>
       <c r="W35" s="5">
-        <v>6935.584</v>
+        <v>5752.88</v>
       </c>
       <c r="X35" s="2">
         <v>0.01</v>
@@ -25834,13 +25452,13 @@
       <c r="Y35" s="5"/>
       <c r="Z35" s="2"/>
       <c r="AA35" s="1">
-        <v>2219037.0</v>
+        <v>2106456.0</v>
       </c>
       <c r="AB35" s="1">
-        <v>2042577.008</v>
+        <v>1949403.364</v>
       </c>
       <c r="AC35" s="5">
-        <v>772911.0</v>
+        <v>737654.0</v>
       </c>
       <c r="AD35" s="2">
         <v>0.3784</v>
@@ -25850,10 +25468,10 @@
       </c>
       <c r="AF35" s="2"/>
       <c r="AG35" s="6">
-        <v>-6935.584</v>
+        <v>-5752.88</v>
       </c>
       <c r="AH35" s="1">
-        <v>-20076.208</v>
+        <v>-14821.696</v>
       </c>
       <c r="AI35" s="2"/>
       <c r="AJ35" s="1">
@@ -25868,7 +25486,7 @@
       <c r="AM35" s="1"/>
       <c r="AN35" s="2"/>
       <c r="AO35" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
     </row>
     <row r="36" spans="1:41">
@@ -25894,28 +25512,28 @@
       <c r="N36" s="1"/>
       <c r="O36" s="2"/>
       <c r="P36" s="6">
-        <v>3201384.0</v>
+        <v>3043198.0</v>
       </c>
       <c r="Q36" s="2">
         <v>0.07</v>
       </c>
       <c r="R36" s="1">
-        <v>3201384.0</v>
+        <v>3043198.0</v>
       </c>
       <c r="S36" s="1">
-        <v>949370.992</v>
+        <v>894706.636</v>
       </c>
       <c r="T36" s="1">
-        <v>949370.992</v>
+        <v>894706.636</v>
       </c>
       <c r="U36" s="1">
-        <v>2561107.2</v>
+        <v>2434558.4</v>
       </c>
       <c r="V36" s="2">
         <v>0.8</v>
       </c>
       <c r="W36" s="5">
-        <v>8611.072</v>
+        <v>7345.584</v>
       </c>
       <c r="X36" s="2">
         <v>0.01</v>
@@ -25923,13 +25541,13 @@
       <c r="Y36" s="5"/>
       <c r="Z36" s="2"/>
       <c r="AA36" s="1">
-        <v>2349222.0</v>
+        <v>2230209.0</v>
       </c>
       <c r="AB36" s="1">
-        <v>2252013.008</v>
+        <v>2148491.364</v>
       </c>
       <c r="AC36" s="5">
-        <v>852162.0</v>
+        <v>812989.0</v>
       </c>
       <c r="AD36" s="2">
         <v>0.3784</v>
@@ -25939,10 +25557,10 @@
       </c>
       <c r="AF36" s="2"/>
       <c r="AG36" s="6">
-        <v>-8611.072</v>
+        <v>-7345.584</v>
       </c>
       <c r="AH36" s="1">
-        <v>-28687.28</v>
+        <v>-22167.28</v>
       </c>
       <c r="AI36" s="2"/>
       <c r="AJ36" s="1">
@@ -25957,7 +25575,7 @@
       <c r="AM36" s="1"/>
       <c r="AN36" s="2"/>
       <c r="AO36" t="s">
-        <v>101</v>
+        <v>83</v>
       </c>
     </row>
     <row r="37" spans="1:41">
@@ -25983,28 +25601,28 @@
       <c r="N37" s="1"/>
       <c r="O37" s="2"/>
       <c r="P37" s="6">
-        <v>3425481.0</v>
+        <v>3256222.0</v>
       </c>
       <c r="Q37" s="2">
         <v>0.07</v>
       </c>
       <c r="R37" s="1">
-        <v>3425481.0</v>
+        <v>3256222.0</v>
       </c>
       <c r="S37" s="1">
-        <v>949370.992</v>
+        <v>894706.636</v>
       </c>
       <c r="T37" s="1">
-        <v>949370.992</v>
+        <v>894706.636</v>
       </c>
       <c r="U37" s="1">
-        <v>2740384.8</v>
+        <v>2604977.6</v>
       </c>
       <c r="V37" s="2">
         <v>0.8</v>
       </c>
       <c r="W37" s="5">
-        <v>10403.848</v>
+        <v>9049.776</v>
       </c>
       <c r="X37" s="2">
         <v>0.01</v>
@@ -26012,13 +25630,13 @@
       <c r="Y37" s="5"/>
       <c r="Z37" s="2"/>
       <c r="AA37" s="1">
-        <v>2488521.0</v>
+        <v>2362625.0</v>
       </c>
       <c r="AB37" s="1">
-        <v>2476110.008</v>
+        <v>2361515.364</v>
       </c>
       <c r="AC37" s="5">
-        <v>936960.0</v>
+        <v>893597.0</v>
       </c>
       <c r="AD37" s="2">
         <v>0.3784</v>
@@ -26028,10 +25646,10 @@
       </c>
       <c r="AF37" s="2"/>
       <c r="AG37" s="6">
-        <v>-10403.848</v>
+        <v>-9049.776</v>
       </c>
       <c r="AH37" s="1">
-        <v>-39091.128</v>
+        <v>-31217.056</v>
       </c>
       <c r="AI37" s="2"/>
       <c r="AJ37" s="1">
@@ -26046,7 +25664,7 @@
       <c r="AM37" s="1"/>
       <c r="AN37" s="2"/>
       <c r="AO37" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
     </row>
     <row r="38" spans="1:41">
@@ -26072,28 +25690,28 @@
       <c r="N38" s="1"/>
       <c r="O38" s="2"/>
       <c r="P38" s="6">
-        <v>3665265.0</v>
+        <v>3484158.0</v>
       </c>
       <c r="Q38" s="2">
         <v>0.07</v>
       </c>
       <c r="R38" s="1">
-        <v>3665265.0</v>
+        <v>3484158.0</v>
       </c>
       <c r="S38" s="1">
-        <v>949370.992</v>
+        <v>894706.636</v>
       </c>
       <c r="T38" s="1">
-        <v>949370.992</v>
+        <v>894706.636</v>
       </c>
       <c r="U38" s="1">
-        <v>2932212.0</v>
+        <v>2787326.4</v>
       </c>
       <c r="V38" s="2">
         <v>0.8</v>
       </c>
       <c r="W38" s="5">
-        <v>12322.12</v>
+        <v>10873.264</v>
       </c>
       <c r="X38" s="2">
         <v>0.01</v>
@@ -26101,13 +25719,13 @@
       <c r="Y38" s="5"/>
       <c r="Z38" s="2"/>
       <c r="AA38" s="1">
-        <v>2637571.0</v>
+        <v>2504310.0</v>
       </c>
       <c r="AB38" s="1">
-        <v>2715894.008</v>
+        <v>2589451.364</v>
       </c>
       <c r="AC38" s="5">
-        <v>1027694.0</v>
+        <v>979848.0</v>
       </c>
       <c r="AD38" s="2">
         <v>0.3784</v>
@@ -26117,10 +25735,10 @@
       </c>
       <c r="AF38" s="2"/>
       <c r="AG38" s="6">
-        <v>-12322.12</v>
+        <v>-10873.264</v>
       </c>
       <c r="AH38" s="1">
-        <v>-51413.248</v>
+        <v>-42090.32</v>
       </c>
       <c r="AI38" s="2"/>
       <c r="AJ38" s="1">
@@ -26135,7 +25753,7 @@
       <c r="AM38" s="1"/>
       <c r="AN38" s="2"/>
       <c r="AO38" t="s">
-        <v>103</v>
+        <v>85</v>
       </c>
     </row>
     <row r="39" spans="1:41">
@@ -26161,28 +25779,28 @@
       <c r="N39" s="1"/>
       <c r="O39" s="2"/>
       <c r="P39" s="6">
-        <v>3921834.0</v>
+        <v>3728049.0</v>
       </c>
       <c r="Q39" s="2">
         <v>0.07</v>
       </c>
       <c r="R39" s="1">
-        <v>3921834.0</v>
+        <v>3728049.0</v>
       </c>
       <c r="S39" s="1">
-        <v>949370.992</v>
+        <v>894706.636</v>
       </c>
       <c r="T39" s="1">
-        <v>949370.992</v>
+        <v>894706.636</v>
       </c>
       <c r="U39" s="1">
-        <v>3137467.2</v>
+        <v>2982439.2</v>
       </c>
       <c r="V39" s="2">
         <v>0.8</v>
       </c>
       <c r="W39" s="5">
-        <v>14374.672</v>
+        <v>12824.392</v>
       </c>
       <c r="X39" s="2">
         <v>0.01</v>
@@ -26190,13 +25808,13 @@
       <c r="Y39" s="5"/>
       <c r="Z39" s="2"/>
       <c r="AA39" s="1">
-        <v>2797054.0</v>
+        <v>2655912.0</v>
       </c>
       <c r="AB39" s="1">
-        <v>2972463.008</v>
+        <v>2833342.364</v>
       </c>
       <c r="AC39" s="5">
-        <v>1124780.0</v>
+        <v>1072137.0</v>
       </c>
       <c r="AD39" s="2">
         <v>0.3784</v>
@@ -26206,10 +25824,10 @@
       </c>
       <c r="AF39" s="2"/>
       <c r="AG39" s="6">
-        <v>-14374.672</v>
+        <v>-12824.392</v>
       </c>
       <c r="AH39" s="1">
-        <v>-65787.92</v>
+        <v>-54914.712</v>
       </c>
       <c r="AI39" s="2"/>
       <c r="AJ39" s="1">
@@ -26224,7 +25842,7 @@
       <c r="AM39" s="1"/>
       <c r="AN39" s="2"/>
       <c r="AO39" t="s">
-        <v>104</v>
+        <v>86</v>
       </c>
     </row>
     <row r="40" spans="1:41">
@@ -26250,28 +25868,28 @@
       <c r="N40" s="11"/>
       <c r="O40" s="12"/>
       <c r="P40" s="11">
-        <v>4196362.0</v>
+        <v>3989012.0</v>
       </c>
       <c r="Q40" s="12">
         <v>0.07</v>
       </c>
       <c r="R40" s="11">
-        <v>4196362.0</v>
+        <v>3989012.0</v>
       </c>
       <c r="S40" s="11">
-        <v>949370.992</v>
+        <v>894706.636</v>
       </c>
       <c r="T40" s="11">
-        <v>949370.992</v>
+        <v>894706.636</v>
       </c>
       <c r="U40" s="11">
-        <v>3357089.6</v>
+        <v>3191209.6</v>
       </c>
       <c r="V40" s="12">
         <v>0.8</v>
       </c>
       <c r="W40" s="11">
-        <v>16570.896</v>
+        <v>14912.096</v>
       </c>
       <c r="X40" s="12">
         <v>0.01</v>
@@ -26279,13 +25897,13 @@
       <c r="Y40" s="11"/>
       <c r="Z40" s="12"/>
       <c r="AA40" s="11">
-        <v>2967701.0</v>
+        <v>2818127.0</v>
       </c>
       <c r="AB40" s="11">
-        <v>3246991.008</v>
+        <v>3094305.364</v>
       </c>
       <c r="AC40" s="11">
-        <v>1228661.0</v>
+        <v>1170885.0</v>
       </c>
       <c r="AD40" s="12">
         <v>0.3784</v>
@@ -26295,10 +25913,10 @@
       </c>
       <c r="AF40" s="12"/>
       <c r="AG40" s="11">
-        <v>-16570.896</v>
+        <v>-14912.096</v>
       </c>
       <c r="AH40" s="11">
-        <v>-82358.816</v>
+        <v>-69826.808</v>
       </c>
       <c r="AI40" s="12"/>
       <c r="AJ40" s="11">
@@ -26313,7 +25931,7 @@
       <c r="AM40" s="11"/>
       <c r="AN40" s="12"/>
       <c r="AO40" s="10" t="s">
-        <v>105</v>
+        <v>87</v>
       </c>
     </row>
     <row r="41" spans="1:41">
@@ -26339,28 +25957,28 @@
       <c r="N41" s="1"/>
       <c r="O41" s="2"/>
       <c r="P41" s="6">
-        <v>4490107.0</v>
+        <v>4268243.0</v>
       </c>
       <c r="Q41" s="2">
         <v>0.07</v>
       </c>
       <c r="R41" s="1">
-        <v>4490107.0</v>
+        <v>4268243.0</v>
       </c>
       <c r="S41" s="1">
-        <v>949370.992</v>
+        <v>894706.636</v>
       </c>
       <c r="T41" s="1">
-        <v>949370.992</v>
+        <v>894706.636</v>
       </c>
       <c r="U41" s="1">
-        <v>3592085.6</v>
+        <v>3414594.4</v>
       </c>
       <c r="V41" s="2">
         <v>0.8</v>
       </c>
       <c r="W41" s="5">
-        <v>18920.856</v>
+        <v>17145.944</v>
       </c>
       <c r="X41" s="2">
         <v>0.01</v>
@@ -26368,13 +25986,13 @@
       <c r="Y41" s="5"/>
       <c r="Z41" s="2"/>
       <c r="AA41" s="1">
-        <v>3150292.0</v>
+        <v>2991697.0</v>
       </c>
       <c r="AB41" s="1">
-        <v>3540736.008</v>
+        <v>3373536.364</v>
       </c>
       <c r="AC41" s="5">
-        <v>1339815.0</v>
+        <v>1276546.0</v>
       </c>
       <c r="AD41" s="2">
         <v>0.3784</v>
@@ -26384,10 +26002,10 @@
       </c>
       <c r="AF41" s="2"/>
       <c r="AG41" s="6">
-        <v>-18920.856</v>
+        <v>-17145.944</v>
       </c>
       <c r="AH41" s="1">
-        <v>-101279.672</v>
+        <v>-86972.752</v>
       </c>
       <c r="AI41" s="2"/>
       <c r="AJ41" s="1">
@@ -26402,7 +26020,7 @@
       <c r="AM41" s="1"/>
       <c r="AN41" s="2"/>
       <c r="AO41" t="s">
-        <v>106</v>
+        <v>88</v>
       </c>
     </row>
     <row r="42" spans="1:41">
@@ -26428,28 +26046,28 @@
       <c r="N42" s="1"/>
       <c r="O42" s="2"/>
       <c r="P42" s="6">
-        <v>4804414.0</v>
+        <v>4567020.0</v>
       </c>
       <c r="Q42" s="2">
         <v>0.07</v>
       </c>
       <c r="R42" s="1">
-        <v>4804414.0</v>
+        <v>4567020.0</v>
       </c>
       <c r="S42" s="1">
-        <v>949370.992</v>
+        <v>894706.636</v>
       </c>
       <c r="T42" s="1">
-        <v>949370.992</v>
+        <v>894706.636</v>
       </c>
       <c r="U42" s="1">
-        <v>3843531.2</v>
+        <v>3653616.0</v>
       </c>
       <c r="V42" s="2">
         <v>0.8</v>
       </c>
       <c r="W42" s="5">
-        <v>21435.312</v>
+        <v>19536.16</v>
       </c>
       <c r="X42" s="2">
         <v>0.01</v>
@@ -26457,13 +26075,13 @@
       <c r="Y42" s="5"/>
       <c r="Z42" s="2"/>
       <c r="AA42" s="1">
-        <v>3345666.0</v>
+        <v>3177417.0</v>
       </c>
       <c r="AB42" s="1">
-        <v>3855043.008</v>
+        <v>3672313.364</v>
       </c>
       <c r="AC42" s="5">
-        <v>1458748.0</v>
+        <v>1389603.0</v>
       </c>
       <c r="AD42" s="2">
         <v>0.3784</v>
@@ -26473,10 +26091,10 @@
       </c>
       <c r="AF42" s="2"/>
       <c r="AG42" s="6">
-        <v>-21435.312</v>
+        <v>-19536.16</v>
       </c>
       <c r="AH42" s="1">
-        <v>-122714.984</v>
+        <v>-106508.912</v>
       </c>
       <c r="AI42" s="2"/>
       <c r="AJ42" s="1">
@@ -26491,7 +26109,7 @@
       <c r="AM42" s="1"/>
       <c r="AN42" s="2"/>
       <c r="AO42" t="s">
-        <v>107</v>
+        <v>89</v>
       </c>
     </row>
     <row r="43" spans="1:41">
@@ -26517,28 +26135,28 @@
       <c r="N43" s="1"/>
       <c r="O43" s="2"/>
       <c r="P43" s="6">
-        <v>5140723.0</v>
+        <v>4886711.0</v>
       </c>
       <c r="Q43" s="2">
         <v>0.07</v>
       </c>
       <c r="R43" s="1">
-        <v>5140723.0</v>
+        <v>4886711.0</v>
       </c>
       <c r="S43" s="1">
-        <v>949370.992</v>
+        <v>894706.636</v>
       </c>
       <c r="T43" s="1">
-        <v>949370.992</v>
+        <v>894706.636</v>
       </c>
       <c r="U43" s="1">
-        <v>4112578.4</v>
+        <v>3909368.8</v>
       </c>
       <c r="V43" s="2">
         <v>0.8</v>
       </c>
       <c r="W43" s="5">
-        <v>24125.784</v>
+        <v>22093.688</v>
       </c>
       <c r="X43" s="2">
         <v>0.01</v>
@@ -26546,13 +26164,13 @@
       <c r="Y43" s="5"/>
       <c r="Z43" s="2"/>
       <c r="AA43" s="1">
-        <v>3554715.0</v>
+        <v>3376137.0</v>
       </c>
       <c r="AB43" s="1">
-        <v>4191352.008</v>
+        <v>3992004.364</v>
       </c>
       <c r="AC43" s="5">
-        <v>1586008.0</v>
+        <v>1510574.0</v>
       </c>
       <c r="AD43" s="2">
         <v>0.3784</v>
@@ -26562,10 +26180,10 @@
       </c>
       <c r="AF43" s="2"/>
       <c r="AG43" s="6">
-        <v>-24125.784</v>
+        <v>-22093.688</v>
       </c>
       <c r="AH43" s="1">
-        <v>-146840.768</v>
+        <v>-128602.6</v>
       </c>
       <c r="AI43" s="2"/>
       <c r="AJ43" s="1">
@@ -26580,7 +26198,7 @@
       <c r="AM43" s="1"/>
       <c r="AN43" s="2"/>
       <c r="AO43" t="s">
-        <v>108</v>
+        <v>90</v>
       </c>
     </row>
     <row r="44" spans="1:41">
@@ -26606,28 +26224,28 @@
       <c r="N44" s="1"/>
       <c r="O44" s="2"/>
       <c r="P44" s="6">
-        <v>5500574.0</v>
+        <v>5228781.0</v>
       </c>
       <c r="Q44" s="2">
         <v>0.07</v>
       </c>
       <c r="R44" s="1">
-        <v>5500574.0</v>
+        <v>5228781.0</v>
       </c>
       <c r="S44" s="1">
-        <v>949370.992</v>
+        <v>894706.636</v>
       </c>
       <c r="T44" s="1">
-        <v>949370.992</v>
+        <v>894706.636</v>
       </c>
       <c r="U44" s="1">
-        <v>4400459.2</v>
+        <v>4183024.8</v>
       </c>
       <c r="V44" s="2">
         <v>0.8</v>
       </c>
       <c r="W44" s="5">
-        <v>27004.592</v>
+        <v>24830.248</v>
       </c>
       <c r="X44" s="2">
         <v>0.01</v>
@@ -26635,13 +26253,13 @@
       <c r="Y44" s="5"/>
       <c r="Z44" s="2"/>
       <c r="AA44" s="1">
-        <v>3778399.0</v>
+        <v>3588767.0</v>
       </c>
       <c r="AB44" s="1">
-        <v>4551203.008</v>
+        <v>4334074.364</v>
       </c>
       <c r="AC44" s="5">
-        <v>1722175.0</v>
+        <v>1640014.0</v>
       </c>
       <c r="AD44" s="2">
         <v>0.3784</v>
@@ -26651,10 +26269,10 @@
       </c>
       <c r="AF44" s="2"/>
       <c r="AG44" s="6">
-        <v>-27004.592</v>
+        <v>-24830.248</v>
       </c>
       <c r="AH44" s="1">
-        <v>-173845.36</v>
+        <v>-153432.848</v>
       </c>
       <c r="AI44" s="2"/>
       <c r="AJ44" s="1">
@@ -26669,7 +26287,7 @@
       <c r="AM44" s="1"/>
       <c r="AN44" s="2"/>
       <c r="AO44" t="s">
-        <v>109</v>
+        <v>91</v>
       </c>
     </row>
     <row r="45" spans="1:41">
@@ -26695,28 +26313,28 @@
       <c r="N45" s="1"/>
       <c r="O45" s="2"/>
       <c r="P45" s="6">
-        <v>5885614.0</v>
+        <v>5594796.0</v>
       </c>
       <c r="Q45" s="2">
         <v>0.07</v>
       </c>
       <c r="R45" s="1">
-        <v>5885614.0</v>
+        <v>5594796.0</v>
       </c>
       <c r="S45" s="1">
-        <v>949370.992</v>
+        <v>894706.636</v>
       </c>
       <c r="T45" s="1">
-        <v>949370.992</v>
+        <v>894706.636</v>
       </c>
       <c r="U45" s="1">
-        <v>4708491.2</v>
+        <v>4475836.8</v>
       </c>
       <c r="V45" s="2">
         <v>0.8</v>
       </c>
       <c r="W45" s="5">
-        <v>30084.912</v>
+        <v>27758.368</v>
       </c>
       <c r="X45" s="2">
         <v>0.01</v>
@@ -26724,13 +26342,13 @@
       <c r="Y45" s="5"/>
       <c r="Z45" s="2"/>
       <c r="AA45" s="1">
-        <v>4017740.0</v>
+        <v>3816282.0</v>
       </c>
       <c r="AB45" s="1">
-        <v>4936243.008</v>
+        <v>4700089.364</v>
       </c>
       <c r="AC45" s="5">
-        <v>1867874.0</v>
+        <v>1778514.0</v>
       </c>
       <c r="AD45" s="2">
         <v>0.3784</v>
@@ -26740,10 +26358,10 @@
       </c>
       <c r="AF45" s="2"/>
       <c r="AG45" s="6">
-        <v>-30084.912</v>
+        <v>-27758.368</v>
       </c>
       <c r="AH45" s="1">
-        <v>-203930.272</v>
+        <v>-181191.216</v>
       </c>
       <c r="AI45" s="2"/>
       <c r="AJ45" s="1">
@@ -26758,7 +26376,7 @@
       <c r="AM45" s="1"/>
       <c r="AN45" s="2"/>
       <c r="AO45" t="s">
-        <v>110</v>
+        <v>92</v>
       </c>
     </row>
     <row r="46" spans="1:41">
@@ -26784,28 +26402,28 @@
       <c r="N46" s="1"/>
       <c r="O46" s="2"/>
       <c r="P46" s="6">
-        <v>6297607.0</v>
+        <v>5986432.0</v>
       </c>
       <c r="Q46" s="2">
         <v>0.07</v>
       </c>
       <c r="R46" s="1">
-        <v>6297607.0</v>
+        <v>5986432.0</v>
       </c>
       <c r="S46" s="1">
-        <v>949370.992</v>
+        <v>894706.636</v>
       </c>
       <c r="T46" s="1">
-        <v>949370.992</v>
+        <v>894706.636</v>
       </c>
       <c r="U46" s="1">
-        <v>5038085.6</v>
+        <v>4789145.6</v>
       </c>
       <c r="V46" s="2">
         <v>0.8</v>
       </c>
       <c r="W46" s="5">
-        <v>33380.856</v>
+        <v>30891.456</v>
       </c>
       <c r="X46" s="2">
         <v>0.01</v>
@@ -26813,13 +26431,13 @@
       <c r="Y46" s="5"/>
       <c r="Z46" s="2"/>
       <c r="AA46" s="1">
-        <v>4273834.0</v>
+        <v>4059723.0</v>
       </c>
       <c r="AB46" s="1">
-        <v>5348236.008</v>
+        <v>5091725.364</v>
       </c>
       <c r="AC46" s="5">
-        <v>2023773.0</v>
+        <v>1926709.0</v>
       </c>
       <c r="AD46" s="2">
         <v>0.3784</v>
@@ -26829,10 +26447,10 @@
       </c>
       <c r="AF46" s="2"/>
       <c r="AG46" s="6">
-        <v>-33380.856</v>
+        <v>-30891.456</v>
       </c>
       <c r="AH46" s="1">
-        <v>-237311.128</v>
+        <v>-212082.672</v>
       </c>
       <c r="AI46" s="2"/>
       <c r="AJ46" s="1">
@@ -26847,7 +26465,7 @@
       <c r="AM46" s="1"/>
       <c r="AN46" s="2"/>
       <c r="AO46" t="s">
-        <v>111</v>
+        <v>93</v>
       </c>
     </row>
     <row r="47" spans="1:41">
@@ -26873,28 +26491,28 @@
       <c r="N47" s="1"/>
       <c r="O47" s="2"/>
       <c r="P47" s="6">
-        <v>6738439.0</v>
+        <v>6405482.0</v>
       </c>
       <c r="Q47" s="2">
         <v>0.07</v>
       </c>
       <c r="R47" s="1">
-        <v>6738439.0</v>
+        <v>6405482.0</v>
       </c>
       <c r="S47" s="1">
-        <v>949370.992</v>
+        <v>894706.636</v>
       </c>
       <c r="T47" s="1">
-        <v>949370.992</v>
+        <v>894706.636</v>
       </c>
       <c r="U47" s="1">
-        <v>5390751.2</v>
+        <v>5124385.6</v>
       </c>
       <c r="V47" s="2">
         <v>0.8</v>
       </c>
       <c r="W47" s="5">
-        <v>36907.512</v>
+        <v>34243.856</v>
       </c>
       <c r="X47" s="2">
         <v>0.01</v>
@@ -26902,13 +26520,13 @@
       <c r="Y47" s="5"/>
       <c r="Z47" s="2"/>
       <c r="AA47" s="1">
-        <v>4547856.0</v>
+        <v>4320205.0</v>
       </c>
       <c r="AB47" s="1">
-        <v>5789068.008</v>
+        <v>5510775.364</v>
       </c>
       <c r="AC47" s="5">
-        <v>2190583.0</v>
+        <v>2085277.0</v>
       </c>
       <c r="AD47" s="2">
         <v>0.3784</v>
@@ -26918,10 +26536,10 @@
       </c>
       <c r="AF47" s="2"/>
       <c r="AG47" s="6">
-        <v>-36907.512</v>
+        <v>-34243.856</v>
       </c>
       <c r="AH47" s="1">
-        <v>-274218.64</v>
+        <v>-246326.528</v>
       </c>
       <c r="AI47" s="2"/>
       <c r="AJ47" s="1">
@@ -26936,7 +26554,7 @@
       <c r="AM47" s="1"/>
       <c r="AN47" s="2"/>
       <c r="AO47" t="s">
-        <v>112</v>
+        <v>94</v>
       </c>
     </row>
     <row r="48" spans="1:41">
@@ -26962,28 +26580,28 @@
       <c r="N48" s="1"/>
       <c r="O48" s="2"/>
       <c r="P48" s="6">
-        <v>7210130.0</v>
+        <v>6853866.0</v>
       </c>
       <c r="Q48" s="2">
         <v>0.07</v>
       </c>
       <c r="R48" s="1">
-        <v>7210130.0</v>
+        <v>6853866.0</v>
       </c>
       <c r="S48" s="1">
-        <v>949370.992</v>
+        <v>894706.636</v>
       </c>
       <c r="T48" s="1">
-        <v>949370.992</v>
+        <v>894706.636</v>
       </c>
       <c r="U48" s="1">
-        <v>5768104.0</v>
+        <v>5483092.8</v>
       </c>
       <c r="V48" s="2">
         <v>0.8</v>
       </c>
       <c r="W48" s="5">
-        <v>40681.04</v>
+        <v>37830.928</v>
       </c>
       <c r="X48" s="2">
         <v>0.01</v>
@@ -26991,13 +26609,13 @@
       <c r="Y48" s="5"/>
       <c r="Z48" s="2"/>
       <c r="AA48" s="1">
-        <v>4841059.0</v>
+        <v>4598920.0</v>
       </c>
       <c r="AB48" s="1">
-        <v>6260759.008</v>
+        <v>5959159.364</v>
       </c>
       <c r="AC48" s="5">
-        <v>2369071.0</v>
+        <v>2254946.0</v>
       </c>
       <c r="AD48" s="2">
         <v>0.3784</v>
@@ -27007,10 +26625,10 @@
       </c>
       <c r="AF48" s="2"/>
       <c r="AG48" s="6">
-        <v>-40681.04</v>
+        <v>-37830.928</v>
       </c>
       <c r="AH48" s="1">
-        <v>-314899.68</v>
+        <v>-284157.456</v>
       </c>
       <c r="AI48" s="2"/>
       <c r="AJ48" s="1">
@@ -27025,7 +26643,7 @@
       <c r="AM48" s="1"/>
       <c r="AN48" s="2"/>
       <c r="AO48" t="s">
-        <v>113</v>
+        <v>95</v>
       </c>
     </row>
     <row r="49" spans="1:41">
@@ -27051,28 +26669,28 @@
       <c r="N49" s="1"/>
       <c r="O49" s="2"/>
       <c r="P49" s="6">
-        <v>7714839.0</v>
+        <v>7333637.0</v>
       </c>
       <c r="Q49" s="2">
         <v>0.07</v>
       </c>
       <c r="R49" s="1">
-        <v>7714839.0</v>
+        <v>7333637.0</v>
       </c>
       <c r="S49" s="1">
-        <v>949370.992</v>
+        <v>894706.636</v>
       </c>
       <c r="T49" s="1">
-        <v>949370.992</v>
+        <v>894706.636</v>
       </c>
       <c r="U49" s="1">
-        <v>6171871.2</v>
+        <v>5866909.6</v>
       </c>
       <c r="V49" s="2">
         <v>0.8</v>
       </c>
       <c r="W49" s="5">
-        <v>44718.712</v>
+        <v>41669.096</v>
       </c>
       <c r="X49" s="2">
         <v>0.01</v>
@@ -27080,13 +26698,13 @@
       <c r="Y49" s="5"/>
       <c r="Z49" s="2"/>
       <c r="AA49" s="1">
-        <v>5154786.0</v>
+        <v>4897146.0</v>
       </c>
       <c r="AB49" s="1">
-        <v>6765468.008</v>
+        <v>6438930.364</v>
       </c>
       <c r="AC49" s="5">
-        <v>2560053.0</v>
+        <v>2436491.0</v>
       </c>
       <c r="AD49" s="2">
         <v>0.3784</v>
@@ -27096,10 +26714,10 @@
       </c>
       <c r="AF49" s="2"/>
       <c r="AG49" s="6">
-        <v>-44718.712</v>
+        <v>-41669.096</v>
       </c>
       <c r="AH49" s="1">
-        <v>-359618.392</v>
+        <v>-325826.552</v>
       </c>
       <c r="AI49" s="2"/>
       <c r="AJ49" s="1">
@@ -27114,7 +26732,7 @@
       <c r="AM49" s="1"/>
       <c r="AN49" s="2"/>
       <c r="AO49" t="s">
-        <v>114</v>
+        <v>96</v>
       </c>
     </row>
     <row r="50" spans="1:41">
@@ -27140,28 +26758,28 @@
       <c r="N50" s="1"/>
       <c r="O50" s="2"/>
       <c r="P50" s="6">
-        <v>8254878.0</v>
+        <v>7846992.0</v>
       </c>
       <c r="Q50" s="2">
         <v>0.07</v>
       </c>
       <c r="R50" s="1">
-        <v>8254878.0</v>
+        <v>7846992.0</v>
       </c>
       <c r="S50" s="1">
-        <v>949370.992</v>
+        <v>894706.636</v>
       </c>
       <c r="T50" s="1">
-        <v>949370.992</v>
+        <v>894706.636</v>
       </c>
       <c r="U50" s="1">
-        <v>6603902.4</v>
+        <v>6277593.6</v>
       </c>
       <c r="V50" s="2">
         <v>0.8</v>
       </c>
       <c r="W50" s="5">
-        <v>49039.024</v>
+        <v>45775.936</v>
       </c>
       <c r="X50" s="2">
         <v>0.01</v>
@@ -27169,13 +26787,13 @@
       <c r="Y50" s="5"/>
       <c r="Z50" s="2"/>
       <c r="AA50" s="1">
-        <v>5490474.0</v>
+        <v>5216247.0</v>
       </c>
       <c r="AB50" s="1">
-        <v>7305507.008</v>
+        <v>6952285.364</v>
       </c>
       <c r="AC50" s="5">
-        <v>2764404.0</v>
+        <v>2630745.0</v>
       </c>
       <c r="AD50" s="2">
         <v>0.3784</v>
@@ -27185,10 +26803,10 @@
       </c>
       <c r="AF50" s="2"/>
       <c r="AG50" s="6">
-        <v>-49039.024</v>
+        <v>-45775.936</v>
       </c>
       <c r="AH50" s="1">
-        <v>-408657.416</v>
+        <v>-371602.488</v>
       </c>
       <c r="AI50" s="2"/>
       <c r="AJ50" s="1">
@@ -27203,7 +26821,7 @@
       <c r="AM50" s="1"/>
       <c r="AN50" s="2"/>
       <c r="AO50" t="s">
-        <v>115</v>
+        <v>97</v>
       </c>
     </row>
     <row r="51" spans="1:41">
@@ -27229,28 +26847,28 @@
       <c r="N51" s="1"/>
       <c r="O51" s="2"/>
       <c r="P51" s="6">
-        <v>8832719.0</v>
+        <v>8396281.0</v>
       </c>
       <c r="Q51" s="2">
         <v>0.07</v>
       </c>
       <c r="R51" s="1">
-        <v>8832719.0</v>
+        <v>8396281.0</v>
       </c>
       <c r="S51" s="1">
-        <v>949370.992</v>
+        <v>894706.636</v>
       </c>
       <c r="T51" s="1">
-        <v>949370.992</v>
+        <v>894706.636</v>
       </c>
       <c r="U51" s="1">
-        <v>7066175.2</v>
+        <v>6717024.8</v>
       </c>
       <c r="V51" s="2">
         <v>0.8</v>
       </c>
       <c r="W51" s="5">
-        <v>53661.752</v>
+        <v>50170.248</v>
       </c>
       <c r="X51" s="2">
         <v>0.01</v>
@@ -27258,13 +26876,13 @@
       <c r="Y51" s="5"/>
       <c r="Z51" s="2"/>
       <c r="AA51" s="1">
-        <v>5849660.0</v>
+        <v>5557685.0</v>
       </c>
       <c r="AB51" s="1">
-        <v>7883348.008</v>
+        <v>7501574.364</v>
       </c>
       <c r="AC51" s="5">
-        <v>2983059.0</v>
+        <v>2838596.0</v>
       </c>
       <c r="AD51" s="2">
         <v>0.3784</v>
@@ -27274,10 +26892,10 @@
       </c>
       <c r="AF51" s="2"/>
       <c r="AG51" s="6">
-        <v>-53661.752</v>
+        <v>-50170.248</v>
       </c>
       <c r="AH51" s="1">
-        <v>-462319.168</v>
+        <v>-421772.736</v>
       </c>
       <c r="AI51" s="2"/>
       <c r="AJ51" s="1">
@@ -27292,7 +26910,7 @@
       <c r="AM51" s="1"/>
       <c r="AN51" s="2"/>
       <c r="AO51" t="s">
-        <v>116</v>
+        <v>98</v>
       </c>
     </row>
     <row r="52" spans="1:41">
@@ -27318,28 +26936,28 @@
       <c r="N52" s="5"/>
       <c r="O52" s="16"/>
       <c r="P52" s="5">
-        <v>9451009.0</v>
+        <v>8984021.0</v>
       </c>
       <c r="Q52" s="16">
         <v>0.07</v>
       </c>
       <c r="R52" s="5">
-        <v>9451009.0</v>
+        <v>8984021.0</v>
       </c>
       <c r="S52" s="5">
-        <v>949370.992</v>
+        <v>894706.636</v>
       </c>
       <c r="T52" s="5">
-        <v>949370.992</v>
+        <v>894706.636</v>
       </c>
       <c r="U52" s="5">
-        <v>7560807.2</v>
+        <v>7187216.8</v>
       </c>
       <c r="V52" s="16">
         <v>0.8</v>
       </c>
       <c r="W52" s="5">
-        <v>58608.072</v>
+        <v>54872.168</v>
       </c>
       <c r="X52" s="16">
         <v>0.01</v>
@@ -27347,13 +26965,13 @@
       <c r="Y52" s="5"/>
       <c r="Z52" s="16"/>
       <c r="AA52" s="5">
-        <v>6233989.0</v>
+        <v>5923024.0</v>
       </c>
       <c r="AB52" s="5">
-        <v>8501638.008</v>
+        <v>8089314.364</v>
       </c>
       <c r="AC52" s="5">
-        <v>3217020.0</v>
+        <v>3060997.0</v>
       </c>
       <c r="AD52" s="16">
         <v>0.3784</v>
@@ -27363,10 +26981,10 @@
       </c>
       <c r="AF52" s="16"/>
       <c r="AG52" s="5">
-        <v>-58608.072</v>
+        <v>-54872.168</v>
       </c>
       <c r="AH52" s="5">
-        <v>-520927.24</v>
+        <v>-476644.904</v>
       </c>
       <c r="AI52" s="16"/>
       <c r="AJ52" s="5">
@@ -27381,7 +26999,7 @@
       <c r="AM52" s="5"/>
       <c r="AN52" s="16"/>
       <c r="AO52" s="15" t="s">
-        <v>117</v>
+        <v>99</v>
       </c>
     </row>
     <row r="53" spans="1:41">
@@ -28567,10 +28185,10 @@
   <sheetData>
     <row r="5" spans="1:3">
       <c r="B5" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="C5" t="s">
-        <v>118</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:3">
